--- a/src/attributions/attributions_saliency_traj_332.xlsx
+++ b/src/attributions/attributions_saliency_traj_332.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.162197236226348e-06</v>
+        <v>0.0006225608522072434</v>
       </c>
       <c r="B4" t="n">
-        <v>5.554568360821577e-06</v>
+        <v>0.004281850531697273</v>
       </c>
       <c r="C4" t="n">
-        <v>5.092240940030024e-07</v>
+        <v>0.0004303362802602351</v>
       </c>
       <c r="D4" t="n">
-        <v>6.347125690808753e-06</v>
+        <v>0.001557856099680066</v>
       </c>
       <c r="E4" t="n">
-        <v>5.522319383999275e-07</v>
+        <v>0.0003523535560816526</v>
       </c>
       <c r="F4" t="n">
-        <v>5.55043811800715e-07</v>
+        <v>0.002946384716778994</v>
       </c>
       <c r="G4" t="n">
-        <v>1.035008835970075e-06</v>
+        <v>0.0001776703866198659</v>
       </c>
       <c r="H4" t="n">
-        <v>5.402569058787776e-08</v>
+        <v>0.0004278387932572514</v>
       </c>
       <c r="I4" t="n">
-        <v>3.878793677358772e-07</v>
+        <v>0.0001655575906625018</v>
       </c>
       <c r="J4" t="n">
-        <v>2.716870426411333e-07</v>
+        <v>0.00120028795208782</v>
       </c>
       <c r="K4" t="n">
-        <v>5.366468485590303e-06</v>
+        <v>0.003126270137727261</v>
       </c>
       <c r="L4" t="n">
-        <v>1.324773052147066e-06</v>
+        <v>7.736961561022326e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>4.967198037775233e-06</v>
+        <v>0.001658197725191712</v>
       </c>
       <c r="N4" t="n">
-        <v>7.382340072581428e-08</v>
+        <v>0.0003607486141845584</v>
       </c>
       <c r="O4" t="n">
-        <v>1.528340249024041e-06</v>
+        <v>0.002638787729665637</v>
       </c>
       <c r="P4" t="n">
-        <v>6.884641265969549e-07</v>
+        <v>0.0001675623934715986</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.668052161425294e-07</v>
+        <v>0.0005399444489739835</v>
       </c>
       <c r="R4" t="n">
-        <v>1.461066176489112e-06</v>
+        <v>0.0002648200024850667</v>
       </c>
       <c r="S4" t="n">
-        <v>6.567353239006479e-08</v>
+        <v>0.0001871733693405986</v>
       </c>
       <c r="T4" t="n">
-        <v>4.434106131157023e-07</v>
+        <v>0.000243969407165423</v>
       </c>
       <c r="U4" t="n">
-        <v>6.444178097808617e-07</v>
+        <v>0.0002417365612927824</v>
       </c>
       <c r="V4" t="n">
-        <v>2.512601042781171e-07</v>
+        <v>0.0001861797936726362</v>
       </c>
       <c r="W4" t="n">
-        <v>2.91156266030157e-06</v>
+        <v>0.0004402823396958411</v>
       </c>
       <c r="X4" t="n">
-        <v>1.188805285323724e-07</v>
+        <v>0.0003386071184650064</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.364171210610948e-07</v>
+        <v>0.0004286448529455811</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.501712507793854e-07</v>
+        <v>0.0003007501945830882</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.397478268307168e-09</v>
+        <v>0.0002073796349577606</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.679666638665367e-06</v>
+        <v>0.0002769735874608159</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.896122037389432e-07</v>
+        <v>0.0004531377635430545</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.336992963591911e-07</v>
+        <v>8.11280042398721e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.242395779234357e-07</v>
+        <v>0.0003977475862484425</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.130181883330806e-06</v>
+        <v>0.00046972167911008</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.582991207120358e-07</v>
+        <v>0.000350992864696309</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.15327451214398e-08</v>
+        <v>3.532343544065952e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.911583803528629e-07</v>
+        <v>0.000259376218309626</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.62327199354695e-08</v>
+        <v>4.010149950772757e-06</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.618416035853443e-06</v>
+        <v>6.146985833765939e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.353221912533627e-07</v>
+        <v>0.0003632479056250304</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.353400922558649e-08</v>
+        <v>0.0003817008691839874</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.504978162207408e-07</v>
+        <v>0.000297080259770155</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.009800882911804e-07</v>
+        <v>7.919420750113204e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>5.465316803565656e-07</v>
+        <v>0.0006856743711978197</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.553569006773614e-08</v>
+        <v>0.000343587773386389</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.862113769377174e-07</v>
+        <v>0.0002621765597723424</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.138243631743535e-07</v>
+        <v>0.0007047134567983449</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.370488457221654e-06</v>
+        <v>0.0004212841740809381</v>
       </c>
       <c r="AU4" t="n">
-        <v>4.631501724361442e-06</v>
+        <v>0.002248626668006182</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.284105564991478e-06</v>
+        <v>0.0006276690401136875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.278433160223358e-06</v>
+        <v>9.786563168745488e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.348869886896864e-06</v>
+        <v>0.0004998843651264906</v>
       </c>
       <c r="AY4" t="n">
-        <v>9.547201216264511e-07</v>
+        <v>0.001277488307096064</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.257011945199338e-06</v>
+        <v>0.0006292493781074882</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.35598753558952e-07</v>
+        <v>0.0001928466372191906</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.684898052189965e-07</v>
+        <v>0.001172668766230345</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.582885656465805e-07</v>
+        <v>0.0009304319391958416</v>
       </c>
       <c r="BD4" t="n">
-        <v>9.07972776076349e-07</v>
+        <v>0.0006028722273185849</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.555377704993589e-07</v>
+        <v>0.000728389248251915</v>
       </c>
       <c r="BF4" t="n">
-        <v>3.065853434236487e-06</v>
+        <v>0.0003465021145530045</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.324777170770176e-07</v>
+        <v>0.00134048645850271</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.134916258000885e-06</v>
+        <v>0.001193877193145454</v>
       </c>
       <c r="BI4" t="n">
-        <v>6.029282531017088e-07</v>
+        <v>0.0007401012117043138</v>
       </c>
       <c r="BJ4" t="n">
-        <v>6.809120804973645e-07</v>
+        <v>0.0005810440052300692</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.080959350474586e-06</v>
+        <v>0.0004406453226692975</v>
       </c>
       <c r="BL4" t="n">
-        <v>3.792528673329798e-07</v>
+        <v>3.19238388328813e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.360502321607783e-06</v>
+        <v>0.0001312353415414691</v>
       </c>
       <c r="BN4" t="n">
-        <v>3.749041184164525e-07</v>
+        <v>0.0001734034594846889</v>
       </c>
       <c r="BO4" t="n">
-        <v>7.663853693884448e-07</v>
+        <v>0.0007830216200090945</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.39181247252418e-07</v>
+        <v>0.0004274857346899807</v>
       </c>
       <c r="BQ4" t="n">
-        <v>5.079127163298836e-07</v>
+        <v>0.0001529118308098987</v>
       </c>
       <c r="BR4" t="n">
-        <v>1.770692534819318e-07</v>
+        <v>0.0004687545588240027</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.030883763382008e-07</v>
+        <v>9.368159953737631e-05</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.414859068267106e-07</v>
+        <v>0.0001862413046183065</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.674819370440673e-06</v>
+        <v>0.0002005932328756899</v>
       </c>
       <c r="BV4" t="n">
-        <v>4.409923803905258e-08</v>
+        <v>0.001225778949446976</v>
       </c>
       <c r="BW4" t="n">
-        <v>5.757889880442235e-07</v>
+        <v>0.0004907551337964833</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.330161578356638e-06</v>
+        <v>9.028444765135646e-06</v>
       </c>
       <c r="BY4" t="n">
-        <v>3.229542642202432e-07</v>
+        <v>0.0003190912248101085</v>
       </c>
       <c r="BZ4" t="n">
-        <v>5.88436762427591e-07</v>
+        <v>8.539282134734094e-06</v>
       </c>
       <c r="CA4" t="n">
-        <v>6.268076049309457e-07</v>
+        <v>1.697756670182571e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.298874394706218e-07</v>
+        <v>0.0003142269561067224</v>
       </c>
       <c r="CC4" t="n">
-        <v>3.658494449609861e-07</v>
+        <v>0.0006653839373029768</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.499105792390765e-06</v>
+        <v>6.950058013899252e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.230059865520161e-06</v>
+        <v>0.0007297704578377306</v>
       </c>
       <c r="CF4" t="n">
-        <v>1.007904248950808e-08</v>
+        <v>0.0004069185815751553</v>
       </c>
       <c r="CG4" t="n">
-        <v>9.168038559437264e-07</v>
+        <v>0.0003841637808363885</v>
       </c>
       <c r="CH4" t="n">
-        <v>4.177848325070954e-07</v>
+        <v>0.0002763466618489474</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.687585609033704e-07</v>
+        <v>0.0004876614257227629</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2.050262395414393e-07</v>
+        <v>0.0002835546038113534</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.102466598013052e-07</v>
+        <v>4.584499038173817e-05</v>
       </c>
       <c r="CL4" t="n">
-        <v>2.639566787365766e-07</v>
+        <v>0.000421794451540336</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.031047645483341e-06</v>
+        <v>6.134858995210379e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>3.430742196997016e-07</v>
+        <v>0.000452908338047564</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.085260009858757e-06</v>
+        <v>0.0003451395605225116</v>
       </c>
       <c r="CP4" t="n">
-        <v>6.742506002410664e-07</v>
+        <v>0.000803353323135525</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.771882009255933e-06</v>
+        <v>0.0004164283454883844</v>
       </c>
       <c r="CR4" t="n">
-        <v>3.32994954987953e-06</v>
+        <v>0.0001025168021442369</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.520894556961139e-07</v>
+        <v>0.0002705620718188584</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.436917386854475e-06</v>
+        <v>0.0003884886973537505</v>
       </c>
       <c r="CU4" t="n">
-        <v>3.214407513496553e-07</v>
+        <v>0.000269984477199614</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.564407966725412e-06</v>
+        <v>1.044658711180091e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.295910010412626e-06</v>
+        <v>0.0006774021894671023</v>
       </c>
       <c r="CX4" t="n">
-        <v>2.102364149436653e-08</v>
+        <v>0.0003819148114416748</v>
       </c>
       <c r="CY4" t="n">
-        <v>8.625381724414183e-07</v>
+        <v>0.0005295614246279001</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.922063148640518e-07</v>
+        <v>0.0004002191417384893</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.49200502619351e-07</v>
+        <v>0.000485624885186553</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.510929905634839e-07</v>
+        <v>0.0001891615684144199</v>
       </c>
       <c r="DC4" t="n">
-        <v>5.505567912678089e-08</v>
+        <v>0.0001109729200834408</v>
       </c>
       <c r="DD4" t="n">
-        <v>2.170498021314415e-07</v>
+        <v>0.0004087435663677752</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.940187414424145e-06</v>
+        <v>0.0002130679640686139</v>
       </c>
       <c r="DF4" t="n">
-        <v>3.179178975187824e-06</v>
+        <v>0.0007463632500730455</v>
       </c>
       <c r="DG4" t="n">
-        <v>5.476158548844978e-07</v>
+        <v>8.660105231683701e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>5.822404318678309e-07</v>
+        <v>0.0008360838983207941</v>
       </c>
       <c r="DI4" t="n">
-        <v>3.899633043147333e-07</v>
+        <v>0.0005858260556124151</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.104161583498353e-06</v>
+        <v>0.001390496734529734</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.153290440925048e-06</v>
+        <v>0.0006300659733824432</v>
       </c>
       <c r="DL4" t="n">
-        <v>7.471480216736381e-07</v>
+        <v>0.0006133053102530539</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.611796136558041e-07</v>
+        <v>0.001183728338219225</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.115266627493838e-06</v>
+        <v>0.0002655905263964087</v>
       </c>
       <c r="DO4" t="n">
-        <v>8.19360138848424e-07</v>
+        <v>0.0002609648217912763</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.296354810165212e-07</v>
+        <v>0.0003505917848087847</v>
       </c>
       <c r="DQ4" t="n">
-        <v>4.911981932309573e-07</v>
+        <v>0.0003288163570687175</v>
       </c>
       <c r="DR4" t="n">
-        <v>2.106257397826994e-06</v>
+        <v>8.434288611169904e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>2.000817858061055e-07</v>
+        <v>0.0001150826137745753</v>
       </c>
       <c r="DT4" t="n">
-        <v>3.495933924568817e-07</v>
+        <v>0.000212687358725816</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.023474283101677e-07</v>
+        <v>7.455582090187818e-05</v>
       </c>
       <c r="DV4" t="n">
-        <v>8.482628004458093e-07</v>
+        <v>5.032867920817807e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.051044762334641e-07</v>
+        <v>0.000233006154303439</v>
       </c>
       <c r="DX4" t="n">
-        <v>1.747812461871945e-06</v>
+        <v>0.0002571231452748179</v>
       </c>
       <c r="DY4" t="n">
-        <v>9.96419998955389e-07</v>
+        <v>0.0003802280116360635</v>
       </c>
       <c r="DZ4" t="n">
-        <v>5.068775408290094e-07</v>
+        <v>0.0003506817738525569</v>
       </c>
       <c r="EA4" t="n">
-        <v>2.304387010099163e-07</v>
+        <v>0.0003044079639948905</v>
       </c>
       <c r="EB4" t="n">
-        <v>7.165116358009982e-07</v>
+        <v>0.0001737618586048484</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.12622316805755e-07</v>
+        <v>0.000176887697307393</v>
       </c>
       <c r="ED4" t="n">
-        <v>2.09641370929603e-09</v>
+        <v>0.0002106548490701243</v>
       </c>
       <c r="EE4" t="n">
-        <v>9.687697684057639e-07</v>
+        <v>0.000443166820332408</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.297476046602242e-06</v>
+        <v>0.000102112753666006</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.340679204986372e-06</v>
+        <v>0.0004240001435391605</v>
       </c>
       <c r="EH4" t="n">
-        <v>6.239285994524835e-07</v>
+        <v>0.0001547548454254866</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.867219225459849e-06</v>
+        <v>3.144476795569062e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.453989736750373e-06</v>
+        <v>0.0001284265163121745</v>
       </c>
       <c r="EK4" t="n">
-        <v>7.931760137580568e-09</v>
+        <v>0.0001508293498773128</v>
       </c>
       <c r="EL4" t="n">
-        <v>2.493011947990453e-07</v>
+        <v>0.0005589485517702997</v>
       </c>
       <c r="EM4" t="n">
-        <v>4.30654949923337e-07</v>
+        <v>2.321507054148242e-06</v>
       </c>
       <c r="EN4" t="n">
-        <v>6.655486117779219e-08</v>
+        <v>0.0001131843237089925</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.466154230911343e-06</v>
+        <v>0.0002510190533939749</v>
       </c>
       <c r="EP4" t="n">
-        <v>1.41225655170274e-06</v>
+        <v>0.0003441189764998853</v>
       </c>
       <c r="EQ4" t="n">
-        <v>8.511547093803529e-07</v>
+        <v>0.0002967105829156935</v>
       </c>
       <c r="ER4" t="n">
-        <v>7.179896783782169e-07</v>
+        <v>0.0005601372686214745</v>
       </c>
       <c r="ES4" t="n">
-        <v>8.537856501789065e-07</v>
+        <v>0.0007496624020859599</v>
       </c>
       <c r="ET4" t="n">
-        <v>4.691361823461193e-07</v>
+        <v>0.00117875449359417</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.384110817070905e-07</v>
+        <v>0.0004086221451871097</v>
       </c>
       <c r="EV4" t="n">
-        <v>4.40489998254634e-07</v>
+        <v>0.0002788033743854612</v>
       </c>
       <c r="EW4" t="n">
-        <v>2.361006750106753e-07</v>
+        <v>0.0002877129300031811</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.279859930036764e-06</v>
+        <v>2.339919592486694e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.177654212369816e-06</v>
+        <v>0.0007077741320244968</v>
       </c>
       <c r="EZ4" t="n">
-        <v>6.562314780467204e-08</v>
+        <v>0.000187614539754577</v>
       </c>
       <c r="FA4" t="n">
-        <v>5.892217131986399e-07</v>
+        <v>0.0003756557125598192</v>
       </c>
       <c r="FB4" t="n">
-        <v>4.156791817422345e-07</v>
+        <v>0.0004587035509757698</v>
       </c>
       <c r="FC4" t="n">
-        <v>3.217768949070887e-07</v>
+        <v>0.0003767275484278798</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.468361574552546e-07</v>
+        <v>0.0003960502799600363</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.367338538533659e-07</v>
+        <v>8.943302964325994e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>6.083092785047484e-08</v>
+        <v>0.0005866654100827873</v>
       </c>
       <c r="FG4" t="n">
-        <v>2.718388145694917e-07</v>
+        <v>0.0001410535187460482</v>
       </c>
       <c r="FH4" t="n">
-        <v>5.546389729715884e-07</v>
+        <v>0.0003813348594121635</v>
       </c>
       <c r="FI4" t="n">
-        <v>2.800126708280004e-07</v>
+        <v>0.0002089562913170084</v>
       </c>
       <c r="FJ4" t="n">
-        <v>4.089565663889516e-07</v>
+        <v>0.0006419030833058059</v>
       </c>
       <c r="FK4" t="n">
-        <v>1.36165147068823e-06</v>
+        <v>0.0001743109751259908</v>
       </c>
       <c r="FL4" t="n">
-        <v>1.256226482837519e-06</v>
+        <v>0.0002382445672992617</v>
       </c>
       <c r="FM4" t="n">
-        <v>3.260327048337786e-07</v>
+        <v>1.137758954428136e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>7.171666425165313e-07</v>
+        <v>0.0003261428792029619</v>
       </c>
       <c r="FO4" t="n">
-        <v>7.774684149808309e-07</v>
+        <v>0.0004760236188303679</v>
       </c>
       <c r="FP4" t="n">
-        <v>2.624004764584242e-07</v>
+        <v>0.000328377413097769</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1.050577566275024e-06</v>
+        <v>0.0004556471249088645</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.400205746904248e-06</v>
+        <v>0.0001597646332811564</v>
       </c>
       <c r="FS4" t="n">
-        <v>8.170998739842616e-07</v>
+        <v>0.0002097788819810376</v>
       </c>
       <c r="FT4" t="n">
-        <v>9.122351229962078e-07</v>
+        <v>0.0001121574168791994</v>
       </c>
       <c r="FU4" t="n">
-        <v>5.472079465107527e-07</v>
+        <v>0.0009840083075687289</v>
       </c>
       <c r="FV4" t="n">
-        <v>7.395018286615596e-08</v>
+        <v>9.06374043552205e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>6.190888370838366e-07</v>
+        <v>0.0005636111600324512</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.206380716212152e-06</v>
+        <v>0.0002624483313411474</v>
       </c>
       <c r="FY4" t="n">
-        <v>1.222706600856327e-06</v>
+        <v>0.0006273316685110331</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1.715274606794992e-07</v>
+        <v>0.0002493704087100923</v>
       </c>
       <c r="GA4" t="n">
-        <v>8.798937187748379e-07</v>
+        <v>0.0001393838028889149</v>
       </c>
       <c r="GB4" t="n">
-        <v>1.553169113321928e-06</v>
+        <v>0.0001083742754417472</v>
       </c>
       <c r="GC4" t="n">
-        <v>1.274800411010801e-06</v>
+        <v>0.0007503239903599024</v>
       </c>
       <c r="GD4" t="n">
-        <v>5.506326488102786e-07</v>
+        <v>0.0002558934211265296</v>
       </c>
       <c r="GE4" t="n">
-        <v>5.906629496621463e-08</v>
+        <v>0.0007672918727621436</v>
       </c>
       <c r="GF4" t="n">
-        <v>5.87719227951311e-07</v>
+        <v>0.0001165561989182606</v>
       </c>
       <c r="GG4" t="n">
-        <v>3.377015502792347e-07</v>
+        <v>3.277120413258672e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.606428412515015e-07</v>
+        <v>0.0008177238050848246</v>
       </c>
       <c r="B5" t="n">
-        <v>2.496187789802207e-08</v>
+        <v>0.003180947620421648</v>
       </c>
       <c r="C5" t="n">
-        <v>8.772380510890798e-07</v>
+        <v>0.0002211301762145013</v>
       </c>
       <c r="D5" t="n">
-        <v>2.278657348142588e-06</v>
+        <v>0.001013662782497704</v>
       </c>
       <c r="E5" t="n">
-        <v>6.477588385678246e-07</v>
+        <v>0.0008543530711904168</v>
       </c>
       <c r="F5" t="n">
-        <v>5.602876740340434e-08</v>
+        <v>0.0007195424987003207</v>
       </c>
       <c r="G5" t="n">
-        <v>3.401854371531954e-07</v>
+        <v>0.0002203281910624355</v>
       </c>
       <c r="H5" t="n">
-        <v>9.292430718232936e-07</v>
+        <v>0.0001262069708900526</v>
       </c>
       <c r="I5" t="n">
-        <v>5.275819603411946e-07</v>
+        <v>8.934663128457032e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>5.162681873116526e-07</v>
+        <v>0.000649051449727267</v>
       </c>
       <c r="K5" t="n">
-        <v>1.716239808047249e-07</v>
+        <v>0.002082891296595335</v>
       </c>
       <c r="L5" t="n">
-        <v>4.599859551035479e-07</v>
+        <v>0.0002092575596179813</v>
       </c>
       <c r="M5" t="n">
-        <v>2.030175437539583e-06</v>
+        <v>0.001347134704701602</v>
       </c>
       <c r="N5" t="n">
-        <v>1.239060111402068e-06</v>
+        <v>0.002111529931426048</v>
       </c>
       <c r="O5" t="n">
-        <v>9.969510301743867e-07</v>
+        <v>0.001354171079583466</v>
       </c>
       <c r="P5" t="n">
-        <v>2.947130610664317e-07</v>
+        <v>0.000248832511715591</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.376613113279745e-06</v>
+        <v>0.0001620591938262805</v>
       </c>
       <c r="R5" t="n">
-        <v>1.0607868716761e-07</v>
+        <v>0.0004284691240172833</v>
       </c>
       <c r="S5" t="n">
-        <v>3.686473633024434e-07</v>
+        <v>8.620160224381834e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>8.289579227493959e-07</v>
+        <v>0.0003943644696846604</v>
       </c>
       <c r="U5" t="n">
-        <v>6.086860366849578e-07</v>
+        <v>0.000227213982725516</v>
       </c>
       <c r="V5" t="n">
-        <v>3.163604560540989e-07</v>
+        <v>0.0001587854203535244</v>
       </c>
       <c r="W5" t="n">
-        <v>1.516930069556111e-06</v>
+        <v>0.0002482457202859223</v>
       </c>
       <c r="X5" t="n">
-        <v>5.819764226089319e-08</v>
+        <v>0.0006548049859702587</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.889536207499987e-07</v>
+        <v>0.000523712020367384</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.336199938530626e-07</v>
+        <v>0.0003658155910670757</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.152679161009473e-07</v>
+        <v>0.00016615359345451</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.845515491069818e-07</v>
+        <v>0.00050604238640517</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.290740527792877e-07</v>
+        <v>0.0005930242477916181</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.232901176237647e-07</v>
+        <v>0.0001692335645202547</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.976526497557643e-07</v>
+        <v>0.000157985050464049</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.640827574396098e-07</v>
+        <v>0.000877582817338407</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.069129364685068e-08</v>
+        <v>5.693871935363859e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.423850061944904e-08</v>
+        <v>0.0004160829121246934</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.109601607320656e-07</v>
+        <v>4.553314647637308e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.765698982580943e-07</v>
+        <v>1.370057725580409e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.620641564339167e-07</v>
+        <v>0.0002140825090464205</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.537734644647571e-07</v>
+        <v>0.0001867772225523368</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.260036412986665e-07</v>
+        <v>0.0001498892961535603</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.668948688253295e-07</v>
+        <v>3.078601730521768e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.135639221023666e-07</v>
+        <v>0.0003292124019935727</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.054467387324621e-07</v>
+        <v>0.0002067450695903972</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3.495870259939693e-10</v>
+        <v>6.240466609597206e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.4614479937336e-07</v>
+        <v>0.0001056175970006734</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.819829513280638e-08</v>
+        <v>0.000228264631005004</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.795429178893755e-08</v>
+        <v>0.000107509309600573</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.087364864815754e-07</v>
+        <v>0.00229320814833045</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.461003015876486e-07</v>
+        <v>0.0001122252797358669</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.113223788706819e-06</v>
+        <v>0.0001170901814475656</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.884221489945048e-07</v>
+        <v>0.0004922593361698091</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.036029513874382e-07</v>
+        <v>0.0001961900707101449</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3.679860753891262e-07</v>
+        <v>0.000221366819459945</v>
       </c>
       <c r="BA5" t="n">
-        <v>3.581091903015476e-07</v>
+        <v>9.3379698228091e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.442990367195307e-07</v>
+        <v>7.302794983843341e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>4.756537350658618e-07</v>
+        <v>0.0001079579524230212</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.758302741767693e-07</v>
+        <v>0.0005851160385645926</v>
       </c>
       <c r="BE5" t="n">
-        <v>9.633697573008249e-08</v>
+        <v>0.0007518368656747043</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.145308033301262e-06</v>
+        <v>0.0001665081072133034</v>
       </c>
       <c r="BG5" t="n">
-        <v>3.63075969289639e-07</v>
+        <v>0.001597991096787155</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.349185509980089e-07</v>
+        <v>0.0008327860850840807</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.450404170100228e-07</v>
+        <v>0.0004736306727863848</v>
       </c>
       <c r="BJ5" t="n">
-        <v>4.474830461731472e-07</v>
+        <v>5.65419250051491e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>7.034648774606467e-08</v>
+        <v>0.0001506542757852003</v>
       </c>
       <c r="BL5" t="n">
-        <v>6.459998758145957e-07</v>
+        <v>0.0004554578044917434</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.192976100128362e-07</v>
+        <v>0.000200005917577073</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.306117809463103e-07</v>
+        <v>0.0004496796173043549</v>
       </c>
       <c r="BO5" t="n">
-        <v>4.528576624807101e-08</v>
+        <v>0.0001557089708512649</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.525166339888528e-07</v>
+        <v>0.0007768144714646041</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.705668140061789e-08</v>
+        <v>0.0002156533591914922</v>
       </c>
       <c r="BR5" t="n">
-        <v>7.57506057880164e-09</v>
+        <v>0.0005845468258485198</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.349038143416692e-07</v>
+        <v>0.0006738691008649766</v>
       </c>
       <c r="BT5" t="n">
-        <v>2.254752331509735e-07</v>
+        <v>0.0004507456906139851</v>
       </c>
       <c r="BU5" t="n">
-        <v>3.326374269363441e-07</v>
+        <v>8.124625310301781e-07</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.24015826941104e-07</v>
+        <v>0.001108981086872518</v>
       </c>
       <c r="BW5" t="n">
-        <v>3.046220058422477e-07</v>
+        <v>0.0001244009472429752</v>
       </c>
       <c r="BX5" t="n">
-        <v>9.897509016809636e-07</v>
+        <v>3.514485433697701e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.769132751405778e-07</v>
+        <v>0.0001126998758991249</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2.564736973909021e-07</v>
+        <v>0.0005540451384149492</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.233944857403912e-07</v>
+        <v>1.085166877601296e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>4.235702988353296e-07</v>
+        <v>0.0001896863832371309</v>
       </c>
       <c r="CC5" t="n">
-        <v>3.863030428874481e-07</v>
+        <v>0.0002124601742252707</v>
       </c>
       <c r="CD5" t="n">
-        <v>3.760942774988507e-07</v>
+        <v>0.0001692922814982012</v>
       </c>
       <c r="CE5" t="n">
-        <v>9.182878102365066e-08</v>
+        <v>0.0005566327017731965</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.17765318666352e-07</v>
+        <v>0.0002153464447474107</v>
       </c>
       <c r="CG5" t="n">
-        <v>4.953168968313548e-07</v>
+        <v>0.0001240842248080298</v>
       </c>
       <c r="CH5" t="n">
-        <v>3.437857571952918e-07</v>
+        <v>7.795679266564548e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>9.052951810417653e-08</v>
+        <v>0.0001702991721685976</v>
       </c>
       <c r="CJ5" t="n">
-        <v>4.876642201168124e-09</v>
+        <v>0.000243682210566476</v>
       </c>
       <c r="CK5" t="n">
-        <v>1.745899567140441e-07</v>
+        <v>9.554183634463698e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>7.276542390854956e-08</v>
+        <v>4.069703209097497e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>8.916559579574823e-08</v>
+        <v>0.000644247978925705</v>
       </c>
       <c r="CN5" t="n">
-        <v>8.775430728746869e-07</v>
+        <v>0.0003427620104048401</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.316403483997419e-07</v>
+        <v>0.0001237535325344652</v>
       </c>
       <c r="CP5" t="n">
-        <v>8.035469818423735e-07</v>
+        <v>0.0005312156281434</v>
       </c>
       <c r="CQ5" t="n">
-        <v>7.56378312871675e-07</v>
+        <v>0.0003441364387981594</v>
       </c>
       <c r="CR5" t="n">
-        <v>8.551756423003098e-07</v>
+        <v>0.0004452129651326686</v>
       </c>
       <c r="CS5" t="n">
-        <v>3.908846224476292e-08</v>
+        <v>0.0002057204255834222</v>
       </c>
       <c r="CT5" t="n">
-        <v>3.617764434693527e-07</v>
+        <v>0.0004037951584905386</v>
       </c>
       <c r="CU5" t="n">
-        <v>3.991208643583377e-07</v>
+        <v>3.310478496132419e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>3.945889943679504e-07</v>
+        <v>0.0001893910521175712</v>
       </c>
       <c r="CW5" t="n">
-        <v>1.657161874391022e-07</v>
+        <v>0.000466329453047365</v>
       </c>
       <c r="CX5" t="n">
-        <v>2.812512889249774e-07</v>
+        <v>0.0002662301703821868</v>
       </c>
       <c r="CY5" t="n">
-        <v>4.208996813304111e-07</v>
+        <v>0.0001419764739694074</v>
       </c>
       <c r="CZ5" t="n">
-        <v>3.564123574051337e-07</v>
+        <v>2.056554694718216e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>4.92115930228465e-08</v>
+        <v>0.0001331271196249872</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.132462301711712e-08</v>
+        <v>0.0003003281308338046</v>
       </c>
       <c r="DC5" t="n">
-        <v>1.431613867453052e-07</v>
+        <v>0.0001682718575466424</v>
       </c>
       <c r="DD5" t="n">
-        <v>9.718807802983065e-08</v>
+        <v>4.393116614664905e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>6.358293376251822e-07</v>
+        <v>0.0001299756695516407</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.94643376971726e-07</v>
+        <v>0.0001588006853125989</v>
       </c>
       <c r="DG5" t="n">
-        <v>3.454704824434884e-07</v>
+        <v>6.711816968163475e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>1.243543437112749e-07</v>
+        <v>0.0007551307789981365</v>
       </c>
       <c r="DI5" t="n">
-        <v>3.698160639942216e-07</v>
+        <v>0.001080189016647637</v>
       </c>
       <c r="DJ5" t="n">
-        <v>3.657437730453239e-08</v>
+        <v>0.0001323592005064711</v>
       </c>
       <c r="DK5" t="n">
-        <v>2.244929220296399e-07</v>
+        <v>6.050824595149606e-06</v>
       </c>
       <c r="DL5" t="n">
-        <v>5.372054374674917e-07</v>
+        <v>0.0003193358425050974</v>
       </c>
       <c r="DM5" t="n">
-        <v>2.173669599869754e-07</v>
+        <v>1.569191226735711e-05</v>
       </c>
       <c r="DN5" t="n">
-        <v>9.200683592780479e-08</v>
+        <v>0.0003149951226077974</v>
       </c>
       <c r="DO5" t="n">
-        <v>3.743886622942227e-07</v>
+        <v>0.0003715315542649478</v>
       </c>
       <c r="DP5" t="n">
-        <v>6.667640661817131e-08</v>
+        <v>0.0002489789039827883</v>
       </c>
       <c r="DQ5" t="n">
-        <v>2.099330345117778e-07</v>
+        <v>0.0003374252701178193</v>
       </c>
       <c r="DR5" t="n">
-        <v>4.829723820876097e-07</v>
+        <v>0.0001588187005836517</v>
       </c>
       <c r="DS5" t="n">
-        <v>6.939728223187558e-07</v>
+        <v>3.368876059539616e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.247859131581208e-07</v>
+        <v>4.016747698187828e-05</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.399280904479383e-07</v>
+        <v>0.0001269220665562898</v>
       </c>
       <c r="DV5" t="n">
-        <v>4.850851382798282e-07</v>
+        <v>7.344444748014212e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>3.432095496691545e-09</v>
+        <v>0.0001537197967991233</v>
       </c>
       <c r="DX5" t="n">
-        <v>4.217029072606238e-07</v>
+        <v>0.0002164054603781551</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.868005483629531e-07</v>
+        <v>0.0005193506949581206</v>
       </c>
       <c r="DZ5" t="n">
-        <v>4.287277590719896e-07</v>
+        <v>0.0002933887008111924</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.265695459551353e-08</v>
+        <v>0.0003135737788397819</v>
       </c>
       <c r="EB5" t="n">
-        <v>5.471521831168502e-07</v>
+        <v>0.000513282255269587</v>
       </c>
       <c r="EC5" t="n">
-        <v>6.131803331754782e-08</v>
+        <v>0.0003098636516369879</v>
       </c>
       <c r="ED5" t="n">
-        <v>2.927168623045873e-07</v>
+        <v>0.0005540525889955461</v>
       </c>
       <c r="EE5" t="n">
-        <v>2.791616680042353e-07</v>
+        <v>6.020984437782317e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>3.11270952124687e-07</v>
+        <v>0.0002342866937397048</v>
       </c>
       <c r="EG5" t="n">
-        <v>7.271412982845504e-08</v>
+        <v>0.000328012538375333</v>
       </c>
       <c r="EH5" t="n">
-        <v>2.553186959630693e-07</v>
+        <v>1.00039233075222e-05</v>
       </c>
       <c r="EI5" t="n">
-        <v>4.898834617961256e-07</v>
+        <v>0.0001227095490321517</v>
       </c>
       <c r="EJ5" t="n">
-        <v>2.261294582694973e-07</v>
+        <v>0.0004526411648839712</v>
       </c>
       <c r="EK5" t="n">
-        <v>7.908071353313062e-08</v>
+        <v>5.574767783400603e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>3.469662246402549e-08</v>
+        <v>0.0005404100520536304</v>
       </c>
       <c r="EM5" t="n">
-        <v>2.060010046989191e-07</v>
+        <v>0.000314590404741466</v>
       </c>
       <c r="EN5" t="n">
-        <v>1.291777351752899e-08</v>
+        <v>0.000169250852195546</v>
       </c>
       <c r="EO5" t="n">
-        <v>7.087599556143687e-07</v>
+        <v>0.0001969460863620043</v>
       </c>
       <c r="EP5" t="n">
-        <v>1.652723256029276e-07</v>
+        <v>0.000530458870343864</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1.612552722463079e-07</v>
+        <v>0.0001175541401607916</v>
       </c>
       <c r="ER5" t="n">
-        <v>1.295035758630547e-07</v>
+        <v>0.0001169841270893812</v>
       </c>
       <c r="ES5" t="n">
-        <v>4.367340409316967e-07</v>
+        <v>6.582227069884539e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>1.321652263186479e-07</v>
+        <v>0.0007230434566736221</v>
       </c>
       <c r="EU5" t="n">
-        <v>4.388770236118944e-08</v>
+        <v>0.0003209466813132167</v>
       </c>
       <c r="EV5" t="n">
-        <v>2.839469743776135e-07</v>
+        <v>0.000343239662470296</v>
       </c>
       <c r="EW5" t="n">
-        <v>2.462149666371261e-07</v>
+        <v>7.009004184510559e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>3.314661398690077e-07</v>
+        <v>0.0001050089413183741</v>
       </c>
       <c r="EY5" t="n">
-        <v>6.62171260046307e-08</v>
+        <v>0.0004598161613103002</v>
       </c>
       <c r="EZ5" t="n">
-        <v>2.755062382675533e-07</v>
+        <v>0.0001639875990804285</v>
       </c>
       <c r="FA5" t="n">
-        <v>3.499390572869743e-07</v>
+        <v>0.000139625568408519</v>
       </c>
       <c r="FB5" t="n">
-        <v>4.321527740103193e-07</v>
+        <v>0.0001259549026144668</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.120630273021561e-07</v>
+        <v>0.0002368573623243719</v>
       </c>
       <c r="FD5" t="n">
-        <v>3.392361591636472e-08</v>
+        <v>0.0002511211205273867</v>
       </c>
       <c r="FE5" t="n">
-        <v>1.503494502230751e-07</v>
+        <v>0.0001077987253665924</v>
       </c>
       <c r="FF5" t="n">
-        <v>4.443581058666268e-09</v>
+        <v>5.528701876755804e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>1.242671316958877e-07</v>
+        <v>4.304625690565445e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>6.28280076853116e-08</v>
+        <v>4.190569961792789e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>5.257494706256693e-08</v>
+        <v>8.062422421062365e-05</v>
       </c>
       <c r="FJ5" t="n">
-        <v>1.425530058440927e-07</v>
+        <v>0.0004453350848052651</v>
       </c>
       <c r="FK5" t="n">
-        <v>4.519043272921408e-07</v>
+        <v>0.0002175867120968178</v>
       </c>
       <c r="FL5" t="n">
-        <v>7.309285621204253e-08</v>
+        <v>0.0002611768431961536</v>
       </c>
       <c r="FM5" t="n">
-        <v>2.100413354355624e-08</v>
+        <v>0.0004997376818209887</v>
       </c>
       <c r="FN5" t="n">
-        <v>8.680306251562797e-08</v>
+        <v>2.03316449187696e-06</v>
       </c>
       <c r="FO5" t="n">
-        <v>1.426270443971589e-07</v>
+        <v>0.0001720640721032396</v>
       </c>
       <c r="FP5" t="n">
-        <v>1.418818271758937e-07</v>
+        <v>0.0006164549267850816</v>
       </c>
       <c r="FQ5" t="n">
-        <v>6.128753398115805e-07</v>
+        <v>4.771273961523548e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>5.219147851676098e-07</v>
+        <v>0.0004441842320375144</v>
       </c>
       <c r="FS5" t="n">
-        <v>7.560774406556448e-08</v>
+        <v>0.0004854160652030259</v>
       </c>
       <c r="FT5" t="n">
-        <v>8.490803082850107e-08</v>
+        <v>0.0009161048219539225</v>
       </c>
       <c r="FU5" t="n">
-        <v>9.308045889611094e-08</v>
+        <v>0.000175309949554503</v>
       </c>
       <c r="FV5" t="n">
-        <v>3.455772912275279e-07</v>
+        <v>0.0004007224342785776</v>
       </c>
       <c r="FW5" t="n">
-        <v>2.399273171249661e-07</v>
+        <v>0.0005295743467286229</v>
       </c>
       <c r="FX5" t="n">
-        <v>3.114755315891671e-07</v>
+        <v>0.0003494292323011905</v>
       </c>
       <c r="FY5" t="n">
-        <v>4.56201036058701e-07</v>
+        <v>0.0002815865154843777</v>
       </c>
       <c r="FZ5" t="n">
-        <v>1.301711876067202e-07</v>
+        <v>0.0001378626184305176</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.421926896227887e-07</v>
+        <v>5.402195165515877e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>5.422268145593989e-07</v>
+        <v>8.787399565335363e-06</v>
       </c>
       <c r="GC5" t="n">
-        <v>1.602249284360369e-07</v>
+        <v>0.0005105431191623211</v>
       </c>
       <c r="GD5" t="n">
-        <v>7.227387754937808e-07</v>
+        <v>0.0003117892774753273</v>
       </c>
       <c r="GE5" t="n">
-        <v>5.385572166005659e-08</v>
+        <v>0.0009463232127018273</v>
       </c>
       <c r="GF5" t="n">
-        <v>1.774584212910213e-08</v>
+        <v>0.0002808568824548274</v>
       </c>
       <c r="GG5" t="n">
-        <v>2.08385785072096e-07</v>
+        <v>2.587596463854425e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.357513785356281e-14</v>
+        <v>3.699131775647402e-05</v>
       </c>
       <c r="B6" t="n">
-        <v>3.919415248083979e-14</v>
+        <v>0.0008704750798642635</v>
       </c>
       <c r="C6" t="n">
-        <v>2.186231339192102e-14</v>
+        <v>6.347569433273748e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>2.853082421466931e-14</v>
+        <v>0.0003441663575358689</v>
       </c>
       <c r="E6" t="n">
-        <v>1.146547727636296e-13</v>
+        <v>0.0006293822661973536</v>
       </c>
       <c r="F6" t="n">
-        <v>2.217857855376683e-14</v>
+        <v>0.000453517452115193</v>
       </c>
       <c r="G6" t="n">
-        <v>2.186431916594012e-14</v>
+        <v>0.0003820884739980102</v>
       </c>
       <c r="H6" t="n">
-        <v>4.028730948564367e-14</v>
+        <v>0.000115308299427852</v>
       </c>
       <c r="I6" t="n">
-        <v>8.749677550415683e-15</v>
+        <v>4.819170499104075e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>5.755722284282163e-15</v>
+        <v>9.341885743197054e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>8.06539757940497e-14</v>
+        <v>0.0006508221267722547</v>
       </c>
       <c r="L6" t="n">
-        <v>2.271075241386776e-14</v>
+        <v>8.12406069599092e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>1.174374589544766e-14</v>
+        <v>0.0005285700317472219</v>
       </c>
       <c r="N6" t="n">
-        <v>8.384711382234539e-15</v>
+        <v>0.0007584874401800334</v>
       </c>
       <c r="O6" t="n">
-        <v>4.969429137939227e-14</v>
+        <v>0.0006194090819917619</v>
       </c>
       <c r="P6" t="n">
-        <v>6.279911588305803e-15</v>
+        <v>0.0004693757509812713</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.224735509406175e-13</v>
+        <v>0.0004013223224319518</v>
       </c>
       <c r="R6" t="n">
-        <v>1.017999093767645e-13</v>
+        <v>6.257945642573759e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.200423732584856e-14</v>
+        <v>1.504036663391162e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>2.999082102453365e-14</v>
+        <v>0.0002003886038437486</v>
       </c>
       <c r="U6" t="n">
-        <v>4.453956057052719e-14</v>
+        <v>4.678014374803752e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>3.663682194670866e-15</v>
+        <v>7.32088228687644e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>1.246792111827405e-13</v>
+        <v>0.0001869661791715771</v>
       </c>
       <c r="X6" t="n">
-        <v>3.288221542383125e-14</v>
+        <v>0.00027480986318551</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.257738503129008e-14</v>
+        <v>1.972480822587386e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.354704089328589e-14</v>
+        <v>6.66669657221064e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.007274943932388e-14</v>
+        <v>4.339555744081736e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.892604657520967e-14</v>
+        <v>0.0001382400805596262</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.046756116436813e-15</v>
+        <v>0.0002336805337108672</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.065271985005578e-14</v>
+        <v>0.0001433784491382539</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.041793908225253e-14</v>
+        <v>0.0002267680101795122</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.561763986242004e-14</v>
+        <v>0.000334081647451967</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.413840319522516e-15</v>
+        <v>0.0002982359146699309</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.701484834042022e-14</v>
+        <v>4.294551035854965e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.135921577690023e-14</v>
+        <v>7.179858948802575e-05</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.73312444717898e-14</v>
+        <v>3.375170854269527e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.926407674470153e-14</v>
+        <v>3.317108348710462e-05</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.759019430222671e-14</v>
+        <v>7.067090336931869e-05</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.861480262467519e-14</v>
+        <v>4.237685425323434e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.72063658779262e-14</v>
+        <v>5.791462899651378e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.834799705971885e-14</v>
+        <v>5.924774814047851e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.370297189047913e-14</v>
+        <v>0.0001172607881017029</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7.262485900746789e-15</v>
+        <v>0.0001954711333382875</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.490772887421555e-14</v>
+        <v>9.839708945946768e-05</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.036911137194171e-14</v>
+        <v>7.240068225655705e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.253317668770698e-14</v>
+        <v>0.0002936387318186462</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.955008822490341e-14</v>
+        <v>0.0008720156038179994</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.541890291800485e-14</v>
+        <v>3.28341375279706e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.482109381792048e-14</v>
+        <v>4.593090852722526e-05</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.175445916816453e-13</v>
+        <v>0.0002081221318803728</v>
       </c>
       <c r="AY6" t="n">
-        <v>6.265905220896595e-14</v>
+        <v>0.0002489006728865206</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.830066164597779e-14</v>
+        <v>0.0003778473183047026</v>
       </c>
       <c r="BA6" t="n">
-        <v>3.535137745144974e-14</v>
+        <v>0.0001314124092459679</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.765405719831789e-14</v>
+        <v>1.982799585675821e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.484933442283184e-14</v>
+        <v>1.787643850548193e-05</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.055240167843101e-14</v>
+        <v>0.0001708419877104461</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.037596623410054e-15</v>
+        <v>0.0001740837615216151</v>
       </c>
       <c r="BF6" t="n">
-        <v>7.997952750386436e-15</v>
+        <v>3.276796633144841e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.962395393893557e-14</v>
+        <v>0.0008120969869196415</v>
       </c>
       <c r="BH6" t="n">
-        <v>6.3158672898838e-14</v>
+        <v>0.0004288081254344434</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.942837099424936e-14</v>
+        <v>2.479124304954894e-05</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4.6856287160826e-14</v>
+        <v>0.0004255454987287521</v>
       </c>
       <c r="BK6" t="n">
-        <v>3.639921819357551e-14</v>
+        <v>1.410316872352269e-05</v>
       </c>
       <c r="BL6" t="n">
-        <v>3.723099438338387e-14</v>
+        <v>6.110254616942257e-05</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.639140872528513e-14</v>
+        <v>0.0003145480004604906</v>
       </c>
       <c r="BN6" t="n">
-        <v>4.289368407445378e-14</v>
+        <v>3.866582119371742e-05</v>
       </c>
       <c r="BO6" t="n">
-        <v>3.539334962805209e-14</v>
+        <v>0.0002512756618671119</v>
       </c>
       <c r="BP6" t="n">
-        <v>3.580746064783293e-14</v>
+        <v>0.0003297401708550751</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.386279430213181e-15</v>
+        <v>5.825596963404678e-05</v>
       </c>
       <c r="BR6" t="n">
-        <v>8.176539482919638e-15</v>
+        <v>0.0002493294887244701</v>
       </c>
       <c r="BS6" t="n">
-        <v>2.803025484789633e-14</v>
+        <v>0.0001989140291698277</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.623858933400718e-15</v>
+        <v>6.177081377245486e-05</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.792837559454977e-14</v>
+        <v>0.0001011852145893499</v>
       </c>
       <c r="BV6" t="n">
-        <v>3.01484775729402e-14</v>
+        <v>0.0002972804941236973</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.090950992196048e-14</v>
+        <v>0.0001114935948862694</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.962985623999534e-14</v>
+        <v>0.0001179769315058365</v>
       </c>
       <c r="BY6" t="n">
-        <v>6.35217112200312e-14</v>
+        <v>4.505216929828748e-05</v>
       </c>
       <c r="BZ6" t="n">
-        <v>8.088107549160395e-14</v>
+        <v>8.671955583849922e-05</v>
       </c>
       <c r="CA6" t="n">
-        <v>3.422363100921179e-14</v>
+        <v>8.379165228689089e-05</v>
       </c>
       <c r="CB6" t="n">
-        <v>9.256612369787278e-15</v>
+        <v>0.0001824451901484281</v>
       </c>
       <c r="CC6" t="n">
-        <v>7.563078411969553e-15</v>
+        <v>1.174256067315582e-05</v>
       </c>
       <c r="CD6" t="n">
-        <v>1.262419259840525e-14</v>
+        <v>3.774022843572311e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.558593460255491e-14</v>
+        <v>0.0002019759267568588</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.841345442278337e-15</v>
+        <v>1.071611950465012e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.692870205251927e-15</v>
+        <v>0.0001382287591695786</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.983902442553951e-14</v>
+        <v>3.746666698134504e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>5.693976970559114e-15</v>
+        <v>1.099982455343707e-05</v>
       </c>
       <c r="CJ6" t="n">
-        <v>7.22740349013741e-15</v>
+        <v>0.0001177827507490292</v>
       </c>
       <c r="CK6" t="n">
-        <v>8.312173068818457e-16</v>
+        <v>6.151489651529118e-05</v>
       </c>
       <c r="CL6" t="n">
-        <v>2.500410131833883e-15</v>
+        <v>3.646289405878633e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>4.629615104907031e-14</v>
+        <v>0.0003221482911612839</v>
       </c>
       <c r="CN6" t="n">
-        <v>9.609126645424015e-14</v>
+        <v>0.0002785147808026522</v>
       </c>
       <c r="CO6" t="n">
-        <v>5.437539524547064e-14</v>
+        <v>2.543685695854947e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.629116763365857e-14</v>
+        <v>0.0003133346326649189</v>
       </c>
       <c r="CQ6" t="n">
-        <v>5.487922060689286e-14</v>
+        <v>0.0001625245931791142</v>
       </c>
       <c r="CR6" t="n">
-        <v>5.686658012971774e-14</v>
+        <v>6.44017054582946e-05</v>
       </c>
       <c r="CS6" t="n">
-        <v>2.962684757896669e-14</v>
+        <v>5.11202379129827e-05</v>
       </c>
       <c r="CT6" t="n">
-        <v>9.762966802183415e-14</v>
+        <v>0.0001475181488785893</v>
       </c>
       <c r="CU6" t="n">
-        <v>3.085452696832171e-14</v>
+        <v>2.524903538869694e-05</v>
       </c>
       <c r="CV6" t="n">
-        <v>7.903175692819311e-15</v>
+        <v>4.078977144672535e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.521768194653842e-14</v>
+        <v>0.0001353688858216628</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.382256041262053e-14</v>
+        <v>3.958163142669946e-05</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.066147665214779e-15</v>
+        <v>0.000183016323717311</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.575386244796317e-14</v>
+        <v>5.8321744290879e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>2.985478583913872e-15</v>
+        <v>3.396626198082231e-06</v>
       </c>
       <c r="DB6" t="n">
-        <v>3.662528959313179e-15</v>
+        <v>0.0001004715304588899</v>
       </c>
       <c r="DC6" t="n">
-        <v>5.249249521383295e-15</v>
+        <v>8.188173524104059e-06</v>
       </c>
       <c r="DD6" t="n">
-        <v>3.628723450871786e-15</v>
+        <v>3.091413964284584e-05</v>
       </c>
       <c r="DE6" t="n">
-        <v>2.056430655102137e-14</v>
+        <v>0.0002525491581764072</v>
       </c>
       <c r="DF6" t="n">
-        <v>3.859166810985318e-17</v>
+        <v>0.0003976694133598357</v>
       </c>
       <c r="DG6" t="n">
-        <v>3.42310611822251e-14</v>
+        <v>0.0001249896449735388</v>
       </c>
       <c r="DH6" t="n">
-        <v>4.909306061716759e-14</v>
+        <v>7.132883183658123e-06</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.858748581212624e-14</v>
+        <v>0.0001383521739626303</v>
       </c>
       <c r="DJ6" t="n">
-        <v>9.921840706341757e-15</v>
+        <v>0.0001913241867441684</v>
       </c>
       <c r="DK6" t="n">
-        <v>7.829586317394804e-15</v>
+        <v>0.0003633519518189132</v>
       </c>
       <c r="DL6" t="n">
-        <v>6.578525430563781e-14</v>
+        <v>8.335259917657822e-05</v>
       </c>
       <c r="DM6" t="n">
-        <v>4.150109753466372e-14</v>
+        <v>0.0003149803669657558</v>
       </c>
       <c r="DN6" t="n">
-        <v>2.208691434228086e-14</v>
+        <v>0.0001279472053283826</v>
       </c>
       <c r="DO6" t="n">
-        <v>4.090302112313461e-14</v>
+        <v>0.0001625957665964961</v>
       </c>
       <c r="DP6" t="n">
-        <v>5.201062240530472e-15</v>
+        <v>0.0001023298100335523</v>
       </c>
       <c r="DQ6" t="n">
-        <v>3.078127555904316e-14</v>
+        <v>7.570881280116737e-05</v>
       </c>
       <c r="DR6" t="n">
-        <v>3.821288852836821e-14</v>
+        <v>9.17959405342117e-05</v>
       </c>
       <c r="DS6" t="n">
-        <v>5.015546016159077e-14</v>
+        <v>6.95029812050052e-05</v>
       </c>
       <c r="DT6" t="n">
-        <v>1.036876239436744e-14</v>
+        <v>0.0001302207820117474</v>
       </c>
       <c r="DU6" t="n">
-        <v>4.42556486791347e-14</v>
+        <v>2.450463216518983e-05</v>
       </c>
       <c r="DV6" t="n">
-        <v>2.216748411622369e-14</v>
+        <v>0.0001653707440709695</v>
       </c>
       <c r="DW6" t="n">
-        <v>6.851602076494989e-15</v>
+        <v>6.956494326004758e-05</v>
       </c>
       <c r="DX6" t="n">
-        <v>2.354318759530908e-15</v>
+        <v>2.669879677341669e-06</v>
       </c>
       <c r="DY6" t="n">
-        <v>2.072517504836391e-14</v>
+        <v>4.748619176098146e-05</v>
       </c>
       <c r="DZ6" t="n">
-        <v>3.053160073937869e-14</v>
+        <v>3.461902088019997e-05</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.25020275775216e-14</v>
+        <v>5.149850403540768e-05</v>
       </c>
       <c r="EB6" t="n">
-        <v>2.342344678272048e-15</v>
+        <v>0.0001040688221110031</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.512108817878274e-14</v>
+        <v>5.672813858836889e-05</v>
       </c>
       <c r="ED6" t="n">
-        <v>2.575256122987288e-14</v>
+        <v>0.0001898626796901226</v>
       </c>
       <c r="EE6" t="n">
-        <v>3.262789971064878e-15</v>
+        <v>3.058208676520735e-05</v>
       </c>
       <c r="EF6" t="n">
-        <v>2.893342913889464e-14</v>
+        <v>8.518638787791133e-05</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.44789694421282e-15</v>
+        <v>3.308892701170407e-05</v>
       </c>
       <c r="EH6" t="n">
-        <v>4.596414123880094e-15</v>
+        <v>5.949103069724515e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>3.527782111031018e-15</v>
+        <v>8.04005831014365e-05</v>
       </c>
       <c r="EJ6" t="n">
-        <v>2.751431013906479e-14</v>
+        <v>2.187947757192887e-05</v>
       </c>
       <c r="EK6" t="n">
-        <v>6.501573757855149e-15</v>
+        <v>0.0001177133090095595</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.656746452337194e-14</v>
+        <v>0.0002737849135883152</v>
       </c>
       <c r="EM6" t="n">
-        <v>6.560787290098855e-15</v>
+        <v>2.898161801567767e-05</v>
       </c>
       <c r="EN6" t="n">
-        <v>2.01220096628877e-14</v>
+        <v>2.472388223395683e-05</v>
       </c>
       <c r="EO6" t="n">
-        <v>3.424684310009835e-14</v>
+        <v>0.0002197330031776801</v>
       </c>
       <c r="EP6" t="n">
-        <v>8.09963736163842e-15</v>
+        <v>2.641647006385028e-05</v>
       </c>
       <c r="EQ6" t="n">
-        <v>1.121497033153111e-15</v>
+        <v>9.935265552485362e-05</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.391562290001911e-14</v>
+        <v>0.0001674416416790336</v>
       </c>
       <c r="ES6" t="n">
-        <v>2.848978038617715e-14</v>
+        <v>2.831252277246676e-05</v>
       </c>
       <c r="ET6" t="n">
-        <v>8.455472514648163e-15</v>
+        <v>0.0001761706807883456</v>
       </c>
       <c r="EU6" t="n">
-        <v>3.940063878458966e-14</v>
+        <v>8.107619942165911e-05</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.486420510873714e-14</v>
+        <v>0.0001262652804143727</v>
       </c>
       <c r="EW6" t="n">
-        <v>8.601705129695093e-15</v>
+        <v>6.766319711459801e-05</v>
       </c>
       <c r="EX6" t="n">
-        <v>4.850171218833852e-15</v>
+        <v>3.842363366857171e-05</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.399360922347282e-14</v>
+        <v>0.0001296061527682468</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.159532793539681e-14</v>
+        <v>9.076816240849439e-07</v>
       </c>
       <c r="FA6" t="n">
-        <v>4.595865246530273e-15</v>
+        <v>0.0001194104552268982</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.967126446813811e-14</v>
+        <v>7.229224138427526e-05</v>
       </c>
       <c r="FC6" t="n">
-        <v>7.358220952577259e-15</v>
+        <v>5.873192276339978e-05</v>
       </c>
       <c r="FD6" t="n">
-        <v>2.678169948452328e-15</v>
+        <v>0.0001079167195712216</v>
       </c>
       <c r="FE6" t="n">
-        <v>2.167207487416539e-15</v>
+        <v>3.591035056160763e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.060065291027135e-14</v>
+        <v>1.557141513330862e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>2.330295041674292e-14</v>
+        <v>0.0001530262816231698</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.963313612705041e-14</v>
+        <v>5.669271922670305e-05</v>
       </c>
       <c r="FI6" t="n">
-        <v>3.035020693965829e-16</v>
+        <v>1.251624416909181e-05</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.541748025362007e-14</v>
+        <v>0.0001708188792690635</v>
       </c>
       <c r="FK6" t="n">
-        <v>3.449431563409995e-14</v>
+        <v>0.0001989964075619355</v>
       </c>
       <c r="FL6" t="n">
-        <v>4.171344869454037e-14</v>
+        <v>2.053693606285378e-06</v>
       </c>
       <c r="FM6" t="n">
-        <v>1.412347310229736e-14</v>
+        <v>4.997439100407064e-05</v>
       </c>
       <c r="FN6" t="n">
-        <v>5.566841475637685e-14</v>
+        <v>0.000166623736731708</v>
       </c>
       <c r="FO6" t="n">
-        <v>2.168165481679883e-14</v>
+        <v>0.0001611793850315735</v>
       </c>
       <c r="FP6" t="n">
-        <v>1.285005139269177e-14</v>
+        <v>0.0003398028493393213</v>
       </c>
       <c r="FQ6" t="n">
-        <v>2.603771317750015e-14</v>
+        <v>8.983315638033673e-05</v>
       </c>
       <c r="FR6" t="n">
-        <v>5.635709658820785e-14</v>
+        <v>8.79786821315065e-05</v>
       </c>
       <c r="FS6" t="n">
-        <v>2.823088137771709e-14</v>
+        <v>0.000252400990575552</v>
       </c>
       <c r="FT6" t="n">
-        <v>9.033457304668396e-14</v>
+        <v>0.0002110933419317007</v>
       </c>
       <c r="FU6" t="n">
-        <v>2.834829539079958e-14</v>
+        <v>0.0002560852735769004</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.243646451082198e-14</v>
+        <v>3.843160811811686e-05</v>
       </c>
       <c r="FW6" t="n">
-        <v>1.390348001117057e-14</v>
+        <v>0.0001074625906767324</v>
       </c>
       <c r="FX6" t="n">
-        <v>3.392872801829573e-14</v>
+        <v>4.245919262757525e-05</v>
       </c>
       <c r="FY6" t="n">
-        <v>2.296363240620464e-14</v>
+        <v>0.000108945656393189</v>
       </c>
       <c r="FZ6" t="n">
-        <v>4.743306238779756e-14</v>
+        <v>0.000344999018125236</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.366887136653892e-14</v>
+        <v>0.000144198362249881</v>
       </c>
       <c r="GB6" t="n">
-        <v>3.225821641598438e-14</v>
+        <v>0.0001660591660765931</v>
       </c>
       <c r="GC6" t="n">
-        <v>2.409186165722253e-14</v>
+        <v>0.0002287031820742413</v>
       </c>
       <c r="GD6" t="n">
-        <v>3.199365414523897e-14</v>
+        <v>4.469691702979617e-05</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.280466736737788e-14</v>
+        <v>0.000142079486977309</v>
       </c>
       <c r="GF6" t="n">
-        <v>4.540381200353327e-15</v>
+        <v>0.0003327495651319623</v>
       </c>
       <c r="GG6" t="n">
-        <v>7.357485727979042e-15</v>
+        <v>0.0001995154307223856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.390841134707443e-06</v>
+        <v>2.15795617486414e-10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.470947040616011e-06</v>
+        <v>5.782826439926225e-10</v>
       </c>
       <c r="C7" t="n">
-        <v>3.884852958435658e-06</v>
+        <v>2.469331128462926e-10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.298890038015088e-05</v>
+        <v>2.561525713762336e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>2.080395915982081e-06</v>
+        <v>3.334177656189041e-10</v>
       </c>
       <c r="F7" t="n">
-        <v>1.131223029915418e-06</v>
+        <v>1.513902614380669e-10</v>
       </c>
       <c r="G7" t="n">
-        <v>1.230778707395075e-06</v>
+        <v>5.577568962245039e-10</v>
       </c>
       <c r="H7" t="n">
-        <v>7.469034812856989e-07</v>
+        <v>2.361256190575034e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>1.810875460250827e-06</v>
+        <v>1.481754163812354e-10</v>
       </c>
       <c r="J7" t="n">
-        <v>1.226453036906605e-06</v>
+        <v>9.800438932616728e-11</v>
       </c>
       <c r="K7" t="n">
-        <v>1.224771267516189e-06</v>
+        <v>9.205319839722392e-11</v>
       </c>
       <c r="L7" t="n">
-        <v>3.711426870722789e-06</v>
+        <v>3.101038037467418e-10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.130937380366959e-05</v>
+        <v>2.648754549028354e-10</v>
       </c>
       <c r="N7" t="n">
-        <v>7.966115845192689e-06</v>
+        <v>1.237432822875917e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>3.87456339012715e-06</v>
+        <v>6.914820105397013e-11</v>
       </c>
       <c r="P7" t="n">
-        <v>1.966599938896252e-06</v>
+        <v>1.724350523479856e-10</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.38558606422157e-06</v>
+        <v>1.580406916446009e-10</v>
       </c>
       <c r="R7" t="n">
-        <v>3.476794063317357e-06</v>
+        <v>1.939519933547018e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>7.826602086424828e-07</v>
+        <v>4.256733507346233e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>1.23400786833372e-06</v>
+        <v>7.045586336573706e-12</v>
       </c>
       <c r="U7" t="n">
-        <v>2.153451987396693e-06</v>
+        <v>9.711793869104923e-11</v>
       </c>
       <c r="V7" t="n">
-        <v>1.793313458620105e-06</v>
+        <v>2.153414946359788e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>9.654920177126769e-06</v>
+        <v>4.792853336432756e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>2.110715513481409e-08</v>
+        <v>4.514473239680683e-10</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.892044565465767e-07</v>
+        <v>2.148850541949798e-10</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.313090933763306e-06</v>
+        <v>3.338956194864906e-11</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.246156493081799e-07</v>
+        <v>7.995973674845835e-12</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.402710151727661e-06</v>
+        <v>1.239953972831387e-11</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.433660827387939e-06</v>
+        <v>7.15296571973667e-11</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.352060164412251e-06</v>
+        <v>3.856088781617473e-10</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.844390564860078e-06</v>
+        <v>5.119424884014734e-10</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.362673742733023e-06</v>
+        <v>3.077946786333996e-10</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.636202114241314e-06</v>
+        <v>3.110620094837202e-10</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.947221903719765e-07</v>
+        <v>3.507409640501891e-12</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.414677285538346e-06</v>
+        <v>1.213984052172989e-10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.028536355031974e-07</v>
+        <v>3.415563942787969e-10</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.709261934796814e-06</v>
+        <v>8.926218791893703e-11</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.025587721414922e-06</v>
+        <v>2.336002918879032e-12</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.057603867593571e-06</v>
+        <v>6.88327589370985e-11</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.400992227398092e-06</v>
+        <v>1.707480407064921e-10</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.330604497226886e-07</v>
+        <v>5.14117637351319e-10</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.93252583105641e-06</v>
+        <v>2.520589986731991e-11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.534866266363679e-07</v>
+        <v>1.257406678778494e-10</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.013809480809869e-08</v>
+        <v>2.637702556373966e-10</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.499800982353918e-08</v>
+        <v>4.01946566308542e-11</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.606333398740389e-06</v>
+        <v>1.399201587926058e-10</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.502433613306493e-07</v>
+        <v>6.607933089597395e-10</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.720713609960512e-06</v>
+        <v>9.572348469433223e-11</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.707333795930026e-06</v>
+        <v>1.424474843636503e-10</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.388257128899568e-07</v>
+        <v>8.828184711040521e-11</v>
       </c>
       <c r="AY7" t="n">
-        <v>6.490302553174843e-07</v>
+        <v>9.363892994329603e-11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.27711689149146e-06</v>
+        <v>2.955493905165696e-10</v>
       </c>
       <c r="BA7" t="n">
-        <v>6.649534043390304e-07</v>
+        <v>3.691668359895317e-10</v>
       </c>
       <c r="BB7" t="n">
-        <v>6.217081818249426e-07</v>
+        <v>3.4974237395069e-10</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.267977722818614e-06</v>
+        <v>4.477394496826825e-11</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.701114342722576e-07</v>
+        <v>1.353783751767423e-10</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.732098667162063e-06</v>
+        <v>2.344630600781272e-10</v>
       </c>
       <c r="BF7" t="n">
-        <v>7.143131824705051e-06</v>
+        <v>1.210398170581328e-10</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.46880495321966e-06</v>
+        <v>3.800874892601058e-10</v>
       </c>
       <c r="BH7" t="n">
-        <v>8.640964210826496e-07</v>
+        <v>1.161390428272568e-12</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.079545083688572e-06</v>
+        <v>1.727724907585326e-11</v>
       </c>
       <c r="BJ7" t="n">
-        <v>2.29108081839513e-07</v>
+        <v>1.02619593378428e-10</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.682165600731423e-09</v>
+        <v>5.086460697079076e-10</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.40510530602478e-06</v>
+        <v>2.21511350928516e-11</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.790986061678268e-06</v>
+        <v>3.263002090747591e-10</v>
       </c>
       <c r="BN7" t="n">
-        <v>1.114224801312957e-06</v>
+        <v>7.386740524806257e-11</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.092618049369776e-07</v>
+        <v>2.210414351555556e-10</v>
       </c>
       <c r="BP7" t="n">
-        <v>3.644908701971872e-06</v>
+        <v>9.470467743355471e-10</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.316634777344007e-07</v>
+        <v>3.201922615936326e-10</v>
       </c>
       <c r="BR7" t="n">
-        <v>6.931791745046212e-07</v>
+        <v>3.073490628668907e-10</v>
       </c>
       <c r="BS7" t="n">
-        <v>2.048467138138221e-07</v>
+        <v>3.400792980556844e-10</v>
       </c>
       <c r="BT7" t="n">
-        <v>7.771311061333108e-07</v>
+        <v>2.590830328053073e-11</v>
       </c>
       <c r="BU7" t="n">
-        <v>3.104051302216249e-06</v>
+        <v>9.987181220916241e-12</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.889670500077045e-07</v>
+        <v>3.942703663550873e-10</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.216641749124392e-06</v>
+        <v>1.270551025500666e-10</v>
       </c>
       <c r="BX7" t="n">
-        <v>4.603874003805686e-06</v>
+        <v>2.430686207866017e-10</v>
       </c>
       <c r="BY7" t="n">
-        <v>8.616959803475766e-07</v>
+        <v>5.192090646310987e-10</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4.414261184138013e-06</v>
+        <v>6.693520043787871e-11</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.619626118554152e-06</v>
+        <v>6.734303392708085e-11</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.920020622492302e-07</v>
+        <v>1.655121179000574e-10</v>
       </c>
       <c r="CC7" t="n">
-        <v>7.145777658479346e-07</v>
+        <v>2.184943892480362e-10</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.43679835673538e-06</v>
+        <v>1.149835435199087e-11</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.581929609528743e-07</v>
+        <v>1.433420396268481e-11</v>
       </c>
       <c r="CF7" t="n">
-        <v>4.523749339568894e-07</v>
+        <v>8.805352280649714e-12</v>
       </c>
       <c r="CG7" t="n">
-        <v>2.746703557932051e-06</v>
+        <v>7.578640492944544e-11</v>
       </c>
       <c r="CH7" t="n">
-        <v>9.946139698513434e-07</v>
+        <v>2.294843481909226e-11</v>
       </c>
       <c r="CI7" t="n">
-        <v>7.06724449628382e-07</v>
+        <v>4.764877381546739e-11</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.013512829217689e-07</v>
+        <v>1.116823161728675e-10</v>
       </c>
       <c r="CK7" t="n">
-        <v>5.940920289049245e-08</v>
+        <v>2.12467508864389e-11</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.174899125544471e-06</v>
+        <v>1.32512806283458e-10</v>
       </c>
       <c r="CM7" t="n">
-        <v>4.264106792106759e-07</v>
+        <v>1.75014738812429e-10</v>
       </c>
       <c r="CN7" t="n">
-        <v>6.651913508903817e-07</v>
+        <v>2.848837832303275e-10</v>
       </c>
       <c r="CO7" t="n">
-        <v>6.461170869442867e-07</v>
+        <v>1.799868448726372e-10</v>
       </c>
       <c r="CP7" t="n">
-        <v>4.373734100227011e-06</v>
+        <v>7.903766530148459e-11</v>
       </c>
       <c r="CQ7" t="n">
-        <v>9.551638413540786e-07</v>
+        <v>5.904208233431518e-10</v>
       </c>
       <c r="CR7" t="n">
-        <v>5.726333256461658e-06</v>
+        <v>2.978034485678904e-12</v>
       </c>
       <c r="CS7" t="n">
-        <v>2.242607592961576e-07</v>
+        <v>4.221915872459903e-10</v>
       </c>
       <c r="CT7" t="n">
-        <v>4.952995027451834e-07</v>
+        <v>4.336491998824243e-10</v>
       </c>
       <c r="CU7" t="n">
-        <v>2.881740783777786e-07</v>
+        <v>1.300122232095191e-10</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.292561023547023e-06</v>
+        <v>1.209460916834493e-11</v>
       </c>
       <c r="CW7" t="n">
-        <v>5.705066428163263e-07</v>
+        <v>1.795658413628054e-11</v>
       </c>
       <c r="CX7" t="n">
-        <v>3.093467739745392e-07</v>
+        <v>6.717012362988939e-12</v>
       </c>
       <c r="CY7" t="n">
-        <v>2.393611566731124e-06</v>
+        <v>3.615014537716732e-11</v>
       </c>
       <c r="CZ7" t="n">
-        <v>8.973713647719705e-07</v>
+        <v>1.695833404258273e-11</v>
       </c>
       <c r="DA7" t="n">
-        <v>5.810655352433969e-07</v>
+        <v>4.078447995992107e-11</v>
       </c>
       <c r="DB7" t="n">
-        <v>8.795900896529929e-08</v>
+        <v>1.318580522546853e-10</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.941882388223348e-08</v>
+        <v>2.768309539935565e-11</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.203476813316229e-06</v>
+        <v>3.36820397961457e-11</v>
       </c>
       <c r="DE7" t="n">
-        <v>2.779912165351561e-06</v>
+        <v>2.671212417926228e-10</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.782402364369773e-06</v>
+        <v>5.702373018223739e-10</v>
       </c>
       <c r="DG7" t="n">
-        <v>1.09349252852553e-06</v>
+        <v>1.297018881185608e-10</v>
       </c>
       <c r="DH7" t="n">
-        <v>2.404951146672829e-06</v>
+        <v>1.006296934669137e-09</v>
       </c>
       <c r="DI7" t="n">
-        <v>3.287296976850484e-06</v>
+        <v>4.831927080672926e-10</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2.592069904494565e-06</v>
+        <v>4.074082737837159e-10</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.049945581144129e-06</v>
+        <v>3.823281136128287e-10</v>
       </c>
       <c r="DL7" t="n">
-        <v>3.16663181365584e-06</v>
+        <v>4.793595520524718e-10</v>
       </c>
       <c r="DM7" t="n">
-        <v>1.754194045133772e-06</v>
+        <v>1.002803118321793e-10</v>
       </c>
       <c r="DN7" t="n">
-        <v>4.462947913452808e-07</v>
+        <v>3.474632040423309e-11</v>
       </c>
       <c r="DO7" t="n">
-        <v>7.121759040273901e-07</v>
+        <v>1.493875995128846e-10</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.051239792104752e-06</v>
+        <v>1.460311316314744e-10</v>
       </c>
       <c r="DQ7" t="n">
-        <v>5.846742396897753e-07</v>
+        <v>5.420683346635258e-11</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.499965719631291e-06</v>
+        <v>1.66802543999367e-10</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.300202711718157e-06</v>
+        <v>1.135925936646132e-10</v>
       </c>
       <c r="DT7" t="n">
-        <v>9.197481176670408e-07</v>
+        <v>4.370168393830198e-10</v>
       </c>
       <c r="DU7" t="n">
-        <v>8.18942737623729e-07</v>
+        <v>1.707844005105486e-10</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.47289858887234e-06</v>
+        <v>2.038685192884415e-12</v>
       </c>
       <c r="DW7" t="n">
-        <v>2.005988335440634e-07</v>
+        <v>4.633973066381358e-11</v>
       </c>
       <c r="DX7" t="n">
-        <v>2.351035391257028e-06</v>
+        <v>1.432434587611553e-10</v>
       </c>
       <c r="DY7" t="n">
-        <v>6.980468469919288e-08</v>
+        <v>1.981912967075061e-10</v>
       </c>
       <c r="DZ7" t="n">
-        <v>2.934910753538134e-06</v>
+        <v>2.253706110622034e-10</v>
       </c>
       <c r="EA7" t="n">
-        <v>9.227129567079828e-07</v>
+        <v>1.68883934614783e-10</v>
       </c>
       <c r="EB7" t="n">
-        <v>6.284123514888051e-07</v>
+        <v>5.856842788531935e-11</v>
       </c>
       <c r="EC7" t="n">
-        <v>2.430643917250563e-07</v>
+        <v>4.894269364785764e-11</v>
       </c>
       <c r="ED7" t="n">
-        <v>9.346773026663868e-07</v>
+        <v>3.263116443719127e-10</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.600721930117288e-06</v>
+        <v>1.357852164041162e-10</v>
       </c>
       <c r="EF7" t="n">
-        <v>1.348355340269336e-06</v>
+        <v>7.243645353677275e-12</v>
       </c>
       <c r="EG7" t="n">
-        <v>7.684054708079202e-07</v>
+        <v>4.579504137014467e-11</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.113351686399255e-07</v>
+        <v>1.011383338189731e-10</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.320809701610415e-06</v>
+        <v>2.10318096272033e-10</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.109920731323655e-06</v>
+        <v>1.033609170475458e-10</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.630638053029543e-06</v>
+        <v>1.304086699738249e-10</v>
       </c>
       <c r="EL7" t="n">
-        <v>4.112396538857865e-07</v>
+        <v>2.074380944794285e-11</v>
       </c>
       <c r="EM7" t="n">
-        <v>9.021401581321697e-08</v>
+        <v>8.31451851812659e-11</v>
       </c>
       <c r="EN7" t="n">
-        <v>2.730899097969086e-07</v>
+        <v>6.618221248810841e-11</v>
       </c>
       <c r="EO7" t="n">
-        <v>3.805418145930162e-06</v>
+        <v>2.936968723776801e-11</v>
       </c>
       <c r="EP7" t="n">
-        <v>5.521526418306166e-07</v>
+        <v>2.05608030601212e-11</v>
       </c>
       <c r="EQ7" t="n">
-        <v>2.384666686339187e-07</v>
+        <v>8.30721082201169e-12</v>
       </c>
       <c r="ER7" t="n">
-        <v>8.725800739739498e-07</v>
+        <v>2.654891584352725e-10</v>
       </c>
       <c r="ES7" t="n">
-        <v>1.094399294743198e-06</v>
+        <v>2.497985152061233e-11</v>
       </c>
       <c r="ET7" t="n">
-        <v>1.084534005713067e-06</v>
+        <v>1.311829950223498e-10</v>
       </c>
       <c r="EU7" t="n">
-        <v>1.045588987835799e-06</v>
+        <v>6.699207161231513e-11</v>
       </c>
       <c r="EV7" t="n">
-        <v>8.601959962106775e-07</v>
+        <v>1.353432088624373e-10</v>
       </c>
       <c r="EW7" t="n">
-        <v>4.720731681118195e-07</v>
+        <v>1.004522229286486e-10</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.076689045476087e-06</v>
+        <v>1.394635101847896e-11</v>
       </c>
       <c r="EY7" t="n">
-        <v>8.025591569094104e-08</v>
+        <v>8.636494297498132e-11</v>
       </c>
       <c r="EZ7" t="n">
-        <v>2.430517156426504e-07</v>
+        <v>1.462473545044141e-11</v>
       </c>
       <c r="FA7" t="n">
-        <v>1.962363512575394e-06</v>
+        <v>3.381854518647032e-11</v>
       </c>
       <c r="FB7" t="n">
-        <v>1.382633172397618e-06</v>
+        <v>2.430161280542187e-11</v>
       </c>
       <c r="FC7" t="n">
-        <v>7.569166200482869e-07</v>
+        <v>1.558945333934858e-10</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.69402079311476e-07</v>
+        <v>1.265489102397765e-10</v>
       </c>
       <c r="FE7" t="n">
-        <v>4.929489705318701e-08</v>
+        <v>3.993851777073232e-11</v>
       </c>
       <c r="FF7" t="n">
-        <v>8.959909791883547e-07</v>
+        <v>8.838756115903124e-12</v>
       </c>
       <c r="FG7" t="n">
-        <v>4.722067785678519e-07</v>
+        <v>5.698982605273351e-11</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.668038294155849e-06</v>
+        <v>1.067810839749939e-10</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.500811777077615e-06</v>
+        <v>3.779743532050794e-11</v>
       </c>
       <c r="FJ7" t="n">
-        <v>2.523528792153229e-06</v>
+        <v>7.740040552928207e-11</v>
       </c>
       <c r="FK7" t="n">
-        <v>1.349184231003164e-06</v>
+        <v>9.983933124679822e-11</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.18433536044904e-06</v>
+        <v>4.962587285550768e-11</v>
       </c>
       <c r="FM7" t="n">
-        <v>4.580543873089482e-07</v>
+        <v>3.976588502929701e-11</v>
       </c>
       <c r="FN7" t="n">
-        <v>5.62089212507999e-07</v>
+        <v>1.118807615996253e-10</v>
       </c>
       <c r="FO7" t="n">
-        <v>2.507667886675335e-06</v>
+        <v>2.614981564619256e-10</v>
       </c>
       <c r="FP7" t="n">
-        <v>8.026992190934834e-07</v>
+        <v>1.39662781339922e-10</v>
       </c>
       <c r="FQ7" t="n">
-        <v>6.969805781409377e-07</v>
+        <v>5.002380176755139e-10</v>
       </c>
       <c r="FR7" t="n">
-        <v>8.159807407537301e-07</v>
+        <v>9.056090599646183e-11</v>
       </c>
       <c r="FS7" t="n">
-        <v>1.978075943043223e-06</v>
+        <v>1.357124135292764e-11</v>
       </c>
       <c r="FT7" t="n">
-        <v>1.56488158609136e-06</v>
+        <v>4.381078000381677e-10</v>
       </c>
       <c r="FU7" t="n">
-        <v>1.31359320221236e-06</v>
+        <v>2.617780436864336e-10</v>
       </c>
       <c r="FV7" t="n">
-        <v>6.019519105393556e-07</v>
+        <v>5.743239217537166e-12</v>
       </c>
       <c r="FW7" t="n">
-        <v>2.365740783716319e-06</v>
+        <v>1.589567505400069e-10</v>
       </c>
       <c r="FX7" t="n">
-        <v>1.926910954352934e-06</v>
+        <v>4.552209997843448e-11</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.536090167064685e-06</v>
+        <v>1.211387379296269e-10</v>
       </c>
       <c r="FZ7" t="n">
-        <v>2.240456637991883e-07</v>
+        <v>1.725748433045737e-10</v>
       </c>
       <c r="GA7" t="n">
-        <v>1.831772351579275e-07</v>
+        <v>3.324956421302261e-10</v>
       </c>
       <c r="GB7" t="n">
-        <v>3.423330099394661e-06</v>
+        <v>1.364528282032929e-12</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.152109916802146e-06</v>
+        <v>1.2107959079799e-10</v>
       </c>
       <c r="GD7" t="n">
-        <v>1.065887886397832e-06</v>
+        <v>4.428126754163486e-10</v>
       </c>
       <c r="GE7" t="n">
-        <v>4.080136193351791e-07</v>
+        <v>2.180173264143548e-10</v>
       </c>
       <c r="GF7" t="n">
-        <v>6.37872972220066e-07</v>
+        <v>1.089107623530872e-11</v>
       </c>
       <c r="GG7" t="n">
-        <v>1.969996219486347e-06</v>
+        <v>2.103222734861632e-10</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3416 +4987,3416 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.723235859036777e-08</v>
+        <v>0.0005574516835622489</v>
       </c>
       <c r="B9" t="n">
-        <v>6.043950229184247e-09</v>
+        <v>0.007174636702984571</v>
       </c>
       <c r="C9" t="n">
-        <v>2.522640585311819e-08</v>
+        <v>0.001093513681553304</v>
       </c>
       <c r="D9" t="n">
-        <v>3.074754317822226e-08</v>
+        <v>0.003830263158306479</v>
       </c>
       <c r="E9" t="n">
-        <v>1.967902951705014e-09</v>
+        <v>0.0003868161584250629</v>
       </c>
       <c r="F9" t="n">
-        <v>3.248871394134767e-09</v>
+        <v>0.001343348063528538</v>
       </c>
       <c r="G9" t="n">
-        <v>9.637438402876342e-09</v>
+        <v>0.0004472366417758167</v>
       </c>
       <c r="H9" t="n">
-        <v>3.337171960993146e-08</v>
+        <v>0.0009061763412319124</v>
       </c>
       <c r="I9" t="n">
-        <v>5.009948900180916e-09</v>
+        <v>3.305068457848392e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.826602513688158e-08</v>
+        <v>0.001111212070100009</v>
       </c>
       <c r="K9" t="n">
-        <v>1.15779723586229e-08</v>
+        <v>0.005202196538448334</v>
       </c>
       <c r="L9" t="n">
-        <v>2.00635028591023e-08</v>
+        <v>1.379921377520077e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>2.63908095377019e-08</v>
+        <v>0.003547691740095615</v>
       </c>
       <c r="N9" t="n">
-        <v>9.180722848611822e-10</v>
+        <v>0.001391806872561574</v>
       </c>
       <c r="O9" t="n">
-        <v>1.856046316639492e-09</v>
+        <v>0.001992725767195225</v>
       </c>
       <c r="P9" t="n">
-        <v>5.295231808588596e-09</v>
+        <v>0.0001895226305350661</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.474915206107653e-08</v>
+        <v>0.0001302102027693763</v>
       </c>
       <c r="R9" t="n">
-        <v>3.726787323188319e-09</v>
+        <v>0.0009879849385470152</v>
       </c>
       <c r="S9" t="n">
-        <v>1.162683282984744e-10</v>
+        <v>0.0001847629609983414</v>
       </c>
       <c r="T9" t="n">
-        <v>1.352864265058429e-09</v>
+        <v>0.0009796321392059326</v>
       </c>
       <c r="U9" t="n">
-        <v>1.645784841741715e-09</v>
+        <v>0.0002033395139733329</v>
       </c>
       <c r="V9" t="n">
-        <v>1.575937780273762e-08</v>
+        <v>0.0008658269071020186</v>
       </c>
       <c r="W9" t="n">
-        <v>1.766138346681601e-08</v>
+        <v>0.0001225884043378755</v>
       </c>
       <c r="X9" t="n">
-        <v>4.573343481695247e-09</v>
+        <v>0.0007212707423605025</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.164560892163991e-09</v>
+        <v>0.0006639697821810842</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.47909822962356e-09</v>
+        <v>0.0003281138488091528</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.1205665728653e-08</v>
+        <v>0.000480298709589988</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.494384704869844e-08</v>
+        <v>0.00057966448366642</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.183931441772756e-08</v>
+        <v>0.001715661026537418</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.376422709142844e-08</v>
+        <v>8.775282367423642e-06</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.942022595130993e-10</v>
+        <v>0.000362497114110738</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.392620990221417e-09</v>
+        <v>0.0006710905581712723</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.223555004680748e-11</v>
+        <v>0.0001217727040057071</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.009278408214414e-09</v>
+        <v>6.614759331569076e-05</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.867108494011063e-09</v>
+        <v>0.0001925018150359392</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.925730211548853e-09</v>
+        <v>0.0003273730399087071</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.213123379528724e-08</v>
+        <v>0.0002574756217654794</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.282180761563723e-08</v>
+        <v>0.0008205785416066647</v>
       </c>
       <c r="AM9" t="n">
-        <v>6.130218110911301e-09</v>
+        <v>5.592976958723739e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.066252724475248e-09</v>
+        <v>0.0004262652655597776</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.479270009407401e-09</v>
+        <v>0.000613466661889106</v>
       </c>
       <c r="AP9" t="n">
-        <v>9.963297742388022e-09</v>
+        <v>0.000969098589848727</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.755555256721664e-09</v>
+        <v>9.218836203217506e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.437328530812692e-09</v>
+        <v>1.583115226821974e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>9.101543962941605e-10</v>
+        <v>0.0004528605786617845</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.314753366761124e-08</v>
+        <v>0.000776240136474371</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.128853146160964e-09</v>
+        <v>0.005360424518585205</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.141546673328776e-08</v>
+        <v>0.0002046011941274628</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.613802957933785e-08</v>
+        <v>0.000802309368737042</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.790916037691659e-08</v>
+        <v>0.0008301499765366316</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.009063677059885e-08</v>
+        <v>1.272525696549565e-05</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8.032954745829102e-09</v>
+        <v>0.0001677201071288437</v>
       </c>
       <c r="BA9" t="n">
-        <v>3.797139314087872e-08</v>
+        <v>0.0001748247159412131</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.591156184588272e-08</v>
+        <v>0.0004151488828938454</v>
       </c>
       <c r="BC9" t="n">
-        <v>7.269007618049272e-09</v>
+        <v>0.0001493451272835955</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.358824164299222e-10</v>
+        <v>0.001129459124058485</v>
       </c>
       <c r="BE9" t="n">
-        <v>8.029974907231008e-09</v>
+        <v>0.001471110386773944</v>
       </c>
       <c r="BF9" t="n">
-        <v>4.426126132273112e-09</v>
+        <v>0.0002016777580138296</v>
       </c>
       <c r="BG9" t="n">
-        <v>6.569544019896512e-09</v>
+        <v>0.002630450297147036</v>
       </c>
       <c r="BH9" t="n">
-        <v>7.48931672234221e-09</v>
+        <v>0.001334871398285031</v>
       </c>
       <c r="BI9" t="n">
-        <v>2.000377641309115e-09</v>
+        <v>0.001037264824844897</v>
       </c>
       <c r="BJ9" t="n">
-        <v>9.429490521739581e-10</v>
+        <v>0.0007183342822827399</v>
       </c>
       <c r="BK9" t="n">
-        <v>2.663902876065549e-09</v>
+        <v>2.654724085005e-07</v>
       </c>
       <c r="BL9" t="n">
-        <v>2.424670242362481e-09</v>
+        <v>0.0008552641957066953</v>
       </c>
       <c r="BM9" t="n">
-        <v>5.999176266868744e-09</v>
+        <v>0.0009777621598914266</v>
       </c>
       <c r="BN9" t="n">
-        <v>8.141749496815009e-09</v>
+        <v>0.0006794952787458897</v>
       </c>
       <c r="BO9" t="n">
-        <v>7.318522676769135e-09</v>
+        <v>0.0002534330706112087</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.06502060503999e-08</v>
+        <v>0.0008051593904383481</v>
       </c>
       <c r="BQ9" t="n">
-        <v>6.250742590196978e-09</v>
+        <v>0.0004728608764708042</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.603060573174275e-09</v>
+        <v>0.0005668941885232925</v>
       </c>
       <c r="BS9" t="n">
-        <v>6.539947250416844e-09</v>
+        <v>0.0002932001661974937</v>
       </c>
       <c r="BT9" t="n">
-        <v>6.313174871763749e-09</v>
+        <v>0.0006039589061401784</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.46409373513734e-08</v>
+        <v>0.0005366202676668763</v>
       </c>
       <c r="BV9" t="n">
-        <v>7.599263440738468e-09</v>
+        <v>0.002370430156588554</v>
       </c>
       <c r="BW9" t="n">
-        <v>3.045122820566348e-09</v>
+        <v>0.0007392219267785549</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.705443253285921e-08</v>
+        <v>0.000732913613319397</v>
       </c>
       <c r="BY9" t="n">
-        <v>6.351476677934897e-09</v>
+        <v>0.0006568919634446502</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.785252479180599e-08</v>
+        <v>0.001021687872707844</v>
       </c>
       <c r="CA9" t="n">
-        <v>9.014189394918048e-09</v>
+        <v>0.0002582438755780458</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.397743432107745e-08</v>
+        <v>9.960179158952087e-05</v>
       </c>
       <c r="CC9" t="n">
-        <v>2.058992976117224e-09</v>
+        <v>0.0006929275114089251</v>
       </c>
       <c r="CD9" t="n">
-        <v>1.761319312620913e-09</v>
+        <v>0.0003158061881549656</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.620931998682408e-09</v>
+        <v>0.001305330777540803</v>
       </c>
       <c r="CF9" t="n">
-        <v>8.343516100239867e-09</v>
+        <v>0.0004326476191636175</v>
       </c>
       <c r="CG9" t="n">
-        <v>6.450568079685581e-09</v>
+        <v>0.0004728595376946032</v>
       </c>
       <c r="CH9" t="n">
-        <v>9.836623737768946e-10</v>
+        <v>0.0003978358581662178</v>
       </c>
       <c r="CI9" t="n">
-        <v>8.250801153408815e-10</v>
+        <v>0.0002172583626816049</v>
       </c>
       <c r="CJ9" t="n">
-        <v>9.305312076435257e-10</v>
+        <v>0.0001757557911332697</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.050458031670587e-08</v>
+        <v>0.0001252140500582755</v>
       </c>
       <c r="CL9" t="n">
-        <v>2.037108259855813e-09</v>
+        <v>0.0002619771403260529</v>
       </c>
       <c r="CM9" t="n">
-        <v>4.030856537440286e-09</v>
+        <v>0.001145182177424431</v>
       </c>
       <c r="CN9" t="n">
-        <v>4.759074467841629e-09</v>
+        <v>0.0007049518753774464</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.724848930351186e-09</v>
+        <v>0.0003509061352815479</v>
       </c>
       <c r="CP9" t="n">
-        <v>4.201088366073691e-10</v>
+        <v>0.001623396412469447</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.193555121403733e-08</v>
+        <v>0.0001080235379049554</v>
       </c>
       <c r="CR9" t="n">
-        <v>2.239457508323994e-09</v>
+        <v>0.0008454229682683945</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.88994375704965e-09</v>
+        <v>0.0004473040753509849</v>
       </c>
       <c r="CT9" t="n">
-        <v>2.838763668577826e-09</v>
+        <v>0.001157761202193797</v>
       </c>
       <c r="CU9" t="n">
-        <v>6.737903568421189e-09</v>
+        <v>0.0001874490699265152</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.759414502977563e-09</v>
+        <v>0.0003036534762941301</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.216319433008152e-09</v>
+        <v>0.001045687939040363</v>
       </c>
       <c r="CX9" t="n">
-        <v>4.685897891931745e-09</v>
+        <v>0.0005682987393811345</v>
       </c>
       <c r="CY9" t="n">
-        <v>4.199280922989601e-09</v>
+        <v>0.0007198808598332107</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.092223422816119e-09</v>
+        <v>0.0002224912168458104</v>
       </c>
       <c r="DA9" t="n">
-        <v>3.672449899738695e-09</v>
+        <v>0.0002441766555421054</v>
       </c>
       <c r="DB9" t="n">
-        <v>4.349676174797423e-10</v>
+        <v>0.0002885996946133673</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.11659774759687e-08</v>
+        <v>0.0002404695260338485</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.738739263679179e-09</v>
+        <v>0.0001686964824330062</v>
       </c>
       <c r="DE9" t="n">
-        <v>4.94391771965752e-09</v>
+        <v>0.0004189728642813861</v>
       </c>
       <c r="DF9" t="n">
-        <v>9.106337017783517e-09</v>
+        <v>0.0009406215976923704</v>
       </c>
       <c r="DG9" t="n">
-        <v>9.529911970673766e-09</v>
+        <v>0.0004096133052371442</v>
       </c>
       <c r="DH9" t="n">
-        <v>3.112895718970776e-09</v>
+        <v>0.001267514424398541</v>
       </c>
       <c r="DI9" t="n">
-        <v>8.119036998266438e-09</v>
+        <v>0.0007684509619139135</v>
       </c>
       <c r="DJ9" t="n">
-        <v>5.179623840945169e-09</v>
+        <v>0.0009020764846354723</v>
       </c>
       <c r="DK9" t="n">
-        <v>2.799343423731671e-09</v>
+        <v>0.0006625670357607305</v>
       </c>
       <c r="DL9" t="n">
-        <v>2.220276940079202e-08</v>
+        <v>0.0003580207703635097</v>
       </c>
       <c r="DM9" t="n">
-        <v>3.750411980973922e-09</v>
+        <v>7.748238567728549e-05</v>
       </c>
       <c r="DN9" t="n">
-        <v>5.428432370280234e-09</v>
+        <v>0.0005470247706398368</v>
       </c>
       <c r="DO9" t="n">
-        <v>1.529654292120597e-09</v>
+        <v>0.0001225269079441205</v>
       </c>
       <c r="DP9" t="n">
-        <v>7.240563260069166e-09</v>
+        <v>0.0003616210306063294</v>
       </c>
       <c r="DQ9" t="n">
-        <v>6.118160200685452e-09</v>
+        <v>2.400896119070239e-05</v>
       </c>
       <c r="DR9" t="n">
-        <v>6.919319783804667e-09</v>
+        <v>0.0007281236466951668</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.879099897905689e-08</v>
+        <v>0.0004175641806796193</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.64286806381142e-09</v>
+        <v>0.0003709435113705695</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.66381539656868e-08</v>
+        <v>3.252361784689128e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>5.345941467282955e-09</v>
+        <v>0.0006658379570581019</v>
       </c>
       <c r="DW9" t="n">
-        <v>7.73729413872104e-10</v>
+        <v>2.099344965245109e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>3.967802530979725e-09</v>
+        <v>0.0001948312565218657</v>
       </c>
       <c r="DY9" t="n">
-        <v>2.792718278854522e-10</v>
+        <v>0.0009739820961840451</v>
       </c>
       <c r="DZ9" t="n">
-        <v>3.976177165299077e-09</v>
+        <v>8.105461893137544e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>5.830260274564125e-09</v>
+        <v>0.001299268682487309</v>
       </c>
       <c r="EB9" t="n">
-        <v>7.005220847844384e-10</v>
+        <v>0.0007530990405939519</v>
       </c>
       <c r="EC9" t="n">
-        <v>3.64995189627848e-09</v>
+        <v>0.0001420722983311862</v>
       </c>
       <c r="ED9" t="n">
-        <v>7.810943003505599e-09</v>
+        <v>0.0001894893503049389</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.006912420109529e-08</v>
+        <v>0.0002020169049501419</v>
       </c>
       <c r="EF9" t="n">
-        <v>1.634101853831282e-09</v>
+        <v>7.753675163257867e-05</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.839462442949525e-09</v>
+        <v>0.0007958514615893364</v>
       </c>
       <c r="EH9" t="n">
-        <v>5.706602301813746e-09</v>
+        <v>0.0002969252236653119</v>
       </c>
       <c r="EI9" t="n">
-        <v>5.698144178722941e-09</v>
+        <v>0.0004831530386582017</v>
       </c>
       <c r="EJ9" t="n">
-        <v>8.495257830531955e-09</v>
+        <v>0.0005252890987321734</v>
       </c>
       <c r="EK9" t="n">
-        <v>5.798333369000375e-09</v>
+        <v>0.0002290210832143202</v>
       </c>
       <c r="EL9" t="n">
-        <v>4.435807277047843e-10</v>
+        <v>0.0004073724849149585</v>
       </c>
       <c r="EM9" t="n">
-        <v>1.789669634710833e-09</v>
+        <v>0.0002690734399948269</v>
       </c>
       <c r="EN9" t="n">
-        <v>3.049237307095609e-09</v>
+        <v>4.62470852653496e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.321205145288218e-09</v>
+        <v>0.0003371701459400356</v>
       </c>
       <c r="EP9" t="n">
-        <v>2.174337598859211e-09</v>
+        <v>0.001251683686859906</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1.44655709632957e-09</v>
+        <v>0.0002784064272418618</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.306879604534572e-09</v>
+        <v>0.0006734332419000566</v>
       </c>
       <c r="ES9" t="n">
-        <v>5.845335770970905e-09</v>
+        <v>0.0004019586776848882</v>
       </c>
       <c r="ET9" t="n">
-        <v>1.001349669849105e-09</v>
+        <v>0.000808530836366117</v>
       </c>
       <c r="EU9" t="n">
-        <v>3.606726917126934e-09</v>
+        <v>0.0007676248205825686</v>
       </c>
       <c r="EV9" t="n">
-        <v>2.158619416547936e-08</v>
+        <v>0.0003214679600205272</v>
       </c>
       <c r="EW9" t="n">
-        <v>4.710433376686751e-09</v>
+        <v>0.0003068499790970236</v>
       </c>
       <c r="EX9" t="n">
-        <v>2.325212244969066e-09</v>
+        <v>0.0001227208558702841</v>
       </c>
       <c r="EY9" t="n">
-        <v>2.928259412726675e-09</v>
+        <v>0.001130201388150454</v>
       </c>
       <c r="EZ9" t="n">
-        <v>5.877965669753848e-09</v>
+        <v>0.0002591218799352646</v>
       </c>
       <c r="FA9" t="n">
-        <v>1.970685170604725e-09</v>
+        <v>0.0006235883920453489</v>
       </c>
       <c r="FB9" t="n">
-        <v>4.494924987774596e-10</v>
+        <v>0.0001654498046264052</v>
       </c>
       <c r="FC9" t="n">
-        <v>2.623691264247441e-09</v>
+        <v>0.0003788160975091159</v>
       </c>
       <c r="FD9" t="n">
-        <v>7.147615832536758e-13</v>
+        <v>0.0003624655364546925</v>
       </c>
       <c r="FE9" t="n">
-        <v>8.827485409312885e-09</v>
+        <v>0.0001665427116677165</v>
       </c>
       <c r="FF9" t="n">
-        <v>8.778051618918425e-10</v>
+        <v>0.0002951495116576552</v>
       </c>
       <c r="FG9" t="n">
-        <v>3.392820691061615e-09</v>
+        <v>4.031886055599898e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>5.461414431806588e-09</v>
+        <v>0.0002873086195904762</v>
       </c>
       <c r="FI9" t="n">
-        <v>4.826074206931708e-09</v>
+        <v>0.0003989891265518963</v>
       </c>
       <c r="FJ9" t="n">
-        <v>4.988662816174383e-10</v>
+        <v>0.0005801459192298353</v>
       </c>
       <c r="FK9" t="n">
-        <v>9.04647023958205e-09</v>
+        <v>0.000728642859030515</v>
       </c>
       <c r="FL9" t="n">
-        <v>2.181443914395231e-09</v>
+        <v>0.0008570532081648707</v>
       </c>
       <c r="FM9" t="n">
-        <v>6.325016954633611e-09</v>
+        <v>6.483068136731163e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.307175250848559e-08</v>
+        <v>5.961622082395479e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>5.328656627057171e-09</v>
+        <v>0.0005412393948063254</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.103465763208078e-08</v>
+        <v>0.0003082216717302799</v>
       </c>
       <c r="FQ9" t="n">
-        <v>7.005862556752618e-10</v>
+        <v>0.0003033992252312601</v>
       </c>
       <c r="FR9" t="n">
-        <v>6.894573800764192e-10</v>
+        <v>0.0004612152697518468</v>
       </c>
       <c r="FS9" t="n">
-        <v>1.676080252366319e-08</v>
+        <v>0.0006425884203054011</v>
       </c>
       <c r="FT9" t="n">
-        <v>2.063005055674694e-08</v>
+        <v>0.0009935819543898106</v>
       </c>
       <c r="FU9" t="n">
-        <v>4.838333733658828e-09</v>
+        <v>0.0002044975990429521</v>
       </c>
       <c r="FV9" t="n">
-        <v>5.447353679244316e-09</v>
+        <v>0.000215125794056803</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.401532401246186e-08</v>
+        <v>0.0008126296452246606</v>
       </c>
       <c r="FX9" t="n">
-        <v>4.342592951900315e-09</v>
+        <v>0.0004111093294341117</v>
       </c>
       <c r="FY9" t="n">
-        <v>6.975682254051208e-09</v>
+        <v>0.0008492318447679281</v>
       </c>
       <c r="FZ9" t="n">
-        <v>1.855068454403863e-08</v>
+        <v>0.0005367668927647173</v>
       </c>
       <c r="GA9" t="n">
-        <v>2.744815708055626e-09</v>
+        <v>0.0003381696296855807</v>
       </c>
       <c r="GB9" t="n">
-        <v>4.896300254131347e-09</v>
+        <v>0.000333788339048624</v>
       </c>
       <c r="GC9" t="n">
-        <v>5.352300380678798e-09</v>
+        <v>0.0007425820804201066</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.254278103601791e-08</v>
+        <v>0.0009264652035199106</v>
       </c>
       <c r="GE9" t="n">
-        <v>3.057944564233139e-09</v>
+        <v>0.001794241718016565</v>
       </c>
       <c r="GF9" t="n">
-        <v>1.209295952264711e-08</v>
+        <v>0.0003147659881506115</v>
       </c>
       <c r="GG9" t="n">
-        <v>4.600477332417086e-09</v>
+        <v>0.0003809766203630716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.228042627119066e-08</v>
+        <v>0.007674574851989746</v>
       </c>
       <c r="B10" t="n">
-        <v>3.219924735731183e-07</v>
+        <v>0.0514502190053463</v>
       </c>
       <c r="C10" t="n">
-        <v>4.007624170299096e-07</v>
+        <v>0.004728741478174925</v>
       </c>
       <c r="D10" t="n">
-        <v>9.218803711519286e-07</v>
+        <v>0.0197239276021719</v>
       </c>
       <c r="E10" t="n">
-        <v>1.142271202070333e-07</v>
+        <v>0.001227324828505516</v>
       </c>
       <c r="F10" t="n">
-        <v>2.637474949551688e-08</v>
+        <v>0.007207505870610476</v>
       </c>
       <c r="G10" t="n">
-        <v>1.478971967117104e-08</v>
+        <v>0.005452743731439114</v>
       </c>
       <c r="H10" t="n">
-        <v>1.638175319840229e-07</v>
+        <v>0.003505546599626541</v>
       </c>
       <c r="I10" t="n">
-        <v>1.215010314581377e-07</v>
+        <v>0.0006368590984493494</v>
       </c>
       <c r="J10" t="n">
-        <v>2.583172715731052e-07</v>
+        <v>0.008464469574391842</v>
       </c>
       <c r="K10" t="n">
-        <v>1.130412883298959e-07</v>
+        <v>0.03317788988351822</v>
       </c>
       <c r="L10" t="n">
-        <v>3.652496616268763e-07</v>
+        <v>0.0008902302943170071</v>
       </c>
       <c r="M10" t="n">
-        <v>1.223272192873992e-06</v>
+        <v>0.02532978728413582</v>
       </c>
       <c r="N10" t="n">
-        <v>4.315978685554001e-07</v>
+        <v>0.01047265436500311</v>
       </c>
       <c r="O10" t="n">
-        <v>3.708913141053927e-07</v>
+        <v>0.01462677866220474</v>
       </c>
       <c r="P10" t="n">
-        <v>5.849926054679599e-08</v>
+        <v>0.003412113757804036</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.318068533848418e-07</v>
+        <v>0.002303733490407467</v>
       </c>
       <c r="R10" t="n">
-        <v>2.338456397410482e-07</v>
+        <v>0.0007302294834516943</v>
       </c>
       <c r="S10" t="n">
-        <v>3.932615015855845e-07</v>
+        <v>0.00180873810313642</v>
       </c>
       <c r="T10" t="n">
-        <v>1.175255306407053e-07</v>
+        <v>0.009354280307888985</v>
       </c>
       <c r="U10" t="n">
-        <v>2.815414390511251e-08</v>
+        <v>0.00504590105265379</v>
       </c>
       <c r="V10" t="n">
-        <v>1.852008324476628e-07</v>
+        <v>0.005273872520774603</v>
       </c>
       <c r="W10" t="n">
-        <v>8.478796189592686e-07</v>
+        <v>0.0009974308777600527</v>
       </c>
       <c r="X10" t="n">
-        <v>8.795416306384141e-08</v>
+        <v>0.007292462512850761</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.929822239319037e-08</v>
+        <v>0.00210333545692265</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.213038279881175e-09</v>
+        <v>0.002871146658435464</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.079104425931291e-08</v>
+        <v>0.002510059857740998</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.451388698114897e-07</v>
+        <v>0.005056667141616344</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.282025566406446e-08</v>
+        <v>0.007917057722806931</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.702827603367041e-07</v>
+        <v>0.001768226968124509</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.421724200819881e-08</v>
+        <v>0.0001412805868312716</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.428097249345228e-07</v>
+        <v>0.00206784438341856</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.565120951203426e-07</v>
+        <v>0.0006096058059483767</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.169769063835702e-07</v>
+        <v>0.004154577851295471</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.032816587809293e-08</v>
+        <v>0.0009176790481433272</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.358391727990238e-07</v>
+        <v>0.0007991478778421879</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.705363837980258e-08</v>
+        <v>0.006840662099421024</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.0732781409788e-08</v>
+        <v>0.003900561016052961</v>
       </c>
       <c r="AM10" t="n">
-        <v>3.595266306888334e-08</v>
+        <v>0.003730435855686665</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.539323702421825e-07</v>
+        <v>0.004226669669151306</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.903610731498702e-08</v>
+        <v>0.002796793123707175</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.891239603286522e-07</v>
+        <v>0.003412758465856314</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.057026276565011e-08</v>
+        <v>0.001954163424670696</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.215680622834725e-08</v>
+        <v>0.003686413634568453</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.269442494513441e-09</v>
+        <v>0.001882359851151705</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.961558109859652e-08</v>
+        <v>0.002087074564769864</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.242073264824285e-07</v>
+        <v>0.04177901521325111</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.821115631628345e-07</v>
+        <v>0.002500751987099648</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.468033812874637e-07</v>
+        <v>0.0002871805336326361</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.955477285127017e-08</v>
+        <v>0.01016939803957939</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.300488688433688e-10</v>
+        <v>0.003528742585331202</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.71482576863491e-07</v>
+        <v>0.001184291206300259</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.600873673623937e-07</v>
+        <v>0.002584781032055616</v>
       </c>
       <c r="BB10" t="n">
-        <v>9.328511652029192e-08</v>
+        <v>0.001365406671538949</v>
       </c>
       <c r="BC10" t="n">
-        <v>9.020510560731054e-08</v>
+        <v>0.0008635006379336119</v>
       </c>
       <c r="BD10" t="n">
-        <v>8.604226309216756e-08</v>
+        <v>0.009266677312552929</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.544194105917995e-07</v>
+        <v>0.006702866405248642</v>
       </c>
       <c r="BF10" t="n">
-        <v>7.227160949696554e-07</v>
+        <v>0.004316193517297506</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.498382170619152e-07</v>
+        <v>0.01628921926021576</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.689364097501311e-07</v>
+        <v>0.006929569412022829</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.497773152754235e-07</v>
+        <v>0.002662384184077382</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.327026382114127e-07</v>
+        <v>0.003477000864222646</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.046419697559031e-07</v>
+        <v>0.0004633669450413436</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.097395383453659e-07</v>
+        <v>0.01111617870628834</v>
       </c>
       <c r="BM10" t="n">
-        <v>5.605460273727658e-08</v>
+        <v>0.009688952937722206</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.234711355380114e-08</v>
+        <v>0.004196477122604847</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.318949216511101e-08</v>
+        <v>0.005064765922725201</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.948958754383057e-07</v>
+        <v>0.005598694551736116</v>
       </c>
       <c r="BQ10" t="n">
-        <v>7.418761782673755e-08</v>
+        <v>0.002395951887592673</v>
       </c>
       <c r="BR10" t="n">
-        <v>3.711562612807029e-08</v>
+        <v>0.0003685004776343703</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.341429533065821e-08</v>
+        <v>0.001661622663959861</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.689752338052131e-09</v>
+        <v>0.002175344387069345</v>
       </c>
       <c r="BU10" t="n">
-        <v>7.401619228630807e-08</v>
+        <v>0.002462123055011034</v>
       </c>
       <c r="BV10" t="n">
-        <v>6.086970927299262e-08</v>
+        <v>0.02027681283652782</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.022418783553803e-07</v>
+        <v>0.000535531435161829</v>
       </c>
       <c r="BX10" t="n">
-        <v>4.433963454175682e-07</v>
+        <v>0.001184546272270381</v>
       </c>
       <c r="BY10" t="n">
-        <v>7.489911268976357e-08</v>
+        <v>0.006177582312375307</v>
       </c>
       <c r="BZ10" t="n">
-        <v>7.878173846620484e-08</v>
+        <v>0.009860033169388771</v>
       </c>
       <c r="CA10" t="n">
-        <v>1.055947862482753e-07</v>
+        <v>0.00321478396654129</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.163799225878392e-07</v>
+        <v>0.000621383311226964</v>
       </c>
       <c r="CC10" t="n">
-        <v>1.450888902354563e-07</v>
+        <v>0.002224010648205876</v>
       </c>
       <c r="CD10" t="n">
-        <v>2.925870923320417e-08</v>
+        <v>0.002967129228636622</v>
       </c>
       <c r="CE10" t="n">
-        <v>5.662573698828055e-08</v>
+        <v>0.008978037163615227</v>
       </c>
       <c r="CF10" t="n">
-        <v>5.434410610405394e-08</v>
+        <v>0.001464233733713627</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.973148897604915e-07</v>
+        <v>0.0004625302099157125</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.167596295204021e-07</v>
+        <v>0.004143890924751759</v>
       </c>
       <c r="CI10" t="n">
-        <v>2.971799162310163e-08</v>
+        <v>0.001307006110437214</v>
       </c>
       <c r="CJ10" t="n">
-        <v>3.200408826842249e-09</v>
+        <v>0.001437910832464695</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.594942571931824e-08</v>
+        <v>7.111793820513412e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>6.418616749215289e-08</v>
+        <v>0.0008477543597109616</v>
       </c>
       <c r="CM10" t="n">
-        <v>9.956335844663045e-08</v>
+        <v>0.00881533045321703</v>
       </c>
       <c r="CN10" t="n">
-        <v>8.559968733834467e-08</v>
+        <v>0.01092857215553522</v>
       </c>
       <c r="CO10" t="n">
-        <v>6.687866260790543e-08</v>
+        <v>0.004080269485712051</v>
       </c>
       <c r="CP10" t="n">
-        <v>5.290917783895566e-07</v>
+        <v>0.01218236330896616</v>
       </c>
       <c r="CQ10" t="n">
-        <v>5.889356771149323e-07</v>
+        <v>0.006740988232195377</v>
       </c>
       <c r="CR10" t="n">
-        <v>4.312339569878532e-07</v>
+        <v>0.008330906741321087</v>
       </c>
       <c r="CS10" t="n">
-        <v>9.835439129801671e-08</v>
+        <v>0.004336277954280376</v>
       </c>
       <c r="CT10" t="n">
-        <v>6.53180833865008e-08</v>
+        <v>0.004720069468021393</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.531480222638493e-07</v>
+        <v>0.001353271305561066</v>
       </c>
       <c r="CV10" t="n">
-        <v>7.714526617519368e-08</v>
+        <v>0.003064042422920465</v>
       </c>
       <c r="CW10" t="n">
-        <v>6.076033542967707e-08</v>
+        <v>0.007577118929475546</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.070059170160675e-07</v>
+        <v>0.001840736251324415</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.520227499440807e-07</v>
+        <v>0.002782061696052551</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.032774648024315e-07</v>
+        <v>0.005051167216151953</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.943053895558933e-08</v>
+        <v>0.002228191588073969</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.958546391733762e-08</v>
+        <v>0.001152629964053631</v>
       </c>
       <c r="DC10" t="n">
-        <v>4.007543097372945e-08</v>
+        <v>0.0006103251362219453</v>
       </c>
       <c r="DD10" t="n">
-        <v>6.893835546861737e-08</v>
+        <v>0.0004304893955122679</v>
       </c>
       <c r="DE10" t="n">
-        <v>2.917171002536634e-07</v>
+        <v>0.001898683258332312</v>
       </c>
       <c r="DF10" t="n">
-        <v>1.299780763019953e-07</v>
+        <v>0.006105538923293352</v>
       </c>
       <c r="DG10" t="n">
-        <v>5.995592999852306e-08</v>
+        <v>0.001172232674434781</v>
       </c>
       <c r="DH10" t="n">
-        <v>1.437661154568559e-07</v>
+        <v>0.005023368634283543</v>
       </c>
       <c r="DI10" t="n">
-        <v>3.390480785014915e-08</v>
+        <v>0.001463364344090223</v>
       </c>
       <c r="DJ10" t="n">
-        <v>2.149188276234781e-07</v>
+        <v>0.003510419046506286</v>
       </c>
       <c r="DK10" t="n">
-        <v>1.752608511651488e-07</v>
+        <v>0.003941294271498919</v>
       </c>
       <c r="DL10" t="n">
-        <v>3.243192736590572e-07</v>
+        <v>0.0007894147420302033</v>
       </c>
       <c r="DM10" t="n">
-        <v>2.308135194084571e-08</v>
+        <v>2.057480742223561e-05</v>
       </c>
       <c r="DN10" t="n">
-        <v>9.633851760781909e-08</v>
+        <v>0.006683086510747671</v>
       </c>
       <c r="DO10" t="n">
-        <v>1.708340562345256e-07</v>
+        <v>0.001653862651437521</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.160247986575769e-08</v>
+        <v>0.004297899082303047</v>
       </c>
       <c r="DQ10" t="n">
-        <v>8.952790153671231e-08</v>
+        <v>0.001494626048952341</v>
       </c>
       <c r="DR10" t="n">
-        <v>4.868454084316909e-08</v>
+        <v>0.003084808588027954</v>
       </c>
       <c r="DS10" t="n">
-        <v>2.693675185128086e-07</v>
+        <v>0.00386646599508822</v>
       </c>
       <c r="DT10" t="n">
-        <v>6.659211493342809e-08</v>
+        <v>0.0005661588511429727</v>
       </c>
       <c r="DU10" t="n">
-        <v>7.976098714834734e-08</v>
+        <v>0.001826005987823009</v>
       </c>
       <c r="DV10" t="n">
-        <v>5.568179517467797e-08</v>
+        <v>0.000533382932189852</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.38628863055601e-07</v>
+        <v>0.002515392145141959</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.102499211924624e-07</v>
+        <v>0.0004007722600363195</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.512541286137093e-08</v>
+        <v>0.007436575368046761</v>
       </c>
       <c r="DZ10" t="n">
-        <v>2.457425694046833e-07</v>
+        <v>0.001287482446059585</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.806070031307172e-07</v>
+        <v>0.006947370711714029</v>
       </c>
       <c r="EB10" t="n">
-        <v>1.848210473553991e-07</v>
+        <v>0.001915159169584513</v>
       </c>
       <c r="EC10" t="n">
-        <v>2.535287091376404e-09</v>
+        <v>0.0002230752434115857</v>
       </c>
       <c r="ED10" t="n">
-        <v>7.582926286886504e-08</v>
+        <v>0.0004709229397121817</v>
       </c>
       <c r="EE10" t="n">
-        <v>3.653030944406055e-08</v>
+        <v>0.0004290298093110323</v>
       </c>
       <c r="EF10" t="n">
-        <v>6.442301980769116e-08</v>
+        <v>0.002921260893344879</v>
       </c>
       <c r="EG10" t="n">
-        <v>5.588880469531432e-08</v>
+        <v>0.008258775807917118</v>
       </c>
       <c r="EH10" t="n">
-        <v>6.141355157751605e-08</v>
+        <v>0.002644602907821536</v>
       </c>
       <c r="EI10" t="n">
-        <v>2.054310357380018e-07</v>
+        <v>0.0020984155125916</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.85506749517117e-07</v>
+        <v>0.001140288659371436</v>
       </c>
       <c r="EK10" t="n">
-        <v>1.59812415745364e-07</v>
+        <v>0.0006714083719998598</v>
       </c>
       <c r="EL10" t="n">
-        <v>4.566219047319464e-08</v>
+        <v>0.0006130038527771831</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.758333478818486e-09</v>
+        <v>0.0009863524464890361</v>
       </c>
       <c r="EN10" t="n">
-        <v>4.155589294896345e-08</v>
+        <v>0.001086289645172656</v>
       </c>
       <c r="EO10" t="n">
-        <v>2.300784842645953e-07</v>
+        <v>0.002916774246841669</v>
       </c>
       <c r="EP10" t="n">
-        <v>2.483940590991551e-07</v>
+        <v>0.006556634791195393</v>
       </c>
       <c r="EQ10" t="n">
-        <v>2.440958155602857e-07</v>
+        <v>0.002716815331950784</v>
       </c>
       <c r="ER10" t="n">
-        <v>8.870640044733591e-08</v>
+        <v>0.004396701697260141</v>
       </c>
       <c r="ES10" t="n">
-        <v>5.590410978584259e-08</v>
+        <v>0.006253323517739773</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.591956646507242e-07</v>
+        <v>0.008390545845031738</v>
       </c>
       <c r="EU10" t="n">
-        <v>4.606563130948871e-09</v>
+        <v>0.003063087584450841</v>
       </c>
       <c r="EV10" t="n">
-        <v>6.825204224014669e-08</v>
+        <v>0.002758678514510393</v>
       </c>
       <c r="EW10" t="n">
-        <v>5.705146577383857e-09</v>
+        <v>0.001868155668489635</v>
       </c>
       <c r="EX10" t="n">
-        <v>4.150084365051043e-08</v>
+        <v>0.002068412490189075</v>
       </c>
       <c r="EY10" t="n">
-        <v>5.143645509519956e-10</v>
+        <v>0.008508332073688507</v>
       </c>
       <c r="EZ10" t="n">
-        <v>6.516040684800828e-08</v>
+        <v>0.0003861411823891103</v>
       </c>
       <c r="FA10" t="n">
-        <v>1.280108392620605e-07</v>
+        <v>0.001250198460184038</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.308697505919554e-07</v>
+        <v>0.002925064414739609</v>
       </c>
       <c r="FC10" t="n">
-        <v>2.490351747042041e-08</v>
+        <v>0.002332105534151196</v>
       </c>
       <c r="FD10" t="n">
-        <v>2.383376163095363e-08</v>
+        <v>0.001661451533436775</v>
       </c>
       <c r="FE10" t="n">
-        <v>4.70573233712912e-08</v>
+        <v>0.0001204178988700733</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.604851185277312e-08</v>
+        <v>0.0009434670209884644</v>
       </c>
       <c r="FG10" t="n">
-        <v>2.034885255852714e-07</v>
+        <v>0.003271860536187887</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.238993121432941e-07</v>
+        <v>0.002956032287329435</v>
       </c>
       <c r="FI10" t="n">
-        <v>2.740884781360364e-07</v>
+        <v>0.0002845377312041819</v>
       </c>
       <c r="FJ10" t="n">
-        <v>1.038944787978835e-07</v>
+        <v>0.00294953235425055</v>
       </c>
       <c r="FK10" t="n">
-        <v>9.989021165779377e-09</v>
+        <v>0.00428975373506546</v>
       </c>
       <c r="FL10" t="n">
-        <v>2.743911124980514e-07</v>
+        <v>0.0004031342105008662</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.100414976917818e-07</v>
+        <v>0.001651472528465092</v>
       </c>
       <c r="FN10" t="n">
-        <v>6.192436785568134e-08</v>
+        <v>0.0006839048583060503</v>
       </c>
       <c r="FO10" t="n">
-        <v>1.386215870979868e-07</v>
+        <v>0.001837309915572405</v>
       </c>
       <c r="FP10" t="n">
-        <v>9.528563538196977e-08</v>
+        <v>0.001716176979243755</v>
       </c>
       <c r="FQ10" t="n">
-        <v>1.107049527604431e-07</v>
+        <v>0.006142753642052412</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.823611626150523e-07</v>
+        <v>0.001189705450087786</v>
       </c>
       <c r="FS10" t="n">
-        <v>2.470307549629069e-07</v>
+        <v>0.007347163744270802</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.23109231253693e-07</v>
+        <v>0.007010029628872871</v>
       </c>
       <c r="FU10" t="n">
-        <v>2.437157604617823e-07</v>
+        <v>0.001439493964426219</v>
       </c>
       <c r="FV10" t="n">
-        <v>6.581151268392205e-08</v>
+        <v>0.00332227093167603</v>
       </c>
       <c r="FW10" t="n">
-        <v>5.713082629199562e-08</v>
+        <v>0.002699117176234722</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.627740005005762e-07</v>
+        <v>0.0006421773578040302</v>
       </c>
       <c r="FY10" t="n">
-        <v>2.854122094220202e-08</v>
+        <v>0.00578731345012784</v>
       </c>
       <c r="FZ10" t="n">
-        <v>3.643339709924476e-07</v>
+        <v>0.005749688483774662</v>
       </c>
       <c r="GA10" t="n">
-        <v>1.529870559124902e-07</v>
+        <v>0.001652746694162488</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.843255231255171e-07</v>
+        <v>0.0006809160695411265</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.845139507850035e-07</v>
+        <v>0.0008881638641469181</v>
       </c>
       <c r="GD10" t="n">
-        <v>1.393682964589971e-07</v>
+        <v>0.004556110594421625</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.209100375376693e-08</v>
+        <v>0.00790958758443594</v>
       </c>
       <c r="GF10" t="n">
-        <v>9.024105906974e-08</v>
+        <v>0.002882032888010144</v>
       </c>
       <c r="GG10" t="n">
-        <v>4.318837909522699e-08</v>
+        <v>0.001459401100873947</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.287464783672476e-06</v>
+        <v>0.0009823718573898077</v>
       </c>
       <c r="B11" t="n">
-        <v>6.511249011964537e-06</v>
+        <v>0.04466086998581886</v>
       </c>
       <c r="C11" t="n">
-        <v>2.801587015710538e-07</v>
+        <v>0.003515479387715459</v>
       </c>
       <c r="D11" t="n">
-        <v>7.726586773060262e-06</v>
+        <v>0.01644807867705822</v>
       </c>
       <c r="E11" t="n">
-        <v>9.248527703675791e-07</v>
+        <v>0.006263350136578083</v>
       </c>
       <c r="F11" t="n">
-        <v>1.149354744711673e-08</v>
+        <v>0.03475905954837799</v>
       </c>
       <c r="G11" t="n">
-        <v>2.479835075064329e-07</v>
+        <v>0.002283141249790788</v>
       </c>
       <c r="H11" t="n">
-        <v>9.047512889992504e-07</v>
+        <v>0.01843822933733463</v>
       </c>
       <c r="I11" t="n">
-        <v>5.616203679892351e-08</v>
+        <v>0.002263189293444157</v>
       </c>
       <c r="J11" t="n">
-        <v>3.04003009432563e-07</v>
+        <v>0.006616956554353237</v>
       </c>
       <c r="K11" t="n">
-        <v>5.935026365477825e-06</v>
+        <v>0.03915110975503922</v>
       </c>
       <c r="L11" t="n">
-        <v>7.478920451831073e-07</v>
+        <v>0.001258694566786289</v>
       </c>
       <c r="M11" t="n">
-        <v>7.377600923064165e-06</v>
+        <v>0.01190534140914679</v>
       </c>
       <c r="N11" t="n">
-        <v>2.012356389968772e-06</v>
+        <v>0.0003792187198996544</v>
       </c>
       <c r="O11" t="n">
-        <v>1.085813551071624e-06</v>
+        <v>0.03119133040308952</v>
       </c>
       <c r="P11" t="n">
-        <v>2.067754394374788e-07</v>
+        <v>0.002758806105703115</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.066495312647021e-07</v>
+        <v>0.004020505119115114</v>
       </c>
       <c r="R11" t="n">
-        <v>1.105557430491899e-06</v>
+        <v>0.00460001127794385</v>
       </c>
       <c r="S11" t="n">
-        <v>4.205512027510849e-07</v>
+        <v>0.001912339124828577</v>
       </c>
       <c r="T11" t="n">
-        <v>5.56603424683999e-07</v>
+        <v>0.003043489996343851</v>
       </c>
       <c r="U11" t="n">
-        <v>7.03739601704001e-07</v>
+        <v>0.0009830155177041888</v>
       </c>
       <c r="V11" t="n">
-        <v>4.690815558205941e-07</v>
+        <v>0.004693375434726477</v>
       </c>
       <c r="W11" t="n">
-        <v>5.344687906472245e-06</v>
+        <v>0.009142655879259109</v>
       </c>
       <c r="X11" t="n">
-        <v>5.456189455799176e-07</v>
+        <v>0.003707782365381718</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.975653145171236e-07</v>
+        <v>0.003497312776744366</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.173025563934061e-07</v>
+        <v>0.00523864571005106</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.573024969227845e-07</v>
+        <v>0.005036837421357632</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.241180143551901e-06</v>
+        <v>0.0001130395103245974</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.353004222437448e-06</v>
+        <v>0.003523677820339799</v>
       </c>
       <c r="AD11" t="n">
-        <v>4.964075515090371e-07</v>
+        <v>0.0004223575233481824</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.810385694829165e-06</v>
+        <v>0.001105326926335692</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.292976830631233e-07</v>
+        <v>0.003496297169476748</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.263910444838984e-08</v>
+        <v>0.001855561044067144</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.682681820777361e-07</v>
+        <v>0.001411704579368234</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.284561873011626e-07</v>
+        <v>0.002044110093265772</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2.855777267996018e-07</v>
+        <v>0.0006429433124139905</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.039683977272944e-06</v>
+        <v>0.00596765847876668</v>
       </c>
       <c r="AL11" t="n">
-        <v>3.90596824217937e-07</v>
+        <v>0.005545796826481819</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.039659072281211e-07</v>
+        <v>0.001322061172686517</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.054107656273118e-06</v>
+        <v>0.001864543068222702</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.256493305845652e-06</v>
+        <v>0.001718710642307997</v>
       </c>
       <c r="AP11" t="n">
-        <v>6.663887575086846e-07</v>
+        <v>0.008056217804551125</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.841422196477652e-07</v>
+        <v>0.001216088770888746</v>
       </c>
       <c r="AR11" t="n">
-        <v>5.196151846575958e-07</v>
+        <v>0.003753571771085262</v>
       </c>
       <c r="AS11" t="n">
-        <v>6.442652420446393e-07</v>
+        <v>0.003495347918942571</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.975002416860661e-06</v>
+        <v>0.002086298074573278</v>
       </c>
       <c r="AU11" t="n">
-        <v>4.62492425867822e-06</v>
+        <v>0.03035757504403591</v>
       </c>
       <c r="AV11" t="n">
-        <v>7.45021623060893e-07</v>
+        <v>0.000734990113414824</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.363467956456589e-06</v>
+        <v>0.004532956052571535</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.935177008112078e-07</v>
+        <v>3.991939593106508e-05</v>
       </c>
       <c r="AY11" t="n">
-        <v>5.554437620958197e-07</v>
+        <v>0.02076854929327965</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.565161142025318e-06</v>
+        <v>0.00649078655987978</v>
       </c>
       <c r="BA11" t="n">
-        <v>7.519781775044976e-08</v>
+        <v>0.004607755225151777</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.163369461210095e-06</v>
+        <v>0.005727990064769983</v>
       </c>
       <c r="BC11" t="n">
-        <v>2.018453670871168e-07</v>
+        <v>7.225223816931248e-05</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.617191401237505e-06</v>
+        <v>0.01438774541020393</v>
       </c>
       <c r="BE11" t="n">
-        <v>4.816484988623415e-09</v>
+        <v>0.0108901634812355</v>
       </c>
       <c r="BF11" t="n">
-        <v>2.9790362532367e-06</v>
+        <v>0.0002466526057105511</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.423189360139077e-06</v>
+        <v>0.005194114055484533</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.619258000573609e-06</v>
+        <v>0.01103658229112625</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.221245495093171e-06</v>
+        <v>0.004391963593661785</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1.62132721470698e-07</v>
+        <v>0.004375271964818239</v>
       </c>
       <c r="BK11" t="n">
-        <v>1.669701418904879e-06</v>
+        <v>0.003948495723307133</v>
       </c>
       <c r="BL11" t="n">
-        <v>3.239028387724829e-07</v>
+        <v>0.003926122095435858</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.843993231886998e-06</v>
+        <v>0.0127804446965456</v>
       </c>
       <c r="BN11" t="n">
-        <v>1.924320827129122e-07</v>
+        <v>0.003887517843395472</v>
       </c>
       <c r="BO11" t="n">
-        <v>2.09052473110205e-08</v>
+        <v>0.0005181536544114351</v>
       </c>
       <c r="BP11" t="n">
-        <v>6.22601135091827e-07</v>
+        <v>0.004428843501955271</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.236180764863093e-06</v>
+        <v>0.0008497723611071706</v>
       </c>
       <c r="BR11" t="n">
-        <v>2.786393622500327e-07</v>
+        <v>0.001201831735670567</v>
       </c>
       <c r="BS11" t="n">
-        <v>5.805653700008406e-07</v>
+        <v>0.003973053768277168</v>
       </c>
       <c r="BT11" t="n">
-        <v>2.220456565282802e-07</v>
+        <v>0.0006242255913093686</v>
       </c>
       <c r="BU11" t="n">
-        <v>2.630794369906653e-06</v>
+        <v>0.002530808327719569</v>
       </c>
       <c r="BV11" t="n">
-        <v>7.798298611305654e-07</v>
+        <v>0.01617548801004887</v>
       </c>
       <c r="BW11" t="n">
-        <v>8.128638455673354e-07</v>
+        <v>0.003381146350875497</v>
       </c>
       <c r="BX11" t="n">
-        <v>3.173143795720534e-06</v>
+        <v>0.003339724149554968</v>
       </c>
       <c r="BY11" t="n">
-        <v>2.813093487930018e-06</v>
+        <v>0.0009254695032723248</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2.482583738583344e-07</v>
+        <v>0.006808126345276833</v>
       </c>
       <c r="CA11" t="n">
-        <v>9.754808161233086e-07</v>
+        <v>0.0007109149009920657</v>
       </c>
       <c r="CB11" t="n">
-        <v>2.665805141077726e-07</v>
+        <v>0.002217743545770645</v>
       </c>
       <c r="CC11" t="n">
-        <v>9.854685458776657e-07</v>
+        <v>0.004320446867495775</v>
       </c>
       <c r="CD11" t="n">
-        <v>1.141181996899832e-06</v>
+        <v>5.40488981641829e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>1.783223979145987e-06</v>
+        <v>0.006603694520890713</v>
       </c>
       <c r="CF11" t="n">
-        <v>2.459312042901729e-07</v>
+        <v>0.003557434305548668</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.441421090930817e-06</v>
+        <v>0.002977576572448015</v>
       </c>
       <c r="CH11" t="n">
-        <v>6.48144975912146e-07</v>
+        <v>0.0003191625291947275</v>
       </c>
       <c r="CI11" t="n">
-        <v>4.495339567256451e-07</v>
+        <v>0.00512135773897171</v>
       </c>
       <c r="CJ11" t="n">
-        <v>2.623475303664691e-08</v>
+        <v>0.003253479022532701</v>
       </c>
       <c r="CK11" t="n">
-        <v>4.041606871396652e-08</v>
+        <v>0.004226953722536564</v>
       </c>
       <c r="CL11" t="n">
-        <v>2.022654825850623e-07</v>
+        <v>0.003101442940533161</v>
       </c>
       <c r="CM11" t="n">
-        <v>5.050483764534874e-07</v>
+        <v>0.008167543448507786</v>
       </c>
       <c r="CN11" t="n">
-        <v>1.818703594835824e-06</v>
+        <v>0.006645416840910912</v>
       </c>
       <c r="CO11" t="n">
-        <v>2.167901698157948e-07</v>
+        <v>0.001045655459165573</v>
       </c>
       <c r="CP11" t="n">
-        <v>1.275189333682647e-06</v>
+        <v>0.007779540494084358</v>
       </c>
       <c r="CQ11" t="n">
-        <v>3.270973138569389e-06</v>
+        <v>0.004933440126478672</v>
       </c>
       <c r="CR11" t="n">
-        <v>2.478569967934163e-06</v>
+        <v>0.002085589338093996</v>
       </c>
       <c r="CS11" t="n">
-        <v>4.804567197425058e-07</v>
+        <v>0.006693204864859581</v>
       </c>
       <c r="CT11" t="n">
-        <v>9.123914992414939e-07</v>
+        <v>0.006942763924598694</v>
       </c>
       <c r="CU11" t="n">
-        <v>3.558414505278051e-07</v>
+        <v>0.000555308535695076</v>
       </c>
       <c r="CV11" t="n">
-        <v>1.167602363238984e-06</v>
+        <v>0.0002060069818980992</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.985468998100259e-06</v>
+        <v>0.005410604644566774</v>
       </c>
       <c r="CX11" t="n">
-        <v>1.443739794382282e-08</v>
+        <v>0.00349327689036727</v>
       </c>
       <c r="CY11" t="n">
-        <v>1.474940177104145e-06</v>
+        <v>0.004688424523919821</v>
       </c>
       <c r="CZ11" t="n">
-        <v>6.208767899806844e-07</v>
+        <v>0.001160304993391037</v>
       </c>
       <c r="DA11" t="n">
-        <v>2.640052230162837e-07</v>
+        <v>0.004861917346715927</v>
       </c>
       <c r="DB11" t="n">
-        <v>4.093949712569156e-08</v>
+        <v>0.002859982894733548</v>
       </c>
       <c r="DC11" t="n">
-        <v>2.280812481103567e-07</v>
+        <v>0.006180346012115479</v>
       </c>
       <c r="DD11" t="n">
-        <v>2.759538801910821e-07</v>
+        <v>0.001466575893573463</v>
       </c>
       <c r="DE11" t="n">
-        <v>1.95728807739215e-06</v>
+        <v>0.003310577245429158</v>
       </c>
       <c r="DF11" t="n">
-        <v>2.333067413928802e-06</v>
+        <v>0.005637920461595058</v>
       </c>
       <c r="DG11" t="n">
-        <v>3.342379386594985e-07</v>
+        <v>0.001313480781391263</v>
       </c>
       <c r="DH11" t="n">
-        <v>1.446763690182706e-06</v>
+        <v>0.01962032727897167</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.504735564594739e-06</v>
+        <v>0.008208285085856915</v>
       </c>
       <c r="DJ11" t="n">
-        <v>7.591312964905228e-07</v>
+        <v>0.006286503747105598</v>
       </c>
       <c r="DK11" t="n">
-        <v>6.346513714561297e-07</v>
+        <v>0.008093620650470257</v>
       </c>
       <c r="DL11" t="n">
-        <v>2.213005700468784e-06</v>
+        <v>0.009938947856426239</v>
       </c>
       <c r="DM11" t="n">
-        <v>2.070771643047919e-08</v>
+        <v>0.01025056652724743</v>
       </c>
       <c r="DN11" t="n">
-        <v>1.005738340609241e-06</v>
+        <v>0.0001910746941575781</v>
       </c>
       <c r="DO11" t="n">
-        <v>2.800731238039589e-07</v>
+        <v>0.002117140684276819</v>
       </c>
       <c r="DP11" t="n">
-        <v>2.506340308627841e-07</v>
+        <v>0.004174238070845604</v>
       </c>
       <c r="DQ11" t="n">
-        <v>1.964896227946156e-07</v>
+        <v>0.001257563126273453</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.211267203871103e-06</v>
+        <v>0.003344160970300436</v>
       </c>
       <c r="DS11" t="n">
-        <v>7.843386384820406e-08</v>
+        <v>0.002075479831546545</v>
       </c>
       <c r="DT11" t="n">
-        <v>3.442941647335829e-07</v>
+        <v>0.0009673734311945736</v>
       </c>
       <c r="DU11" t="n">
-        <v>5.16507725478732e-07</v>
+        <v>0.001238440629094839</v>
       </c>
       <c r="DV11" t="n">
-        <v>1.122079197557468e-06</v>
+        <v>0.0004872388672083616</v>
       </c>
       <c r="DW11" t="n">
-        <v>5.749784577346873e-07</v>
+        <v>0.0002931717317551374</v>
       </c>
       <c r="DX11" t="n">
-        <v>1.177219019155018e-06</v>
+        <v>0.000225450232392177</v>
       </c>
       <c r="DY11" t="n">
-        <v>9.314936733062495e-07</v>
+        <v>0.001079966546967626</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.398486460857384e-06</v>
+        <v>0.0007088547572493553</v>
       </c>
       <c r="EA11" t="n">
-        <v>4.112875444661768e-07</v>
+        <v>0.0003521800972521305</v>
       </c>
       <c r="EB11" t="n">
-        <v>3.571636852939264e-07</v>
+        <v>0.002224750118330121</v>
       </c>
       <c r="EC11" t="n">
-        <v>4.125026578094548e-07</v>
+        <v>0.000665773986838758</v>
       </c>
       <c r="ED11" t="n">
-        <v>3.665505801109248e-07</v>
+        <v>0.0002135788090527058</v>
       </c>
       <c r="EE11" t="n">
-        <v>6.143660584712052e-07</v>
+        <v>0.005163223948329687</v>
       </c>
       <c r="EF11" t="n">
-        <v>2.026163429036387e-06</v>
+        <v>0.001094036735594273</v>
       </c>
       <c r="EG11" t="n">
-        <v>2.110119567078073e-06</v>
+        <v>0.005355942063033581</v>
       </c>
       <c r="EH11" t="n">
-        <v>3.174265827965428e-07</v>
+        <v>0.002468867460265756</v>
       </c>
       <c r="EI11" t="n">
-        <v>1.874857844086364e-06</v>
+        <v>0.001412643701769412</v>
       </c>
       <c r="EJ11" t="n">
-        <v>1.173663918052625e-06</v>
+        <v>0.00145775789860636</v>
       </c>
       <c r="EK11" t="n">
-        <v>4.3894834789171e-07</v>
+        <v>0.002575784688815475</v>
       </c>
       <c r="EL11" t="n">
-        <v>1.78162906649959e-08</v>
+        <v>0.002928935922682285</v>
       </c>
       <c r="EM11" t="n">
-        <v>5.061284724661164e-08</v>
+        <v>0.001945028081536293</v>
       </c>
       <c r="EN11" t="n">
-        <v>7.225361855489609e-07</v>
+        <v>0.0009623387013562024</v>
       </c>
       <c r="EO11" t="n">
-        <v>1.113280177378329e-06</v>
+        <v>0.001557738287374377</v>
       </c>
       <c r="EP11" t="n">
-        <v>1.100342387871933e-06</v>
+        <v>0.002198531292378902</v>
       </c>
       <c r="EQ11" t="n">
-        <v>7.014829179752269e-07</v>
+        <v>0.00331405270844698</v>
       </c>
       <c r="ER11" t="n">
-        <v>1.438877745840728e-07</v>
+        <v>0.003633967600762844</v>
       </c>
       <c r="ES11" t="n">
-        <v>1.228776454809122e-06</v>
+        <v>0.00135824887547642</v>
       </c>
       <c r="ET11" t="n">
-        <v>7.461726170276961e-08</v>
+        <v>0.00493323989212513</v>
       </c>
       <c r="EU11" t="n">
-        <v>4.63494529867603e-07</v>
+        <v>0.005013062618672848</v>
       </c>
       <c r="EV11" t="n">
-        <v>6.737619173691201e-07</v>
+        <v>0.01322829909622669</v>
       </c>
       <c r="EW11" t="n">
-        <v>9.334266906080302e-07</v>
+        <v>3.510297392494977e-05</v>
       </c>
       <c r="EX11" t="n">
-        <v>9.303176966568572e-07</v>
+        <v>0.0005668324884027243</v>
       </c>
       <c r="EY11" t="n">
-        <v>1.611596076145361e-06</v>
+        <v>0.004747451283037663</v>
       </c>
       <c r="EZ11" t="n">
-        <v>2.206185811814976e-08</v>
+        <v>0.002301204949617386</v>
       </c>
       <c r="FA11" t="n">
-        <v>1.425273580935027e-06</v>
+        <v>0.00306744291447103</v>
       </c>
       <c r="FB11" t="n">
-        <v>9.915646614899742e-07</v>
+        <v>4.146393621340394e-05</v>
       </c>
       <c r="FC11" t="n">
-        <v>2.942013281881373e-07</v>
+        <v>0.004468474537134171</v>
       </c>
       <c r="FD11" t="n">
-        <v>2.773386142962408e-08</v>
+        <v>0.004804325290024281</v>
       </c>
       <c r="FE11" t="n">
-        <v>3.079406951655983e-09</v>
+        <v>0.005042115692049265</v>
       </c>
       <c r="FF11" t="n">
-        <v>1.40796529990439e-07</v>
+        <v>0.003057046793401241</v>
       </c>
       <c r="FG11" t="n">
-        <v>3.321530357425218e-07</v>
+        <v>0.0003483470936771482</v>
       </c>
       <c r="FH11" t="n">
-        <v>5.119328534419765e-07</v>
+        <v>0.002438662573695183</v>
       </c>
       <c r="FI11" t="n">
-        <v>2.875398763535486e-07</v>
+        <v>0.001241606893017888</v>
       </c>
       <c r="FJ11" t="n">
-        <v>2.07802031582105e-06</v>
+        <v>0.00736683513969183</v>
       </c>
       <c r="FK11" t="n">
-        <v>1.141513507718628e-06</v>
+        <v>0.001188969938084483</v>
       </c>
       <c r="FL11" t="n">
-        <v>1.135751062975032e-06</v>
+        <v>0.002782085444778204</v>
       </c>
       <c r="FM11" t="n">
-        <v>9.023621601045306e-07</v>
+        <v>0.003530731191858649</v>
       </c>
       <c r="FN11" t="n">
-        <v>6.196009394443536e-07</v>
+        <v>0.0005720630288124084</v>
       </c>
       <c r="FO11" t="n">
-        <v>1.518529415989178e-06</v>
+        <v>0.001734194927848876</v>
       </c>
       <c r="FP11" t="n">
-        <v>7.309753300432931e-07</v>
+        <v>0.00522454921156168</v>
       </c>
       <c r="FQ11" t="n">
-        <v>2.073542191283195e-07</v>
+        <v>0.005051069427281618</v>
       </c>
       <c r="FR11" t="n">
-        <v>9.191673484565399e-07</v>
+        <v>0.003885835176333785</v>
       </c>
       <c r="FS11" t="n">
-        <v>1.247962927664048e-06</v>
+        <v>0.001589900348335505</v>
       </c>
       <c r="FT11" t="n">
-        <v>1.724771436784067e-06</v>
+        <v>0.008662219159305096</v>
       </c>
       <c r="FU11" t="n">
-        <v>1.018334842228796e-06</v>
+        <v>0.00566277839243412</v>
       </c>
       <c r="FV11" t="n">
-        <v>4.227966030612151e-07</v>
+        <v>0.003989316523075104</v>
       </c>
       <c r="FW11" t="n">
-        <v>7.456131356775586e-07</v>
+        <v>0.001121761742979288</v>
       </c>
       <c r="FX11" t="n">
-        <v>6.74800048727775e-07</v>
+        <v>0.0002876194193959236</v>
       </c>
       <c r="FY11" t="n">
-        <v>1.044199507305166e-06</v>
+        <v>0.006718738004565239</v>
       </c>
       <c r="FZ11" t="n">
-        <v>5.551543154069805e-07</v>
+        <v>0.0008527797181159258</v>
       </c>
       <c r="GA11" t="n">
-        <v>1.166229480986658e-06</v>
+        <v>0.0008149947389028966</v>
       </c>
       <c r="GB11" t="n">
-        <v>1.516282054581097e-06</v>
+        <v>5.322194192558527e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>1.920336217153817e-06</v>
+        <v>0.003758735023438931</v>
       </c>
       <c r="GD11" t="n">
-        <v>1.410916183886002e-07</v>
+        <v>0.007052295841276646</v>
       </c>
       <c r="GE11" t="n">
-        <v>3.587933292692469e-07</v>
+        <v>0.0136449821293354</v>
       </c>
       <c r="GF11" t="n">
-        <v>9.201453394780401e-07</v>
+        <v>0.001493894262239337</v>
       </c>
       <c r="GG11" t="n">
-        <v>5.743224278376147e-07</v>
+        <v>8.581543806940317e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.965551537670308e-08</v>
+        <v>3.873959212796763e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>8.474870583086158e-08</v>
+        <v>0.0007118219509720802</v>
       </c>
       <c r="C12" t="n">
-        <v>2.978942781339811e-08</v>
+        <v>5.971807331661694e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>1.47310018405733e-07</v>
+        <v>0.0004599877574946731</v>
       </c>
       <c r="E12" t="n">
-        <v>1.00283010340263e-07</v>
+        <v>4.565145718515851e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>1.76619199265815e-08</v>
+        <v>5.702471025870182e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>1.20043042173279e-08</v>
+        <v>6.910783849889413e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>1.1133394650642e-07</v>
+        <v>8.333437290275469e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>2.92572499560606e-09</v>
+        <v>2.471804509696085e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.468452204278492e-08</v>
+        <v>9.718490764498711e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>7.572768367936078e-08</v>
+        <v>0.0005101463757455349</v>
       </c>
       <c r="L12" t="n">
-        <v>3.347319221802536e-08</v>
+        <v>1.619487011339515e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>1.501940118942002e-07</v>
+        <v>0.0004395788128022105</v>
       </c>
       <c r="N12" t="n">
-        <v>1.199859838152406e-07</v>
+        <v>0.0001750793162500486</v>
       </c>
       <c r="O12" t="n">
-        <v>2.692266498627305e-08</v>
+        <v>0.0001758097496349365</v>
       </c>
       <c r="P12" t="n">
-        <v>2.253694475484735e-08</v>
+        <v>1.953396349563263e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.14531260919648e-07</v>
+        <v>5.024394340580329e-05</v>
       </c>
       <c r="R12" t="n">
-        <v>2.610180871442935e-08</v>
+        <v>4.91360951855313e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.043590325267019e-09</v>
+        <v>2.149976171494927e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>2.270460441877731e-08</v>
+        <v>0.0001207035529660061</v>
       </c>
       <c r="U12" t="n">
-        <v>1.358603096690558e-08</v>
+        <v>2.191200110246427e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>4.628675043250041e-08</v>
+        <v>6.397430115612224e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>7.790119838091414e-08</v>
+        <v>6.652876436419319e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>7.345061447949774e-09</v>
+        <v>6.888064672239125e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.217117873153484e-08</v>
+        <v>7.468694093404338e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.980454721386195e-08</v>
+        <v>4.291048026061617e-05</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.592921683446491e-09</v>
+        <v>5.530458292923868e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>3.5020796929075e-08</v>
+        <v>6.32398878224194e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.023396726893225e-09</v>
+        <v>0.0001458090700907633</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.33588224318737e-08</v>
+        <v>1.634678255868494e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>4.975962042408355e-08</v>
+        <v>1.110747507482301e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.809124488578618e-09</v>
+        <v>2.945929372799583e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.224074797079311e-08</v>
+        <v>9.996401786338538e-06</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.861277354464619e-08</v>
+        <v>3.094286512350664e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.360907735976525e-08</v>
+        <v>9.078790753846988e-06</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.274409519197889e-09</v>
+        <v>7.055800324451411e-06</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.696181932217769e-08</v>
+        <v>4.054068267578259e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.825807640278072e-09</v>
+        <v>6.459847645601258e-05</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.176522701484828e-08</v>
+        <v>1.924228672578465e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.162770058016349e-08</v>
+        <v>1.823973434511572e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.272867215604492e-08</v>
+        <v>7.9302531958092e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>4.807748510415877e-08</v>
+        <v>7.647562597412616e-05</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9.442777226809085e-09</v>
+        <v>3.141092747682706e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>7.796092660328213e-09</v>
+        <v>4.201558840577491e-05</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.660395015396944e-09</v>
+        <v>2.058525933534838e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>6.908865657351271e-08</v>
+        <v>6.078987280488946e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>4.601201908371877e-08</v>
+        <v>0.0005009315791539848</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.58438576597564e-08</v>
+        <v>9.42764017963782e-06</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.352217975953863e-08</v>
+        <v>0.000102168633020483</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.593018587684128e-08</v>
+        <v>2.00393969862489e-05</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.812061789507879e-08</v>
+        <v>3.649305654107593e-06</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.055587700056094e-09</v>
+        <v>1.371123835269827e-05</v>
       </c>
       <c r="BA12" t="n">
-        <v>6.585076306464543e-08</v>
+        <v>5.091380444355309e-06</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.22587273665431e-08</v>
+        <v>9.89046020549722e-06</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.16037295327942e-08</v>
+        <v>2.213493280578405e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.132142450430365e-08</v>
+        <v>0.0001407576346537098</v>
       </c>
       <c r="BE12" t="n">
-        <v>7.893213194165583e-09</v>
+        <v>0.0001261145953321829</v>
       </c>
       <c r="BF12" t="n">
-        <v>6.6381375063429e-08</v>
+        <v>9.36411670409143e-05</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.819974120882307e-08</v>
+        <v>0.0001861139753600582</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.865821002728808e-08</v>
+        <v>3.422314330236986e-05</v>
       </c>
       <c r="BI12" t="n">
-        <v>9.229590425263723e-09</v>
+        <v>8.042803528951481e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>6.665410001716054e-09</v>
+        <v>6.400972051778808e-05</v>
       </c>
       <c r="BK12" t="n">
-        <v>3.059982045527931e-09</v>
+        <v>4.481031282921322e-05</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.857538567406891e-09</v>
+        <v>9.671056614024565e-05</v>
       </c>
       <c r="BM12" t="n">
-        <v>5.438616668129725e-08</v>
+        <v>0.0001215472948388197</v>
       </c>
       <c r="BN12" t="n">
-        <v>3.67991259686562e-09</v>
+        <v>7.281135185621679e-05</v>
       </c>
       <c r="BO12" t="n">
-        <v>3.988666108512007e-08</v>
+        <v>1.367211461911211e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>3.438447393477873e-08</v>
+        <v>6.427298649214208e-05</v>
       </c>
       <c r="BQ12" t="n">
-        <v>2.341728588817205e-09</v>
+        <v>4.568270378513262e-05</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.663303628163249e-08</v>
+        <v>1.133208661485696e-05</v>
       </c>
       <c r="BS12" t="n">
-        <v>2.689711031678144e-08</v>
+        <v>3.611421561799943e-06</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.790567694115452e-11</v>
+        <v>1.70977546076756e-05</v>
       </c>
       <c r="BU12" t="n">
-        <v>5.503767752657041e-08</v>
+        <v>4.957635974278674e-05</v>
       </c>
       <c r="BV12" t="n">
-        <v>6.261431373388859e-10</v>
+        <v>0.0002524876035749912</v>
       </c>
       <c r="BW12" t="n">
-        <v>5.551365589440138e-09</v>
+        <v>5.819808211526833e-05</v>
       </c>
       <c r="BX12" t="n">
-        <v>8.386423644424212e-08</v>
+        <v>7.326243940042332e-05</v>
       </c>
       <c r="BY12" t="n">
-        <v>4.043598522684988e-08</v>
+        <v>3.102574919466861e-05</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4.211850779256565e-08</v>
+        <v>6.979708268772811e-05</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.511251923602686e-08</v>
+        <v>2.81898828689009e-05</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.757771788708396e-08</v>
+        <v>3.081358954659663e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>2.446547497925167e-08</v>
+        <v>4.705345054389909e-05</v>
       </c>
       <c r="CD12" t="n">
-        <v>2.559780476474316e-08</v>
+        <v>2.950973066617735e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>2.020223988097314e-08</v>
+        <v>0.0001236946845892817</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.279857286817787e-08</v>
+        <v>4.068862108397298e-05</v>
       </c>
       <c r="CG12" t="n">
-        <v>2.97541262739287e-08</v>
+        <v>3.958558590966277e-05</v>
       </c>
       <c r="CH12" t="n">
-        <v>3.873599041526177e-08</v>
+        <v>3.569812906789593e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.01135828600718e-08</v>
+        <v>7.476319751731353e-06</v>
       </c>
       <c r="CJ12" t="n">
-        <v>6.376917660588788e-09</v>
+        <v>2.461455551383551e-05</v>
       </c>
       <c r="CK12" t="n">
-        <v>2.784536512479008e-08</v>
+        <v>1.386396434099879e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>9.810508849739108e-09</v>
+        <v>2.082173523376696e-05</v>
       </c>
       <c r="CM12" t="n">
-        <v>3.866797548823797e-09</v>
+        <v>0.0001346478093182668</v>
       </c>
       <c r="CN12" t="n">
-        <v>3.781356738841168e-08</v>
+        <v>8.470241300528869e-05</v>
       </c>
       <c r="CO12" t="n">
-        <v>9.225045616290117e-09</v>
+        <v>3.88189364457503e-05</v>
       </c>
       <c r="CP12" t="n">
-        <v>5.234569044887394e-08</v>
+        <v>0.0001340863527730107</v>
       </c>
       <c r="CQ12" t="n">
-        <v>2.072493998639402e-08</v>
+        <v>5.809570575365797e-05</v>
       </c>
       <c r="CR12" t="n">
-        <v>6.770630989194615e-08</v>
+        <v>9.780182153917849e-05</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.582494491003672e-08</v>
+        <v>8.547035395167768e-05</v>
       </c>
       <c r="CT12" t="n">
-        <v>3.676434445765153e-08</v>
+        <v>0.0001456870813854039</v>
       </c>
       <c r="CU12" t="n">
-        <v>7.396485202093572e-09</v>
+        <v>2.098981894960161e-06</v>
       </c>
       <c r="CV12" t="n">
-        <v>2.838234713919974e-08</v>
+        <v>2.937770477728918e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>2.972199553141763e-08</v>
+        <v>9.943743498297408e-05</v>
       </c>
       <c r="CX12" t="n">
-        <v>2.58624011095776e-09</v>
+        <v>5.602520104730502e-05</v>
       </c>
       <c r="CY12" t="n">
-        <v>2.29612275859381e-08</v>
+        <v>7.03231489751488e-05</v>
       </c>
       <c r="CZ12" t="n">
-        <v>3.160563366577662e-08</v>
+        <v>4.277424886822701e-05</v>
       </c>
       <c r="DA12" t="n">
-        <v>3.577051099767914e-09</v>
+        <v>1.497363336966373e-05</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.137819616303659e-09</v>
+        <v>2.457107439113315e-05</v>
       </c>
       <c r="DC12" t="n">
-        <v>3.024872441415027e-08</v>
+        <v>2.259800021420233e-05</v>
       </c>
       <c r="DD12" t="n">
-        <v>1.266255633680657e-08</v>
+        <v>9.058662726602051e-06</v>
       </c>
       <c r="DE12" t="n">
-        <v>8.978172871820789e-08</v>
+        <v>3.719333108165301e-05</v>
       </c>
       <c r="DF12" t="n">
-        <v>7.104689814241283e-08</v>
+        <v>0.0001248469343408942</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.442264441209318e-08</v>
+        <v>1.214786607306451e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>1.100189273017804e-09</v>
+        <v>0.0001698613341432065</v>
       </c>
       <c r="DI12" t="n">
-        <v>6.747683301000507e-09</v>
+        <v>2.099773155350704e-06</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.317945219625472e-08</v>
+        <v>3.869740612572059e-05</v>
       </c>
       <c r="DK12" t="n">
-        <v>3.285083849391413e-08</v>
+        <v>8.65921174408868e-05</v>
       </c>
       <c r="DL12" t="n">
-        <v>9.102110709591216e-08</v>
+        <v>3.157453465973958e-05</v>
       </c>
       <c r="DM12" t="n">
-        <v>8.48342551762471e-09</v>
+        <v>5.574322130996734e-06</v>
       </c>
       <c r="DN12" t="n">
-        <v>4.800218000866607e-09</v>
+        <v>5.028459054301493e-05</v>
       </c>
       <c r="DO12" t="n">
-        <v>6.694030219023261e-09</v>
+        <v>4.021386848762631e-05</v>
       </c>
       <c r="DP12" t="n">
-        <v>8.321284994394773e-09</v>
+        <v>6.01084393565543e-05</v>
       </c>
       <c r="DQ12" t="n">
-        <v>3.258477931922243e-08</v>
+        <v>9.104107448365539e-06</v>
       </c>
       <c r="DR12" t="n">
-        <v>2.362809325973103e-08</v>
+        <v>8.382355736102909e-05</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.354918488516432e-08</v>
+        <v>5.752580545959063e-05</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.871978128065166e-08</v>
+        <v>4.842589987674728e-06</v>
       </c>
       <c r="DU12" t="n">
-        <v>8.607454304865314e-09</v>
+        <v>2.449860221531708e-05</v>
       </c>
       <c r="DV12" t="n">
-        <v>2.826460487881377e-08</v>
+        <v>4.078926940564997e-05</v>
       </c>
       <c r="DW12" t="n">
-        <v>3.227967226848705e-09</v>
+        <v>1.812278696888825e-06</v>
       </c>
       <c r="DX12" t="n">
-        <v>5.665043989466767e-09</v>
+        <v>3.420856955926865e-05</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.649616265808618e-08</v>
+        <v>6.609357660636306e-05</v>
       </c>
       <c r="DZ12" t="n">
-        <v>2.578965485611207e-08</v>
+        <v>7.299349817913026e-07</v>
       </c>
       <c r="EA12" t="n">
-        <v>7.828329984249649e-09</v>
+        <v>7.451794226653874e-05</v>
       </c>
       <c r="EB12" t="n">
-        <v>7.221652165156911e-09</v>
+        <v>1.909321872517467e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>1.541458871656687e-08</v>
+        <v>2.477715861459728e-05</v>
       </c>
       <c r="ED12" t="n">
-        <v>1.019386441925008e-08</v>
+        <v>7.931708751129918e-06</v>
       </c>
       <c r="EE12" t="n">
-        <v>2.407917421010097e-08</v>
+        <v>1.145937312685419e-05</v>
       </c>
       <c r="EF12" t="n">
-        <v>3.988191110693151e-08</v>
+        <v>1.216958662553225e-05</v>
       </c>
       <c r="EG12" t="n">
-        <v>1.096130652911143e-08</v>
+        <v>6.153702997835353e-05</v>
       </c>
       <c r="EH12" t="n">
-        <v>9.442432613582241e-09</v>
+        <v>3.604670200729743e-05</v>
       </c>
       <c r="EI12" t="n">
-        <v>3.748112575863161e-08</v>
+        <v>6.688517169095576e-05</v>
       </c>
       <c r="EJ12" t="n">
-        <v>6.98556812395168e-09</v>
+        <v>4.127605279791169e-05</v>
       </c>
       <c r="EK12" t="n">
-        <v>2.651217911875392e-09</v>
+        <v>2.36013420362724e-05</v>
       </c>
       <c r="EL12" t="n">
-        <v>4.266674569208817e-09</v>
+        <v>2.540509558457416e-05</v>
       </c>
       <c r="EM12" t="n">
-        <v>3.364672807038005e-08</v>
+        <v>5.662238436343614e-06</v>
       </c>
       <c r="EN12" t="n">
-        <v>3.641559720435339e-09</v>
+        <v>9.763225534697995e-06</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.199855947930928e-08</v>
+        <v>3.263403414166532e-05</v>
       </c>
       <c r="EP12" t="n">
-        <v>2.584036984387694e-08</v>
+        <v>9.07648864085786e-05</v>
       </c>
       <c r="EQ12" t="n">
-        <v>3.616687394014662e-09</v>
+        <v>3.967151496908627e-05</v>
       </c>
       <c r="ER12" t="n">
-        <v>2.042859215123372e-09</v>
+        <v>7.217001257231459e-05</v>
       </c>
       <c r="ES12" t="n">
-        <v>1.418514639084378e-08</v>
+        <v>3.84370687243063e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>8.560204101115687e-09</v>
+        <v>5.99610066274181e-05</v>
       </c>
       <c r="EU12" t="n">
-        <v>2.695957901366342e-09</v>
+        <v>6.962133193155751e-05</v>
       </c>
       <c r="EV12" t="n">
-        <v>9.173962922659484e-09</v>
+        <v>3.957704029744491e-05</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.055428011653703e-08</v>
+        <v>4.970577720087022e-06</v>
       </c>
       <c r="EX12" t="n">
-        <v>2.272776811196309e-08</v>
+        <v>1.051904837368056e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>2.252221875664873e-08</v>
+        <v>0.0001067225457518362</v>
       </c>
       <c r="EZ12" t="n">
-        <v>3.652976587886769e-09</v>
+        <v>3.521196413203143e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>1.929244497489435e-08</v>
+        <v>6.210704304976389e-05</v>
       </c>
       <c r="FB12" t="n">
-        <v>3.391091496496301e-08</v>
+        <v>2.893480632337742e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>5.858150853299549e-09</v>
+        <v>2.705023507587612e-05</v>
       </c>
       <c r="FD12" t="n">
-        <v>2.377228192074199e-09</v>
+        <v>3.501485480228439e-05</v>
       </c>
       <c r="FE12" t="n">
-        <v>2.380358665732274e-08</v>
+        <v>1.74809611053206e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>5.445117245983511e-09</v>
+        <v>2.272024539706763e-05</v>
       </c>
       <c r="FG12" t="n">
-        <v>4.359628036354479e-08</v>
+        <v>8.219893970817793e-06</v>
       </c>
       <c r="FH12" t="n">
-        <v>3.810455595498752e-08</v>
+        <v>2.262034831801429e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.9965988862225e-09</v>
+        <v>4.6534463763237e-05</v>
       </c>
       <c r="FJ12" t="n">
-        <v>6.219742054724975e-09</v>
+        <v>6.484537880169228e-05</v>
       </c>
       <c r="FK12" t="n">
-        <v>5.026954141840179e-08</v>
+        <v>4.4791118853027e-05</v>
       </c>
       <c r="FL12" t="n">
-        <v>5.274840475522069e-08</v>
+        <v>4.067455847689416e-06</v>
       </c>
       <c r="FM12" t="n">
-        <v>7.312027427985868e-09</v>
+        <v>1.085735311789904e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>4.298081179854307e-08</v>
+        <v>7.471420303772902e-06</v>
       </c>
       <c r="FO12" t="n">
-        <v>2.310568270047497e-08</v>
+        <v>1.531231464468874e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.878599320548346e-08</v>
+        <v>3.460812877165154e-05</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.622044365490183e-08</v>
+        <v>1.187929592560977e-05</v>
       </c>
       <c r="FR12" t="n">
-        <v>3.052062425012991e-08</v>
+        <v>5.148971104063094e-05</v>
       </c>
       <c r="FS12" t="n">
-        <v>4.053048030527862e-08</v>
+        <v>3.546383231878281e-05</v>
       </c>
       <c r="FT12" t="n">
-        <v>5.483739329292803e-08</v>
+        <v>3.313831621198915e-05</v>
       </c>
       <c r="FU12" t="n">
-        <v>1.759915058130446e-08</v>
+        <v>1.205833632411668e-05</v>
       </c>
       <c r="FV12" t="n">
-        <v>1.871982391321581e-08</v>
+        <v>3.241961530875415e-05</v>
       </c>
       <c r="FW12" t="n">
-        <v>3.885490684751858e-08</v>
+        <v>1.033296939567663e-05</v>
       </c>
       <c r="FX12" t="n">
-        <v>8.032349896325286e-09</v>
+        <v>1.847130624810234e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>2.84659282812072e-08</v>
+        <v>9.728159784572199e-05</v>
       </c>
       <c r="FZ12" t="n">
-        <v>6.686792630716809e-08</v>
+        <v>3.148427276755683e-05</v>
       </c>
       <c r="GA12" t="n">
-        <v>4.953761845172266e-09</v>
+        <v>5.185292593523627e-06</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.675990013438877e-08</v>
+        <v>1.556001370772719e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>2.998648440666329e-08</v>
+        <v>1.88202247954905e-05</v>
       </c>
       <c r="GD12" t="n">
-        <v>2.257098508096078e-09</v>
+        <v>9.558454621583223e-05</v>
       </c>
       <c r="GE12" t="n">
-        <v>1.130881699396014e-08</v>
+        <v>0.0001638650282984599</v>
       </c>
       <c r="GF12" t="n">
-        <v>2.755704109347334e-08</v>
+        <v>2.532869984861463e-05</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.656944803585247e-08</v>
+        <v>1.670361780270468e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0004433350404724479</v>
+        <v>0.003304256591945887</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01283629052340984</v>
+        <v>0.008225835859775543</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002728252671658993</v>
+        <v>0.0004422013298608363</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006134007126092911</v>
+        <v>0.007477168459445238</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001940561225637794</v>
+        <v>0.009568837471306324</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001353848958387971</v>
+        <v>0.01864826306700706</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002314755227416754</v>
+        <v>0.002930265385657549</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001781479688361287</v>
+        <v>0.01112681068480015</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001458241604268551</v>
+        <v>0.002195741981267929</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002438228344544768</v>
+        <v>0.0001651276834309101</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01533969212323427</v>
+        <v>0.008862252347171307</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001572111039422452</v>
+        <v>0.001996238483116031</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004655343480408192</v>
+        <v>0.003694410668686032</v>
       </c>
       <c r="N13" t="n">
-        <v>0.005293874070048332</v>
+        <v>0.004110649693757296</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003119062166661024</v>
+        <v>0.01560508087277412</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002619616687297821</v>
+        <v>0.0002667047083377838</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001829516608268023</v>
+        <v>0.009035287424921989</v>
       </c>
       <c r="R13" t="n">
-        <v>0.002624313812702894</v>
+        <v>0.0002038899692706764</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00176644092425704</v>
+        <v>0.001171492505818605</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001886136713437736</v>
+        <v>0.0004947331035509706</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001960835186764598</v>
+        <v>0.0002330886200070381</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0007007516687735915</v>
+        <v>0.001391091616824269</v>
       </c>
       <c r="W13" t="n">
-        <v>0.004083875566720963</v>
+        <v>0.007266318891197443</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0008828595746308565</v>
+        <v>0.001941498485393822</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.003431534394621849</v>
+        <v>0.001617263187654316</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.002770512364804745</v>
+        <v>0.001465173554606736</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.001819512923248112</v>
+        <v>0.0003855509567074478</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.00124237488489598</v>
+        <v>0.0003190990537405014</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.003288305830210447</v>
+        <v>0.00109111936762929</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.00108152674511075</v>
+        <v>4.841561894863844e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.004101238679140806</v>
+        <v>0.00137886987067759</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0009639691561460495</v>
+        <v>0.001781675731763244</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.001033149193972349</v>
+        <v>0.0007609822205267847</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.002427587518468499</v>
+        <v>0.001429503434337676</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.398196951020509e-05</v>
+        <v>0.003024056553840637</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.00121623114682734</v>
+        <v>0.001078846747986972</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.002219970570877194</v>
+        <v>0.0001805320207495242</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0006889973301440477</v>
+        <v>0.001154858851805329</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0011856434866786</v>
+        <v>0.0007961951196193695</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0006906830822117627</v>
+        <v>0.0009187629912048578</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.002188733546063304</v>
+        <v>0.0003284183330833912</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0004964603576809168</v>
+        <v>0.001145041547715664</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0005905967555008829</v>
+        <v>0.0003517856821417809</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0006157722091302276</v>
+        <v>0.002327430993318558</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0008540507988072932</v>
+        <v>0.0003625077952165157</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.002389288507401943</v>
+        <v>0.001701844041235745</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.009308856911957264</v>
+        <v>0.001440476393327117</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.001591766253113747</v>
+        <v>0.0009349884930998087</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0009240256622433662</v>
+        <v>0.00772668793797493</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0008692417177371681</v>
+        <v>0.009823549538850784</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0005363185191527009</v>
+        <v>0.01096460036933422</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.004936381243169308</v>
+        <v>0.003878479823470116</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.003168952884152532</v>
+        <v>0.001829717890359461</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0007661014096811414</v>
+        <v>0.0005665664211846888</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.004599151667207479</v>
+        <v>0.003084840020164847</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.002082796301692724</v>
+        <v>0.003591655753552914</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0004928878042846918</v>
+        <v>0.001781991100870073</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.001929785124957561</v>
+        <v>0.003290998283773661</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.003535093506798148</v>
+        <v>0.0006095252465456724</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.001407700241543353</v>
+        <v>0.003168400377035141</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0001181525585707277</v>
+        <v>0.001653911545872688</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001071844133548439</v>
+        <v>0.004253380000591278</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.002621578751131892</v>
+        <v>0.0008579370332881808</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.004070260562002659</v>
+        <v>0.0003024544566869736</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0003335437504574656</v>
+        <v>0.0003621765645220876</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0003678739885799587</v>
+        <v>0.0006311036413535476</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.004332705866545439</v>
+        <v>0.005908272229135036</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001805974869057536</v>
+        <v>0.002940671052783728</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.00231056148186326</v>
+        <v>0.0003952481492888182</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.001987999072298408</v>
+        <v>0.0003086857032030821</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0004517791094258428</v>
+        <v>0.0044566560536623</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.001231071772053838</v>
+        <v>0.001176042482256889</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.001566418097354472</v>
+        <v>4.957639612257481e-05</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.003304597456008196</v>
+        <v>0.002456480637192726</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.002276777988299727</v>
+        <v>0.0003609325503930449</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.002367601962760091</v>
+        <v>0.005225180648267269</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.004785608965903521</v>
+        <v>0.004879103507846594</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0003342622658237815</v>
+        <v>0.008899452164769173</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.001083866343833506</v>
+        <v>0.002995043061673641</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0008814860484562814</v>
+        <v>0.0003092483384534717</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.00111016898881644</v>
+        <v>0.0009355922811664641</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0006079530576243997</v>
+        <v>0.0003215633041691035</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.00359295355156064</v>
+        <v>0.0004955071490257978</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0005748491967096925</v>
+        <v>0.0004875649465247989</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0004433862632140517</v>
+        <v>0.0004257078107912093</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.001031995285302401</v>
+        <v>0.002170945052057505</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.621833118610084e-05</v>
+        <v>0.00310239102691412</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0002508166071493179</v>
+        <v>0.001441081869415939</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0001037764159264043</v>
+        <v>0.002206332981586456</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0003828397311735898</v>
+        <v>6.508955266326666e-06</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.001563087687827647</v>
+        <v>0.0005040868418291211</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.004154795780777931</v>
+        <v>0.002767229685559869</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0009685916593298316</v>
+        <v>0.001248763757757843</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0001366098586004227</v>
+        <v>0.003559258300811052</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.00580096710473299</v>
+        <v>0.004691385664045811</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.002155495341867208</v>
+        <v>0.001801780425012112</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0002282114292029291</v>
+        <v>0.00301946559920907</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0003205020620953292</v>
+        <v>0.004325468093156815</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0002605469489935786</v>
+        <v>0.000419583055190742</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.001134598278440535</v>
+        <v>0.0003848850610665977</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.003130261553451419</v>
+        <v>0.0006217061309143901</v>
       </c>
       <c r="CX13" t="n">
-        <v>3.797624231083319e-05</v>
+        <v>0.0004068774287588894</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0005045145517215133</v>
+        <v>0.000356742471922189</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.001372557366266847</v>
+        <v>0.001797832548618317</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0001831171393860132</v>
+        <v>0.003340683877468109</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.000233296537771821</v>
+        <v>0.0007309416541829705</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0003878520801663399</v>
+        <v>0.001742503140121698</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0003573950380086899</v>
+        <v>0.0007676837267354131</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.001085420255549252</v>
+        <v>0.004154548980295658</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.00512419082224369</v>
+        <v>0.00167109677568078</v>
       </c>
       <c r="DG13" t="n">
-        <v>1.819559838622808e-05</v>
+        <v>0.000540147302672267</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.001297725364565849</v>
+        <v>0.008776279166340828</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.001076145214028656</v>
+        <v>0.001265867496840656</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0007293131202459335</v>
+        <v>0.001378917368128896</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.001630744896829128</v>
+        <v>0.003359625348821282</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.003097319509834051</v>
+        <v>0.001737899845466018</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0006238074856810272</v>
+        <v>0.002919677877798676</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.001288334489800036</v>
+        <v>0.002626290777698159</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.002815457992255688</v>
+        <v>0.001894570305012167</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0003217055345885456</v>
+        <v>0.0003210068389307708</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0001436659949831665</v>
+        <v>0.000793362851254642</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.001046724035404623</v>
+        <v>0.00239104381762445</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.002342491643503308</v>
+        <v>0.003749404335394502</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0001700864813756198</v>
+        <v>0.003430884797126055</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.003313421504572034</v>
+        <v>0.0007873704889789224</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.003878262126818299</v>
+        <v>0.001016385154798627</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001852775341831148</v>
+        <v>0.0003283055848442018</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0002017862279899418</v>
+        <v>0.002498681424185634</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0003917332505807281</v>
+        <v>0.001320286770351231</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.001019579125568271</v>
+        <v>0.002722640056163073</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.001357408938929439</v>
+        <v>0.003318168688565493</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.001893115928396583</v>
+        <v>0.002035726793110371</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0003319032839499414</v>
+        <v>0.001140853855758905</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0008103260188363492</v>
+        <v>0.001078030560165644</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.002299870364367962</v>
+        <v>0.001616742694750428</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.00142751494422555</v>
+        <v>0.0002798485802486539</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.002569744130596519</v>
+        <v>0.002145606558769941</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.003955559339374304</v>
+        <v>0.001217359094880521</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.002921071369200945</v>
+        <v>0.002481857547536492</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0003495302516967058</v>
+        <v>0.002132435794919729</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0004083282547071576</v>
+        <v>0.002741968492045999</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.00165252760052681</v>
+        <v>0.0004605466965585947</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0004751725355163217</v>
+        <v>0.00141018268186599</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.001081865048035979</v>
+        <v>0.0006559816538356245</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.001634073676541448</v>
+        <v>0.001692342455498874</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0002110140630975366</v>
+        <v>0.0002929114561993629</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.001265555387362838</v>
+        <v>0.0004470011917874217</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.005034662783145905</v>
+        <v>0.001147666713222861</v>
       </c>
       <c r="ES13" t="n">
-        <v>3.073859261348844e-06</v>
+        <v>0.00278529804199934</v>
       </c>
       <c r="ET13" t="n">
-        <v>7.25393183529377e-05</v>
+        <v>0.0003808563342317939</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0001311953528784215</v>
+        <v>0.0003848494088742882</v>
       </c>
       <c r="EV13" t="n">
-        <v>1.872549182735384e-05</v>
+        <v>0.007628145627677441</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.00155494106002152</v>
+        <v>0.001231290865689516</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.000857137085404247</v>
+        <v>0.0007784813642501831</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.003583652433007956</v>
+        <v>0.0007507812697440386</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0004417182062752545</v>
+        <v>0.0001284368336200714</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0006722725229337811</v>
+        <v>0.0006287219002842903</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.001285244128666818</v>
+        <v>0.002472428372129798</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.000164262906764634</v>
+        <v>0.002952511422336102</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0002986971230711788</v>
+        <v>0.001591120613738894</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0007560765370726585</v>
+        <v>0.00243644998408854</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0004636719822883606</v>
+        <v>0.0004456232709344476</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.00375310005620122</v>
+        <v>0.001917911460623145</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.004019150510430336</v>
+        <v>0.0002320393396075815</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.004018202889710665</v>
+        <v>0.0003803706495091319</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.003020908450707793</v>
+        <v>0.005398181732743979</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.001988979522138834</v>
+        <v>0.002452782588079572</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.001048077712766826</v>
+        <v>0.0001044059754349291</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.001903332304209471</v>
+        <v>0.0006523575866594911</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.001681486377492547</v>
+        <v>0.0008330760174430907</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.004443504847586155</v>
+        <v>0.0008909823372960091</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.001158916391432285</v>
+        <v>0.001558482879772782</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0007158817024901509</v>
+        <v>0.005943167489022017</v>
       </c>
       <c r="FR13" t="n">
-        <v>3.604625817388296e-06</v>
+        <v>0.001062605297192931</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.003021604614332318</v>
+        <v>0.001536511583253741</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.002639136975631118</v>
+        <v>0.01066538318991661</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.002414296381175518</v>
+        <v>0.00264659128151834</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0001819742610678077</v>
+        <v>0.003002924844622612</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.001126585993915796</v>
+        <v>0.00719540286809206</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0008972118375822902</v>
+        <v>0.002449315972626209</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0003621670184656978</v>
+        <v>0.001828416949138045</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.001484709093347192</v>
+        <v>0.002778585534542799</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0005979666020721197</v>
+        <v>0.000491214741487056</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0004932042211294174</v>
+        <v>0.001814607880078256</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0002402206882834435</v>
+        <v>0.003830120898783207</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0009782464476302266</v>
+        <v>0.0001583174453116953</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.003207566449418664</v>
+        <v>0.002892931457608938</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.001714641810394824</v>
+        <v>0.002199415117502213</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.00219479133374989</v>
+        <v>0.0009605659288354218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1171099990606308</v>
+        <v>0.008726856671273708</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03215458616614342</v>
+        <v>0.0007500459905713797</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005300585180521011</v>
+        <v>0.001812145696021616</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1633059680461884</v>
+        <v>0.004704102408140898</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02089898474514484</v>
+        <v>0.001440699561499059</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0159289725124836</v>
+        <v>0.001835231902077794</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06098055467009544</v>
+        <v>0.001328688696958125</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006429907400161028</v>
+        <v>0.0005293807480484247</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01516288705170155</v>
+        <v>7.642584387212992e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08892800658941269</v>
+        <v>0.007619220763444901</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0008896547369658947</v>
+        <v>4.432047717273235e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05620477348566055</v>
+        <v>0.002400007331743836</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1525370478630066</v>
+        <v>0.001263385638594627</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01192422397434711</v>
+        <v>0.001834360882639885</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06580767780542374</v>
+        <v>0.0006364407599903643</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06711798906326294</v>
+        <v>0.0007380162714980543</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05564756691455841</v>
+        <v>0.001241132500581443</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001367655582726002</v>
+        <v>0.0005122117581777275</v>
       </c>
       <c r="S14" t="n">
-        <v>0.003937920555472374</v>
+        <v>0.001160299172624946</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002915773540735245</v>
+        <v>0.001797402743250132</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001626574900001287</v>
+        <v>0.0005871693138033152</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02449409291148186</v>
+        <v>1.857396273408085e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05793613940477371</v>
+        <v>0.0008790027350187302</v>
       </c>
       <c r="X14" t="n">
-        <v>0.003635789267718792</v>
+        <v>0.0002585913171060383</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02678327448666096</v>
+        <v>3.825494786724448e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.004083717707544565</v>
+        <v>0.001637427601963282</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.001505289226770401</v>
+        <v>5.103412695461884e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01886875554919243</v>
+        <v>0.0007116590859368443</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01246953569352627</v>
+        <v>0.001770806033164263</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.02746400609612465</v>
+        <v>0.000380910380044952</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01310962438583374</v>
+        <v>0.0006065571797080338</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0127986678853631</v>
+        <v>0.0005110189085826278</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0205544363707304</v>
+        <v>0.0001325238845311105</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0381295271217823</v>
+        <v>0.0003288221196271479</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.03646233677864075</v>
+        <v>0.001072112005203962</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.009902089834213257</v>
+        <v>0.0006703610997647047</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.03984017670154572</v>
+        <v>0.0009924373589456081</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.01611294224858284</v>
+        <v>5.006638821214437e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.01082152687013149</v>
+        <v>0.0003156501334160566</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.02961328253149986</v>
+        <v>0.0009740975801832974</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.002992191351950169</v>
+        <v>0.001122292480431497</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.03668022155761719</v>
+        <v>0.0002637735742609948</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.005397330969572067</v>
+        <v>0.0009190941927954555</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.04545875638723373</v>
+        <v>0.001269996631890535</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.003696565283462405</v>
+        <v>0.0003681523085106164</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.04410774260759354</v>
+        <v>0.005151258315891027</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.02835932374000549</v>
+        <v>0.00190118548925966</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.001412470359355211</v>
+        <v>0.001959798391908407</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.09254983067512512</v>
+        <v>0.003128346987068653</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.009395021945238113</v>
+        <v>0.002139674965292215</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.04070543497800827</v>
+        <v>0.0003031369997188449</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.02936358191072941</v>
+        <v>0.0007349535007961094</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.02024412900209427</v>
+        <v>0.002538570901378989</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0129143362864852</v>
+        <v>0.0005447471630759537</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.04945919662714005</v>
+        <v>0.003492813091725111</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.02518667280673981</v>
+        <v>0.003955780528485775</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.01878773421049118</v>
+        <v>0.0003138154279440641</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.04996385052800179</v>
+        <v>0.0004518122877925634</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.03004111722111702</v>
+        <v>0.00160653458442539</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.01477244216948748</v>
+        <v>0.0002209188824053854</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.04996814951300621</v>
+        <v>0.0003270573215559125</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.05898142233490944</v>
+        <v>0.002045932458713651</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.008358259685337543</v>
+        <v>0.001378066837787628</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.003024954348802567</v>
+        <v>3.955031934310682e-05</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.002050492912530899</v>
+        <v>0.001748946728184819</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.005735686980187893</v>
+        <v>0.0004503377713263035</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.01221468020230532</v>
+        <v>0.0002562919107731432</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.007220292929559946</v>
+        <v>0.0001264166203327477</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.01083325780928135</v>
+        <v>0.000683635997120291</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.007946860045194626</v>
+        <v>0.0008189999498426914</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.02032977901399136</v>
+        <v>0.0004972250899299979</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.009193932637572289</v>
+        <v>0.0006685149855911732</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.05198423191905022</v>
+        <v>0.002496735192835331</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.0002696444280445576</v>
+        <v>5.386452539823949e-05</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.03161934390664101</v>
+        <v>0.0005572762456722558</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.04569559544324875</v>
+        <v>0.0009582052007317543</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.01819940842688084</v>
+        <v>7.913532317616045e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.008390722796320915</v>
+        <v>0.0003198863996658474</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.004592473618686199</v>
+        <v>0.0002617320569697767</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.005046091973781586</v>
+        <v>0.001697497675195336</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.04012845084071159</v>
+        <v>0.0005423069233074784</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.02136489376425743</v>
+        <v>0.001628236495889723</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0188312865793705</v>
+        <v>0.001196420518681407</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.008037976920604706</v>
+        <v>0.0001269789063371718</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.02577533945441246</v>
+        <v>0.0002652278344612569</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.00536460755392909</v>
+        <v>4.805551725439727e-07</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.01043008640408516</v>
+        <v>0.0009884724859148264</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.01014267280697823</v>
+        <v>8.577987318858504e-05</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.007186335045844316</v>
+        <v>0.001084575313143432</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.01283029932528734</v>
+        <v>0.0001397948217345402</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.01963403820991516</v>
+        <v>0.00220827478915453</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.0002453334163874388</v>
+        <v>0.001115894177928567</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.006509585306048393</v>
+        <v>0.0002949742774944752</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.01289587095379829</v>
+        <v>0.001450961921364069</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.06019263714551926</v>
+        <v>0.002415457041934133</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.06589836627244949</v>
+        <v>0.0008666393696330488</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.02460159361362457</v>
+        <v>0.001456712139770389</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.03715980425477028</v>
+        <v>0.002994580892845988</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.02741964533925056</v>
+        <v>0.0002926065644714981</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.01595092937350273</v>
+        <v>0.00139485823456198</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.02203337103128433</v>
+        <v>0.001343815238215029</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.008686378598213196</v>
+        <v>0.0003262392419856042</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.01917237043380737</v>
+        <v>0.0004822007613256574</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.01223901845514774</v>
+        <v>0.0001956386840902269</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.01501189172267914</v>
+        <v>0.0007599495584145188</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.01365606114268303</v>
+        <v>0.0002268810203531757</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.003214229829609394</v>
+        <v>0.000814201426692307</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.008842958137392998</v>
+        <v>0.000135658192448318</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.01046777609735727</v>
+        <v>0.000667214160785079</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.04403439164161682</v>
+        <v>0.001375581137835979</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.01252611819654703</v>
+        <v>0.00128968118224293</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.007033834233880043</v>
+        <v>0.003180108498781919</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.0502510741353035</v>
+        <v>0.001634118147194386</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.01686896570026875</v>
+        <v>0.0008170779328793287</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.02000262215733528</v>
+        <v>0.001216930104419589</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.027799928560853</v>
+        <v>0.003259417833760381</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.01927990466356277</v>
+        <v>0.0003812187351286411</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.007137462962418795</v>
+        <v>0.0008750594570301473</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.02469578944146633</v>
+        <v>0.0002882290282286704</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.01127282902598381</v>
+        <v>0.0003560747718438506</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0107816606760025</v>
+        <v>0.001532663009129465</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.000372091424651444</v>
+        <v>0.001753511256538332</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.0254698134958744</v>
+        <v>0.0008192601962946355</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.01329283695667982</v>
+        <v>0.000668939552269876</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.006094502285122871</v>
+        <v>0.0003564610378816724</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.0003850370412692428</v>
+        <v>0.0007668957696296275</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.005038138013333082</v>
+        <v>0.001341854920610785</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.001080446410924196</v>
+        <v>0.00075909512815997</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.02092224545776844</v>
+        <v>0.0003273108741268516</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.005870605818927288</v>
+        <v>0.0005229930975474417</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.01348937302827835</v>
+        <v>0.001154043362475932</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.03550271317362785</v>
+        <v>1.46292459248798e-05</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.01919261366128922</v>
+        <v>0.0006394729716703296</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.01689218357205391</v>
+        <v>0.0002274363359902054</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.001674474915489554</v>
+        <v>0.0003085503994952887</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.04997657611966133</v>
+        <v>0.00188871962018311</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.01046266686171293</v>
+        <v>0.002045644912868738</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.009121628478169441</v>
+        <v>0.001499520149081945</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.02758780680596828</v>
+        <v>0.001923573785461485</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.01745564863085747</v>
+        <v>0.001894310698844492</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.01427063532173634</v>
+        <v>0.0002465613069944084</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.002577299252152443</v>
+        <v>0.000244155089603737</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.02574301511049271</v>
+        <v>0.0002953885996248573</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.008361710235476494</v>
+        <v>0.0001652294595260173</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.009713954292237759</v>
+        <v>0.0002150131622329354</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.00854186899960041</v>
+        <v>0.002595276804640889</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.03334156796336174</v>
+        <v>0.0004162008117418736</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.008251061663031578</v>
+        <v>8.298899047076702e-06</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.003249720670282841</v>
+        <v>6.135129660833627e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.01690259389579296</v>
+        <v>0.001086076721549034</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.0192188024520874</v>
+        <v>0.0008002237300388515</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.01387261413037777</v>
+        <v>0.0005495070945471525</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.007280853576958179</v>
+        <v>0.001357631175778806</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.01999375969171524</v>
+        <v>0.001452393364161253</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.01881605759263039</v>
+        <v>0.001377551001496613</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.01269149128347635</v>
+        <v>0.0004224850563332438</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.02122734300792217</v>
+        <v>0.0005031533655710518</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.01157976966351271</v>
+        <v>8.104872540570796e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0006521776667796075</v>
+        <v>0.0008256002911366522</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.009452652186155319</v>
+        <v>0.0001314667024416849</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.01097925752401352</v>
+        <v>0.0009320844546891749</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0009713987819850445</v>
+        <v>0.0001966326963156462</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.02258913777768612</v>
+        <v>0.0001626443699933589</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.002053580246865749</v>
+        <v>0.00165009475313127</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.006333639845252037</v>
+        <v>0.001653300365433097</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.03356211259961128</v>
+        <v>0.0009920739103108644</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.01292053423821926</v>
+        <v>0.0008573575178161263</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.04857277497649193</v>
+        <v>0.00182410329580307</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.01782481372356415</v>
+        <v>0.001404982293024659</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.02935498394072056</v>
+        <v>0.0004490180290304124</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.01202684454619884</v>
+        <v>0.0004624438006430864</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.02865773625671864</v>
+        <v>0.001550506101921201</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.03805913776159286</v>
+        <v>0.000526453135535121</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.03195977583527565</v>
+        <v>0.001513962866738439</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.0291961170732975</v>
+        <v>0.001019084709696472</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.01934778690338135</v>
+        <v>0.00222277594730258</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.02751263044774532</v>
+        <v>0.001911144587211311</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.001037148060277104</v>
+        <v>0.001388458535075188</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.03441405668854713</v>
+        <v>2.463252167217433e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.02047480270266533</v>
+        <v>0.0001053273881552741</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.02822931297123432</v>
+        <v>0.0006813780637457967</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.02342689409852028</v>
+        <v>5.613388202618808e-05</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.02328850328922272</v>
+        <v>0.0002394372131675482</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.01390648912638426</v>
+        <v>0.0001796833821572363</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.004654353484511375</v>
+        <v>0.0006687330896966159</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.01736617833375931</v>
+        <v>0.0003028829814866185</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.01671994663774967</v>
+        <v>0.001034660963341594</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0292239636182785</v>
+        <v>0.000537474756129086</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.007711745798587799</v>
+        <v>0.0004865268711000681</v>
       </c>
     </row>
     <row r="15">
@@ -9539,1709 +9539,1709 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0002312600845471025</v>
+        <v>3.938581721740775e-05</v>
       </c>
       <c r="B17" t="n">
-        <v>9.552297706250101e-05</v>
+        <v>0.0003021846059709787</v>
       </c>
       <c r="C17" t="n">
-        <v>2.067486639134586e-05</v>
+        <v>3.120422843494453e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>9.160332410829142e-05</v>
+        <v>0.0002281047927681357</v>
       </c>
       <c r="E17" t="n">
-        <v>8.028314914554358e-05</v>
+        <v>7.93904546299018e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>6.821658462285995e-05</v>
+        <v>3.849655331578106e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001611917250556871</v>
+        <v>1.432282715541078e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001035884124576114</v>
+        <v>1.789332964108326e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>2.478121132298838e-05</v>
+        <v>3.176266909576952e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002082612336380407</v>
+        <v>6.250254227779806e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>5.258681630948558e-05</v>
+        <v>0.0002373135212110355</v>
       </c>
       <c r="L17" t="n">
-        <v>1.958354732778389e-05</v>
+        <v>2.31113335757982e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>6.255643529584631e-05</v>
+        <v>0.0001756221172399819</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0001507374690845609</v>
+        <v>0.0001168663802673109</v>
       </c>
       <c r="O17" t="n">
-        <v>1.481240360590164e-05</v>
+        <v>0.0001281439472222701</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0001541004166938365</v>
+        <v>1.851118213380687e-05</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.013666304876097e-05</v>
+        <v>5.765826062997803e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>3.394197119632736e-05</v>
+        <v>2.403919825155754e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>2.477329871908296e-05</v>
+        <v>6.472946552094072e-07</v>
       </c>
       <c r="T17" t="n">
-        <v>1.091415924747707e-06</v>
+        <v>5.370980215957388e-05</v>
       </c>
       <c r="U17" t="n">
-        <v>3.927234502043575e-06</v>
+        <v>8.314951628562994e-06</v>
       </c>
       <c r="V17" t="n">
-        <v>4.937600806442788e-06</v>
+        <v>2.22700837184675e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>2.822401802404784e-05</v>
+        <v>4.622135020326823e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>3.502217623463366e-06</v>
+        <v>4.22601806349121e-05</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.791397754568607e-05</v>
+        <v>5.220797174843028e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.093585736583918e-05</v>
+        <v>2.530331948946696e-05</v>
       </c>
       <c r="AA17" t="n">
-        <v>9.985474207496736e-06</v>
+        <v>4.903340959572233e-05</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.441286258341279e-05</v>
+        <v>1.150895332102664e-05</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.11019981483696e-06</v>
+        <v>3.939806265407242e-05</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.556768620503135e-05</v>
+        <v>1.657141910982318e-05</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.349261219729669e-05</v>
+        <v>2.342184234294109e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.109050445957109e-05</v>
+        <v>2.524795127101243e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.268592131964397e-05</v>
+        <v>3.513919182296377e-07</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.195410706917755e-05</v>
+        <v>3.216517507098615e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>5.213726399233565e-05</v>
+        <v>7.076017936924472e-06</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.217865226673894e-08</v>
+        <v>1.556539473313023e-06</v>
       </c>
       <c r="AK17" t="n">
-        <v>1.997105573536828e-05</v>
+        <v>3.750983523786999e-05</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.446448322894867e-06</v>
+        <v>2.360714279348031e-05</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.366841297567589e-05</v>
+        <v>9.642541954235639e-06</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.280428791185841e-05</v>
+        <v>1.681501998973545e-05</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.195877939608181e-05</v>
+        <v>2.113126174663194e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.553696140239481e-05</v>
+        <v>6.642022981395712e-06</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8.350283678737469e-06</v>
+        <v>3.010850377904717e-05</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.019422572629992e-05</v>
+        <v>8.517483365722001e-06</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.431593318557134e-06</v>
+        <v>1.767196772561874e-05</v>
       </c>
       <c r="AT17" t="n">
-        <v>9.098520968109369e-05</v>
+        <v>1.236675234395079e-05</v>
       </c>
       <c r="AU17" t="n">
-        <v>2.384580875514075e-05</v>
+        <v>0.0002054830110864714</v>
       </c>
       <c r="AV17" t="n">
-        <v>3.402237325644819e-06</v>
+        <v>2.48846881731879e-05</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.812222323380411e-05</v>
+        <v>4.243108196533285e-05</v>
       </c>
       <c r="AX17" t="n">
-        <v>2.012769618886523e-05</v>
+        <v>6.396988283086102e-06</v>
       </c>
       <c r="AY17" t="n">
-        <v>2.366370244999416e-05</v>
+        <v>7.570442903670482e-06</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6.44353567622602e-05</v>
+        <v>1.793693627405446e-06</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.845142080332153e-05</v>
+        <v>6.134917202871293e-05</v>
       </c>
       <c r="BB17" t="n">
-        <v>5.401864200393902e-06</v>
+        <v>1.422684727003798e-05</v>
       </c>
       <c r="BC17" t="n">
-        <v>9.164067159872502e-05</v>
+        <v>1.116007479140535e-05</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.055688017004286e-06</v>
+        <v>2.862866313080303e-05</v>
       </c>
       <c r="BE17" t="n">
-        <v>1.682528090896085e-05</v>
+        <v>9.234408207703382e-05</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.83170299755875e-05</v>
+        <v>5.085505836177617e-05</v>
       </c>
       <c r="BG17" t="n">
-        <v>5.951713319518603e-05</v>
+        <v>0.0001068207275238819</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.052204879670171e-06</v>
+        <v>4.000830085715279e-05</v>
       </c>
       <c r="BI17" t="n">
-        <v>8.716409502085298e-05</v>
+        <v>1.885968049464282e-05</v>
       </c>
       <c r="BJ17" t="n">
-        <v>9.196868631988764e-05</v>
+        <v>6.314777419902384e-05</v>
       </c>
       <c r="BK17" t="n">
-        <v>4.399720637593418e-06</v>
+        <v>2.916161975008436e-06</v>
       </c>
       <c r="BL17" t="n">
-        <v>1.923942545545287e-05</v>
+        <v>5.017024886910804e-05</v>
       </c>
       <c r="BM17" t="n">
-        <v>2.105571911670268e-05</v>
+        <v>4.805466596735641e-05</v>
       </c>
       <c r="BN17" t="n">
-        <v>8.91769741429016e-06</v>
+        <v>3.530626054271124e-05</v>
       </c>
       <c r="BO17" t="n">
-        <v>1.371006419503829e-05</v>
+        <v>1.818376404116862e-05</v>
       </c>
       <c r="BP17" t="n">
-        <v>7.088158326951088e-06</v>
+        <v>7.208785245893523e-05</v>
       </c>
       <c r="BQ17" t="n">
-        <v>2.512872561055701e-05</v>
+        <v>2.829168806783855e-05</v>
       </c>
       <c r="BR17" t="n">
-        <v>3.327434023958631e-05</v>
+        <v>1.764354965416715e-05</v>
       </c>
       <c r="BS17" t="n">
-        <v>1.170128143712645e-05</v>
+        <v>5.628234066534787e-05</v>
       </c>
       <c r="BT17" t="n">
-        <v>1.340671224170364e-05</v>
+        <v>1.339830487268046e-05</v>
       </c>
       <c r="BU17" t="n">
-        <v>7.527721027145162e-05</v>
+        <v>4.202912350592669e-06</v>
       </c>
       <c r="BV17" t="n">
-        <v>2.342740663152654e-05</v>
+        <v>9.436059917788953e-05</v>
       </c>
       <c r="BW17" t="n">
-        <v>2.176621637772769e-05</v>
+        <v>3.5394165024627e-05</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.0001216945966007188</v>
+        <v>2.306576607224997e-05</v>
       </c>
       <c r="BY17" t="n">
-        <v>5.382692324928939e-05</v>
+        <v>9.065336598723661e-06</v>
       </c>
       <c r="BZ17" t="n">
-        <v>1.062205865309807e-05</v>
+        <v>1.065652941178996e-05</v>
       </c>
       <c r="CA17" t="n">
-        <v>2.790045982692391e-05</v>
+        <v>4.191345578874461e-05</v>
       </c>
       <c r="CB17" t="n">
-        <v>2.889302777475677e-05</v>
+        <v>1.069085647031898e-05</v>
       </c>
       <c r="CC17" t="n">
-        <v>4.735624315799214e-06</v>
+        <v>2.046001645794604e-05</v>
       </c>
       <c r="CD17" t="n">
-        <v>3.775596269406378e-05</v>
+        <v>1.094849608307413e-06</v>
       </c>
       <c r="CE17" t="n">
-        <v>4.053917655255646e-05</v>
+        <v>5.156280531082302e-05</v>
       </c>
       <c r="CF17" t="n">
-        <v>5.382830750022549e-06</v>
+        <v>2.920091901614796e-05</v>
       </c>
       <c r="CG17" t="n">
-        <v>2.165893965866417e-05</v>
+        <v>1.766169225447811e-05</v>
       </c>
       <c r="CH17" t="n">
-        <v>2.256477455375716e-05</v>
+        <v>1.508739296696149e-05</v>
       </c>
       <c r="CI17" t="n">
-        <v>1.131772933149477e-07</v>
+        <v>1.799091114662588e-05</v>
       </c>
       <c r="CJ17" t="n">
-        <v>3.112255944870412e-05</v>
+        <v>8.120558049995452e-06</v>
       </c>
       <c r="CK17" t="n">
-        <v>1.19824753710418e-05</v>
+        <v>4.534784693532856e-06</v>
       </c>
       <c r="CL17" t="n">
-        <v>7.680069757043384e-06</v>
+        <v>2.477704219927546e-05</v>
       </c>
       <c r="CM17" t="n">
-        <v>9.03487489267718e-06</v>
+        <v>5.281115954858251e-05</v>
       </c>
       <c r="CN17" t="n">
-        <v>3.257305434090085e-05</v>
+        <v>1.812483560570399e-06</v>
       </c>
       <c r="CO17" t="n">
-        <v>2.304994632140733e-05</v>
+        <v>1.732317105052061e-05</v>
       </c>
       <c r="CP17" t="n">
-        <v>1.384587267239112e-05</v>
+        <v>9.588697867002338e-05</v>
       </c>
       <c r="CQ17" t="n">
-        <v>2.151253465854097e-05</v>
+        <v>5.871575558558106e-05</v>
       </c>
       <c r="CR17" t="n">
-        <v>1.512686867499724e-05</v>
+        <v>3.84947270504199e-07</v>
       </c>
       <c r="CS17" t="n">
-        <v>2.103080805682112e-05</v>
+        <v>5.36040315637365e-05</v>
       </c>
       <c r="CT17" t="n">
-        <v>2.193789987359196e-05</v>
+        <v>7.296606327145128e-06</v>
       </c>
       <c r="CU17" t="n">
-        <v>3.896361704391893e-06</v>
+        <v>7.286069831025088e-06</v>
       </c>
       <c r="CV17" t="n">
-        <v>3.184326124028303e-05</v>
+        <v>4.157176590524614e-06</v>
       </c>
       <c r="CW17" t="n">
-        <v>3.76344978576526e-05</v>
+        <v>4.649682159652002e-05</v>
       </c>
       <c r="CX17" t="n">
-        <v>4.992522917746101e-06</v>
+        <v>2.754690831352491e-05</v>
       </c>
       <c r="CY17" t="n">
-        <v>1.481459548813291e-05</v>
+        <v>3.47095774486661e-05</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1.090485784516204e-05</v>
+        <v>2.058893551293295e-05</v>
       </c>
       <c r="DA17" t="n">
-        <v>2.179456032536109e-06</v>
+        <v>2.224368108727504e-05</v>
       </c>
       <c r="DB17" t="n">
-        <v>3.31060255120974e-05</v>
+        <v>1.887118378363084e-05</v>
       </c>
       <c r="DC17" t="n">
-        <v>1.476840043324046e-05</v>
+        <v>9.470424629398622e-06</v>
       </c>
       <c r="DD17" t="n">
-        <v>1.116462044592481e-05</v>
+        <v>1.835455441323575e-05</v>
       </c>
       <c r="DE17" t="n">
-        <v>3.15532015520148e-05</v>
+        <v>4.448447361937724e-05</v>
       </c>
       <c r="DF17" t="n">
-        <v>5.051059270044789e-05</v>
+        <v>6.820575890742475e-06</v>
       </c>
       <c r="DG17" t="n">
-        <v>8.488212870361167e-07</v>
+        <v>7.211080082925037e-05</v>
       </c>
       <c r="DH17" t="n">
-        <v>2.785818287520669e-05</v>
+        <v>0.0001314687251579016</v>
       </c>
       <c r="DI17" t="n">
-        <v>2.206410044891527e-06</v>
+        <v>6.850632780697197e-05</v>
       </c>
       <c r="DJ17" t="n">
-        <v>4.30832733400166e-06</v>
+        <v>1.85544940904947e-05</v>
       </c>
       <c r="DK17" t="n">
-        <v>1.234104001923697e-05</v>
+        <v>2.215092536062002e-06</v>
       </c>
       <c r="DL17" t="n">
-        <v>4.477088441490196e-05</v>
+        <v>3.739547901204787e-05</v>
       </c>
       <c r="DM17" t="n">
-        <v>6.071832831366919e-05</v>
+        <v>2.724467776715755e-05</v>
       </c>
       <c r="DN17" t="n">
-        <v>1.135146703745704e-05</v>
+        <v>4.781207280757371e-06</v>
       </c>
       <c r="DO17" t="n">
-        <v>1.40744486998301e-05</v>
+        <v>1.457151120121125e-05</v>
       </c>
       <c r="DP17" t="n">
-        <v>5.069400685897563e-06</v>
+        <v>3.035232293768786e-05</v>
       </c>
       <c r="DQ17" t="n">
-        <v>1.425797199772205e-05</v>
+        <v>5.113438419357408e-06</v>
       </c>
       <c r="DR17" t="n">
-        <v>6.092871444707271e-06</v>
+        <v>2.255491563118994e-05</v>
       </c>
       <c r="DS17" t="n">
-        <v>2.032894371950533e-06</v>
+        <v>1.929897371155676e-05</v>
       </c>
       <c r="DT17" t="n">
-        <v>1.406674982717959e-05</v>
+        <v>1.659138797549531e-05</v>
       </c>
       <c r="DU17" t="n">
-        <v>9.839228368946351e-06</v>
+        <v>8.309239092341159e-07</v>
       </c>
       <c r="DV17" t="n">
-        <v>6.906172075105133e-06</v>
+        <v>4.559327135211788e-05</v>
       </c>
       <c r="DW17" t="n">
-        <v>1.578744195285253e-05</v>
+        <v>1.115959275921341e-05</v>
       </c>
       <c r="DX17" t="n">
-        <v>1.577833427290898e-05</v>
+        <v>3.305147038190626e-05</v>
       </c>
       <c r="DY17" t="n">
-        <v>2.55556806223467e-05</v>
+        <v>5.942285497440025e-05</v>
       </c>
       <c r="DZ17" t="n">
-        <v>2.547639633121435e-05</v>
+        <v>1.759248789312551e-06</v>
       </c>
       <c r="EA17" t="n">
-        <v>1.905624230857939e-05</v>
+        <v>5.380758011597209e-06</v>
       </c>
       <c r="EB17" t="n">
-        <v>9.047503226611298e-06</v>
+        <v>4.458111288840882e-05</v>
       </c>
       <c r="EC17" t="n">
-        <v>3.909938095603138e-05</v>
+        <v>8.864086339599453e-06</v>
       </c>
       <c r="ED17" t="n">
-        <v>5.235657590674236e-05</v>
+        <v>3.635093662524014e-06</v>
       </c>
       <c r="EE17" t="n">
-        <v>1.596903894096613e-05</v>
+        <v>5.023921403335407e-06</v>
       </c>
       <c r="EF17" t="n">
-        <v>7.037736941128969e-05</v>
+        <v>1.337105277343653e-05</v>
       </c>
       <c r="EG17" t="n">
-        <v>3.945009666495025e-05</v>
+        <v>3.652596933534369e-05</v>
       </c>
       <c r="EH17" t="n">
-        <v>1.260630597244017e-05</v>
+        <v>1.510737365606474e-05</v>
       </c>
       <c r="EI17" t="n">
-        <v>4.561409878078848e-05</v>
+        <v>1.813996641431004e-05</v>
       </c>
       <c r="EJ17" t="n">
-        <v>1.98034704226302e-05</v>
+        <v>2.397409116383642e-05</v>
       </c>
       <c r="EK17" t="n">
-        <v>1.208865523949498e-05</v>
+        <v>1.783008701750077e-05</v>
       </c>
       <c r="EL17" t="n">
-        <v>9.421273716725409e-06</v>
+        <v>2.733127621468157e-05</v>
       </c>
       <c r="EM17" t="n">
-        <v>9.88812098512426e-06</v>
+        <v>7.140291927498765e-06</v>
       </c>
       <c r="EN17" t="n">
-        <v>8.735017217986751e-06</v>
+        <v>1.295896981901024e-05</v>
       </c>
       <c r="EO17" t="n">
-        <v>3.604207449825481e-06</v>
+        <v>2.202443283749744e-06</v>
       </c>
       <c r="EP17" t="n">
-        <v>7.468995318049565e-05</v>
+        <v>2.332523035875056e-05</v>
       </c>
       <c r="EQ17" t="n">
-        <v>1.139428513852181e-05</v>
+        <v>3.609917257563211e-05</v>
       </c>
       <c r="ER17" t="n">
-        <v>1.678140142757911e-05</v>
+        <v>1.378840124743874e-06</v>
       </c>
       <c r="ES17" t="n">
-        <v>2.70405289484188e-05</v>
+        <v>1.813139169826172e-05</v>
       </c>
       <c r="ET17" t="n">
-        <v>2.080356171063613e-05</v>
+        <v>2.368650257267291e-06</v>
       </c>
       <c r="EU17" t="n">
-        <v>1.04047212516889e-05</v>
+        <v>1.474063901696354e-05</v>
       </c>
       <c r="EV17" t="n">
-        <v>1.563436853757594e-05</v>
+        <v>6.598746404051781e-05</v>
       </c>
       <c r="EW17" t="n">
-        <v>9.718950423120987e-06</v>
+        <v>1.977475039893761e-05</v>
       </c>
       <c r="EX17" t="n">
-        <v>3.296267459518276e-05</v>
+        <v>4.155568603891879e-06</v>
       </c>
       <c r="EY17" t="n">
-        <v>2.647711698955391e-05</v>
+        <v>4.401256956043653e-05</v>
       </c>
       <c r="EZ17" t="n">
-        <v>3.146997414660291e-06</v>
+        <v>2.181389208999462e-05</v>
       </c>
       <c r="FA17" t="n">
-        <v>1.674100712989457e-05</v>
+        <v>2.108387889165897e-05</v>
       </c>
       <c r="FB17" t="n">
-        <v>1.266329036297975e-05</v>
+        <v>9.288055480283219e-06</v>
       </c>
       <c r="FC17" t="n">
-        <v>7.385824119410245e-06</v>
+        <v>2.208079968113452e-05</v>
       </c>
       <c r="FD17" t="n">
-        <v>2.523366856621578e-05</v>
+        <v>1.436944967281306e-05</v>
       </c>
       <c r="FE17" t="n">
-        <v>2.625126853672555e-06</v>
+        <v>3.321556960145244e-06</v>
       </c>
       <c r="FF17" t="n">
-        <v>3.482504325802438e-06</v>
+        <v>2.813496939779725e-05</v>
       </c>
       <c r="FG17" t="n">
-        <v>2.189905717386864e-05</v>
+        <v>2.358167876082007e-05</v>
       </c>
       <c r="FH17" t="n">
-        <v>2.007601688092109e-05</v>
+        <v>1.318724116572412e-06</v>
       </c>
       <c r="FI17" t="n">
-        <v>4.3655973058776e-06</v>
+        <v>6.225890683708712e-05</v>
       </c>
       <c r="FJ17" t="n">
-        <v>1.049534330377355e-05</v>
+        <v>4.586735667544417e-05</v>
       </c>
       <c r="FK17" t="n">
-        <v>1.427622009941842e-06</v>
+        <v>6.813063464505831e-07</v>
       </c>
       <c r="FL17" t="n">
-        <v>2.885478170355782e-05</v>
+        <v>2.988291089423001e-05</v>
       </c>
       <c r="FM17" t="n">
-        <v>4.706758045358583e-05</v>
+        <v>1.414047619618941e-05</v>
       </c>
       <c r="FN17" t="n">
-        <v>2.096538810292259e-05</v>
+        <v>4.590324169839732e-05</v>
       </c>
       <c r="FO17" t="n">
-        <v>1.164009518106468e-05</v>
+        <v>2.452815533615649e-05</v>
       </c>
       <c r="FP17" t="n">
-        <v>3.58920224243775e-05</v>
+        <v>7.47887816032744e-06</v>
       </c>
       <c r="FQ17" t="n">
-        <v>3.844348611892201e-05</v>
+        <v>5.507817149918992e-06</v>
       </c>
       <c r="FR17" t="n">
-        <v>2.852311627066229e-05</v>
+        <v>4.898054612567648e-06</v>
       </c>
       <c r="FS17" t="n">
-        <v>4.47314560005907e-05</v>
+        <v>8.531941602996085e-06</v>
       </c>
       <c r="FT17" t="n">
-        <v>2.304511872353032e-05</v>
+        <v>5.783413871540688e-05</v>
       </c>
       <c r="FU17" t="n">
-        <v>4.338316284702159e-05</v>
+        <v>4.279172571841627e-07</v>
       </c>
       <c r="FV17" t="n">
-        <v>5.194644108996727e-05</v>
+        <v>3.663825191324577e-05</v>
       </c>
       <c r="FW17" t="n">
-        <v>6.514437700388953e-06</v>
+        <v>4.426034502102993e-05</v>
       </c>
       <c r="FX17" t="n">
-        <v>4.658395846490748e-05</v>
+        <v>3.33032148773782e-05</v>
       </c>
       <c r="FY17" t="n">
-        <v>4.302001616451889e-05</v>
+        <v>6.422966544050723e-05</v>
       </c>
       <c r="FZ17" t="n">
-        <v>6.909381227160338e-06</v>
+        <v>2.827833304763772e-05</v>
       </c>
       <c r="GA17" t="n">
-        <v>2.802635208354332e-05</v>
+        <v>5.087421868665842e-06</v>
       </c>
       <c r="GB17" t="n">
-        <v>2.266192313982174e-05</v>
+        <v>5.48431626157253e-06</v>
       </c>
       <c r="GC17" t="n">
-        <v>3.557888703653589e-06</v>
+        <v>7.776456186547875e-05</v>
       </c>
       <c r="GD17" t="n">
-        <v>1.546403382235439e-06</v>
+        <v>4.688126500695944e-05</v>
       </c>
       <c r="GE17" t="n">
-        <v>1.2381015039864e-05</v>
+        <v>9.919614967657253e-05</v>
       </c>
       <c r="GF17" t="n">
-        <v>2.998445415869355e-05</v>
+        <v>1.980873821594287e-05</v>
       </c>
       <c r="GG17" t="n">
-        <v>3.867959094350226e-05</v>
+        <v>4.861117486143485e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0007832281989976764</v>
+        <v>0.0001127168216044083</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0001019706978695467</v>
+        <v>0.002944689942523837</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000986747327260673</v>
+        <v>1.498403435107321e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0002068076864816248</v>
+        <v>0.00141638983041048</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0003646425902843475</v>
+        <v>0.0002926437300629914</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0002274340513395146</v>
+        <v>0.001894774613901973</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001428778632543981</v>
+        <v>0.0001137079525506124</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001514135801699013</v>
+        <v>0.001147500006482005</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000406011356972158</v>
+        <v>0.0001296392147196457</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0007402506307698786</v>
+        <v>0.0004295097023714334</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001462807267671451</v>
+        <v>0.002793787280097604</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00105952238664031</v>
+        <v>0.0001663427538005635</v>
       </c>
       <c r="M18" t="n">
-        <v>5.534113370231353e-06</v>
+        <v>0.001011669053696096</v>
       </c>
       <c r="N18" t="n">
-        <v>5.007113213650882e-05</v>
+        <v>0.0001940586953423917</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0001459177874494344</v>
+        <v>0.001870084088295698</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0002003172994591296</v>
+        <v>1.324342156294733e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0001011902058962733</v>
+        <v>0.0003989445976912975</v>
       </c>
       <c r="R18" t="n">
-        <v>0.000393440539482981</v>
+        <v>0.0002862340188585222</v>
       </c>
       <c r="S18" t="n">
-        <v>2.602570020826533e-06</v>
+        <v>0.0001401053159497678</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0002220409514848143</v>
+        <v>0.0002712109999265522</v>
       </c>
       <c r="U18" t="n">
-        <v>1.839544165704865e-05</v>
+        <v>0.0002490077749826014</v>
       </c>
       <c r="V18" t="n">
-        <v>4.768036887980998e-05</v>
+        <v>0.0002226656652055681</v>
       </c>
       <c r="W18" t="n">
-        <v>1.626770608709194e-05</v>
+        <v>0.0003833667142316699</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0001111946767196059</v>
+        <v>0.0002230819809483364</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.250299338717014e-05</v>
+        <v>0.0001721523294690996</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0001560789823997766</v>
+        <v>0.0004890099517069757</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.082661351072602e-05</v>
+        <v>0.0003892708627972752</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.202656130772084e-05</v>
+        <v>0.0001041484501911327</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.949752423679456e-05</v>
+        <v>5.969993071630597e-05</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.144266934716143e-05</v>
+        <v>0.0001049902566592209</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0001866286038421094</v>
+        <v>3.424633541726507e-05</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.931456689722836e-05</v>
+        <v>4.305804031901062e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.055501141119748e-05</v>
+        <v>8.483503188472241e-05</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.28224404156208e-05</v>
+        <v>0.0001538851065561175</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0003123694041278213</v>
+        <v>0.0002240717585664243</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.0002399983641225845</v>
+        <v>3.239999205106869e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0001633677165955305</v>
+        <v>0.0002440833195578307</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0002454441855661571</v>
+        <v>0.0005180257139727473</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.851079185958952e-05</v>
+        <v>4.663021900341846e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0001526626729173586</v>
+        <v>0.000161785603268072</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.723726381896995e-05</v>
+        <v>4.75545457447879e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.468989234534092e-05</v>
+        <v>0.0003143370558973402</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7.059829840727616e-06</v>
+        <v>0.0001357361325062811</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.855664155911654e-05</v>
+        <v>0.0001323686738032848</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.771436942974105e-05</v>
+        <v>0.0003382745489943773</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0003210032591596246</v>
+        <v>0.0004163339035585523</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.516769205220044e-05</v>
+        <v>0.001850805361755192</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0004200482508167624</v>
+        <v>5.317186878528446e-05</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0002071522176265717</v>
+        <v>0.0003933737461920828</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.132660615141504e-05</v>
+        <v>0.0001270701177418232</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.0002234266285086051</v>
+        <v>0.0009859914425760508</v>
       </c>
       <c r="AZ18" t="n">
-        <v>6.236234912648797e-05</v>
+        <v>0.0004804204218089581</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.00014779411139898</v>
+        <v>0.0003022818418685347</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.0001276054681511596</v>
+        <v>0.0006775622605346143</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0001351060782326385</v>
+        <v>0.0002184918557759374</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.139629239332862e-05</v>
+        <v>0.0006845276802778244</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.000303748354781419</v>
+        <v>0.000470369472168386</v>
       </c>
       <c r="BF18" t="n">
-        <v>4.853864083997905e-06</v>
+        <v>5.690490070264786e-06</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.0002205401979153976</v>
+        <v>0.000359762052539736</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.0001147265793406405</v>
+        <v>0.0005288240499794483</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.0001433971774531528</v>
+        <v>0.0002667436783667654</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.0001010571431834251</v>
+        <v>0.0002178059366997331</v>
       </c>
       <c r="BK18" t="n">
-        <v>6.713675247738138e-06</v>
+        <v>0.0004607352311722934</v>
       </c>
       <c r="BL18" t="n">
-        <v>5.227274959906936e-05</v>
+        <v>4.027061368105933e-05</v>
       </c>
       <c r="BM18" t="n">
-        <v>8.126752800308168e-05</v>
+        <v>0.0004451006243471056</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.000153720480739139</v>
+        <v>0.0002057670790236443</v>
       </c>
       <c r="BO18" t="n">
-        <v>3.50849368260242e-05</v>
+        <v>1.503691601101309e-05</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.0001882754731923342</v>
+        <v>1.667926335358061e-05</v>
       </c>
       <c r="BQ18" t="n">
-        <v>9.420383867109194e-05</v>
+        <v>0.0001033940789056942</v>
       </c>
       <c r="BR18" t="n">
-        <v>6.57829295960255e-05</v>
+        <v>0.0004019609477836639</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0001427645474905148</v>
+        <v>0.0002185769553761929</v>
       </c>
       <c r="BT18" t="n">
-        <v>2.467144440743141e-05</v>
+        <v>0.0002001971151912585</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.0002901898114942014</v>
+        <v>0.000149001061799936</v>
       </c>
       <c r="BV18" t="n">
-        <v>4.357975558377802e-05</v>
+        <v>0.001013225060887635</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.0001393716520396993</v>
+        <v>0.0002238885790575296</v>
       </c>
       <c r="BX18" t="n">
-        <v>7.12793626007624e-05</v>
+        <v>0.0001865222293417901</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.0001893007574835792</v>
+        <v>0.0002044246793957427</v>
       </c>
       <c r="BZ18" t="n">
-        <v>9.548370871925727e-05</v>
+        <v>0.0005086445016786456</v>
       </c>
       <c r="CA18" t="n">
-        <v>5.383515963330865e-05</v>
+        <v>0.0001122864341596141</v>
       </c>
       <c r="CB18" t="n">
-        <v>8.140932186506689e-05</v>
+        <v>6.418143311748281e-05</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.0002196077111875638</v>
+        <v>0.0004653797950595617</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.0001612907799426466</v>
+        <v>1.707663614070043e-05</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.0001929402351379395</v>
+        <v>0.00043781942804344</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.0002252852427773178</v>
+        <v>0.0002557144034653902</v>
       </c>
       <c r="CG18" t="n">
-        <v>8.486525075568352e-06</v>
+        <v>0.0001521440863143653</v>
       </c>
       <c r="CH18" t="n">
-        <v>6.471121741924435e-05</v>
+        <v>0.0001739964645821601</v>
       </c>
       <c r="CI18" t="n">
-        <v>9.057256102096289e-05</v>
+        <v>0.000231744023039937</v>
       </c>
       <c r="CJ18" t="n">
-        <v>2.195481283706613e-05</v>
+        <v>0.000202635710593313</v>
       </c>
       <c r="CK18" t="n">
-        <v>3.691029633046128e-05</v>
+        <v>0.0001234422670677304</v>
       </c>
       <c r="CL18" t="n">
-        <v>3.343052230775356e-05</v>
+        <v>0.0002393354661762714</v>
       </c>
       <c r="CM18" t="n">
-        <v>8.539165719412267e-06</v>
+        <v>0.0005687858210876584</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.0002196279092459008</v>
+        <v>0.0001510048459749669</v>
       </c>
       <c r="CO18" t="n">
-        <v>6.539699825225398e-05</v>
+        <v>0.0001173322962131351</v>
       </c>
       <c r="CP18" t="n">
-        <v>8.520882693119347e-05</v>
+        <v>0.0009491594973951578</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.000252644473221153</v>
+        <v>0.0001728001661831513</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.0001189069589599967</v>
+        <v>0.0003274620103184134</v>
       </c>
       <c r="CS18" t="n">
-        <v>2.392900933045894e-05</v>
+        <v>0.0006054230034351349</v>
       </c>
       <c r="CT18" t="n">
-        <v>6.336916703730822e-05</v>
+        <v>0.0005762487999163568</v>
       </c>
       <c r="CU18" t="n">
-        <v>9.168377437163144e-05</v>
+        <v>0.0001321404415648431</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.0001430199190508574</v>
+        <v>3.063718031626195e-05</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.0001735652913339436</v>
+        <v>0.0003894262772519141</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.0002335067110834643</v>
+        <v>0.0002382185048190877</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.196506673295517e-05</v>
+        <v>0.000313062162604183</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.0001643883006181568</v>
+        <v>0.0001894470333354548</v>
       </c>
       <c r="DA18" t="n">
-        <v>8.888512093108147e-05</v>
+        <v>0.0001821069454308599</v>
       </c>
       <c r="DB18" t="n">
-        <v>2.811479862430133e-05</v>
+        <v>0.0002083008730551228</v>
       </c>
       <c r="DC18" t="n">
-        <v>1.380632966174744e-05</v>
+        <v>0.0002793656894937158</v>
       </c>
       <c r="DD18" t="n">
-        <v>3.661110167740844e-05</v>
+        <v>0.0001461643259972334</v>
       </c>
       <c r="DE18" t="n">
-        <v>3.256980926380493e-05</v>
+        <v>0.0001522958918940276</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.0003059773298446089</v>
+        <v>0.0002213429543189704</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.000159658316988498</v>
+        <v>0.0001161384861916304</v>
       </c>
       <c r="DH18" t="n">
-        <v>8.134491508826613e-06</v>
+        <v>0.0007896851166151464</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.0002145652833860368</v>
+        <v>0.0005905930884182453</v>
       </c>
       <c r="DJ18" t="n">
-        <v>8.270359830930829e-05</v>
+        <v>0.0006126686348579824</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.0001424948131898418</v>
+        <v>0.000258064828813076</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.0001016837923089042</v>
+        <v>0.0004960763035342097</v>
       </c>
       <c r="DM18" t="n">
-        <v>1.728128154354636e-05</v>
+        <v>0.0005068129976280034</v>
       </c>
       <c r="DN18" t="n">
-        <v>1.730240728647914e-05</v>
+        <v>2.240287176391575e-05</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.00021304827532731</v>
+        <v>7.424500654451549e-05</v>
       </c>
       <c r="DP18" t="n">
-        <v>7.966206612763926e-05</v>
+        <v>0.0002975109382532537</v>
       </c>
       <c r="DQ18" t="n">
-        <v>3.552994530764408e-05</v>
+        <v>3.891338928951882e-05</v>
       </c>
       <c r="DR18" t="n">
-        <v>7.039782212814316e-05</v>
+        <v>0.000106747895188164</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.0001439089828636497</v>
+        <v>0.0001906333927763626</v>
       </c>
       <c r="DT18" t="n">
-        <v>1.768346919561736e-06</v>
+        <v>0.0003231667797081172</v>
       </c>
       <c r="DU18" t="n">
-        <v>3.060973540414125e-06</v>
+        <v>4.541871385299601e-05</v>
       </c>
       <c r="DV18" t="n">
-        <v>3.670556907309219e-06</v>
+        <v>3.041845047846437e-06</v>
       </c>
       <c r="DW18" t="n">
-        <v>9.666204277891666e-05</v>
+        <v>7.259455742314458e-06</v>
       </c>
       <c r="DX18" t="n">
-        <v>3.967894735978916e-05</v>
+        <v>0.0002921777777373791</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.411726043443196e-05</v>
+        <v>0.0002312680881004781</v>
       </c>
       <c r="DZ18" t="n">
-        <v>5.657970541506074e-05</v>
+        <v>0.0003281287790741771</v>
       </c>
       <c r="EA18" t="n">
-        <v>8.156044350471348e-05</v>
+        <v>0.000149851170135662</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.000130700267618522</v>
+        <v>0.0001543551188660786</v>
       </c>
       <c r="EC18" t="n">
-        <v>3.172523429384455e-05</v>
+        <v>2.854301419574767e-05</v>
       </c>
       <c r="ED18" t="n">
-        <v>9.704366675578058e-05</v>
+        <v>6.149060209281743e-05</v>
       </c>
       <c r="EE18" t="n">
-        <v>5.327219696482643e-07</v>
+        <v>0.0002901730185840279</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.0002479759859852493</v>
+        <v>0.0001870728738140315</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.0001117452920880169</v>
+        <v>0.0005058028036728501</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.0002524176379665732</v>
+        <v>0.0001277402916457504</v>
       </c>
       <c r="EI18" t="n">
-        <v>6.382030551321805e-05</v>
+        <v>8.530612831236795e-05</v>
       </c>
       <c r="EJ18" t="n">
-        <v>5.654562846757472e-05</v>
+        <v>8.826842531561852e-06</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.0001879987539723516</v>
+        <v>9.90509579423815e-05</v>
       </c>
       <c r="EL18" t="n">
-        <v>6.748314262949862e-07</v>
+        <v>0.0002605983172543347</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.0001441599742975086</v>
+        <v>0.0001059943315340206</v>
       </c>
       <c r="EN18" t="n">
-        <v>8.64041576278396e-05</v>
+        <v>0.0001381750626023859</v>
       </c>
       <c r="EO18" t="n">
-        <v>5.378224886953831e-05</v>
+        <v>7.965932309161872e-05</v>
       </c>
       <c r="EP18" t="n">
-        <v>2.881887849071063e-05</v>
+        <v>0.0001693708472885191</v>
       </c>
       <c r="EQ18" t="n">
-        <v>4.594723941409029e-05</v>
+        <v>0.000262957822997123</v>
       </c>
       <c r="ER18" t="n">
-        <v>7.961793016875163e-06</v>
+        <v>0.0003585810482036322</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.0001667124452069402</v>
+        <v>0.0003869709034916013</v>
       </c>
       <c r="ET18" t="n">
-        <v>4.945396358380094e-05</v>
+        <v>0.0003347900055814534</v>
       </c>
       <c r="EU18" t="n">
-        <v>3.858767377096228e-05</v>
+        <v>0.0006096265278756618</v>
       </c>
       <c r="EV18" t="n">
-        <v>4.851631092606112e-05</v>
+        <v>0.0007073567830957472</v>
       </c>
       <c r="EW18" t="n">
-        <v>4.016313323518261e-05</v>
+        <v>6.676313932985067e-05</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.0001529022556496784</v>
+        <v>7.824660133337602e-05</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.0001569003507029265</v>
+        <v>0.0003918937582056969</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.00023253085964825</v>
+        <v>0.0001951446174643934</v>
       </c>
       <c r="FA18" t="n">
-        <v>2.134177975676721e-06</v>
+        <v>0.0001275360118597746</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.0001175306024379097</v>
+        <v>0.0001704374881228432</v>
       </c>
       <c r="FC18" t="n">
-        <v>2.801180926326197e-05</v>
+        <v>0.000183706171810627</v>
       </c>
       <c r="FD18" t="n">
-        <v>2.992034933413379e-05</v>
+        <v>0.0003731484466698021</v>
       </c>
       <c r="FE18" t="n">
-        <v>4.74490734632127e-05</v>
+        <v>0.0002252680569654331</v>
       </c>
       <c r="FF18" t="n">
-        <v>4.948623973177746e-05</v>
+        <v>0.000266029528575018</v>
       </c>
       <c r="FG18" t="n">
-        <v>7.358970469795167e-05</v>
+        <v>7.550418376922607e-05</v>
       </c>
       <c r="FH18" t="n">
-        <v>8.857163629727438e-05</v>
+        <v>9.998406312661245e-05</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.0002031950571108609</v>
+        <v>0.0003071638639084995</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.0001916410692501813</v>
+        <v>0.0004240829148329794</v>
       </c>
       <c r="FK18" t="n">
-        <v>4.674522642744705e-05</v>
+        <v>1.118220097851008e-05</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.0001028562692226842</v>
+        <v>5.717105523217469e-05</v>
       </c>
       <c r="FM18" t="n">
-        <v>1.491048897150904e-05</v>
+        <v>0.0002257265732623637</v>
       </c>
       <c r="FN18" t="n">
-        <v>5.921506453887559e-05</v>
+        <v>6.079641752876341e-05</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.0001188810274470598</v>
+        <v>0.000345197826391086</v>
       </c>
       <c r="FP18" t="n">
-        <v>0.0001293940294999629</v>
+        <v>0.0003050802915822715</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.0004872592980973423</v>
+        <v>0.000434919202234596</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.000112463349069003</v>
+        <v>0.0002511414350010455</v>
       </c>
       <c r="FS18" t="n">
-        <v>0.0001099073342629708</v>
+        <v>0.0002872783225029707</v>
       </c>
       <c r="FT18" t="n">
-        <v>6.638438208028674e-06</v>
+        <v>0.000116741270176135</v>
       </c>
       <c r="FU18" t="n">
-        <v>0.0001561278768349439</v>
+        <v>0.0004089983412995934</v>
       </c>
       <c r="FV18" t="n">
-        <v>4.139843804296106e-05</v>
+        <v>0.0004194100620225072</v>
       </c>
       <c r="FW18" t="n">
-        <v>4.643905776902102e-05</v>
+        <v>0.0003814916126430035</v>
       </c>
       <c r="FX18" t="n">
-        <v>4.011704004369676e-05</v>
+        <v>0.0001091506346710958</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.0001081987284123898</v>
+        <v>0.0006044681067578495</v>
       </c>
       <c r="FZ18" t="n">
-        <v>9.663880337029696e-05</v>
+        <v>0.0002085015585180372</v>
       </c>
       <c r="GA18" t="n">
-        <v>4.787274065165548e-06</v>
+        <v>0.0001774251140886918</v>
       </c>
       <c r="GB18" t="n">
-        <v>4.05240170948673e-05</v>
+        <v>0.0002003666886594146</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.0001706587936496362</v>
+        <v>8.001503010746092e-05</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.0001356163702439517</v>
+        <v>0.0003490187809802592</v>
       </c>
       <c r="GE18" t="n">
-        <v>4.453331348486245e-05</v>
+        <v>0.0008567256736569107</v>
       </c>
       <c r="GF18" t="n">
-        <v>3.577355528250337e-05</v>
+        <v>8.090276969596744e-05</v>
       </c>
       <c r="GG18" t="n">
-        <v>0.0001199033940793015</v>
+        <v>1.013339351629838e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0002366151747992262</v>
+        <v>2.809473244269611e-06</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0001096104533644393</v>
+        <v>1.658105065871496e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>4.354053817223758e-05</v>
+        <v>1.605075112820487e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001889604027383029</v>
+        <v>1.32879322336521e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0001221149286720902</v>
+        <v>6.22611514700111e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>5.792632146039978e-05</v>
+        <v>2.223194542239071e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001719216088531539</v>
+        <v>8.398512818530435e-07</v>
       </c>
       <c r="H19" t="n">
-        <v>3.754880890483037e-05</v>
+        <v>2.130318989657098e-06</v>
       </c>
       <c r="I19" t="n">
-        <v>7.933042070362717e-05</v>
+        <v>1.094757521968859e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002194528497057036</v>
+        <v>3.828065473499009e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>8.20797067717649e-05</v>
+        <v>1.241134486917872e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>5.970249912934378e-05</v>
+        <v>1.159369844572211e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001734656689222902</v>
+        <v>1.002973112917971e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0001301701267948374</v>
+        <v>8.280100701085757e-06</v>
       </c>
       <c r="O19" t="n">
-        <v>1.850025728344917e-05</v>
+        <v>8.352429176738951e-06</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0001498232741141692</v>
+        <v>1.777254055923549e-06</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.159377567702904e-05</v>
+        <v>2.003791905735852e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0001436879538232461</v>
+        <v>6.815682809246937e-07</v>
       </c>
       <c r="S19" t="n">
-        <v>5.152380254003219e-06</v>
+        <v>6.895140813867329e-08</v>
       </c>
       <c r="T19" t="n">
-        <v>3.135323640890419e-05</v>
+        <v>3.878578809235478e-06</v>
       </c>
       <c r="U19" t="n">
-        <v>1.487503232056042e-05</v>
+        <v>4.591151423483097e-07</v>
       </c>
       <c r="V19" t="n">
-        <v>1.780005550244823e-05</v>
+        <v>1.505763520981418e-06</v>
       </c>
       <c r="W19" t="n">
-        <v>9.456897487325477e-07</v>
+        <v>2.640689444888267e-06</v>
       </c>
       <c r="X19" t="n">
-        <v>1.393873480992625e-05</v>
+        <v>2.468265392963076e-06</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.083225601585582e-05</v>
+        <v>3.219713562430115e-06</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.155864710104652e-05</v>
+        <v>1.567921913192549e-06</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.093943087151274e-05</v>
+        <v>3.478800181255792e-06</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.329643237113487e-05</v>
+        <v>3.984489467256935e-07</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.797270670067519e-05</v>
+        <v>2.431965185678564e-06</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.820581908570603e-06</v>
+        <v>1.809280774978106e-06</v>
       </c>
       <c r="AE19" t="n">
-        <v>3.846334948320873e-06</v>
+        <v>1.185483142762678e-06</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.381589966826141e-05</v>
+        <v>1.133084083448921e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.777121699182317e-05</v>
+        <v>9.486973340244731e-07</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.418185224290937e-05</v>
+        <v>2.22671042138245e-06</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.164969868725166e-05</v>
+        <v>5.360205364013382e-07</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.581760200991994e-06</v>
+        <v>1.450937503477689e-07</v>
       </c>
       <c r="AK19" t="n">
-        <v>3.381735950824805e-05</v>
+        <v>2.443326593493111e-06</v>
       </c>
       <c r="AL19" t="n">
-        <v>2.404878250672482e-05</v>
+        <v>2.041759671556065e-06</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.984731150325388e-06</v>
+        <v>5.144946726431954e-07</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.181606734870002e-05</v>
+        <v>1.061771740751283e-06</v>
       </c>
       <c r="AO19" t="n">
-        <v>2.751477950369008e-05</v>
+        <v>2.21239315578714e-06</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.92192741855979e-05</v>
+        <v>1.200173045390329e-07</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.503576640971005e-05</v>
+        <v>1.775652208380052e-06</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.964159673661925e-05</v>
+        <v>7.75310468270618e-07</v>
       </c>
       <c r="AS19" t="n">
-        <v>4.367657311377116e-07</v>
+        <v>1.284649670196814e-06</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.0001021366624627262</v>
+        <v>1.178708998850198e-06</v>
       </c>
       <c r="AU19" t="n">
-        <v>2.436958129692357e-05</v>
+        <v>1.331370276602684e-05</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.142695277347229e-05</v>
+        <v>2.574056907178601e-06</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.008590854529757e-05</v>
+        <v>3.190767074556788e-06</v>
       </c>
       <c r="AX19" t="n">
-        <v>8.7191392594832e-06</v>
+        <v>2.370091749526182e-07</v>
       </c>
       <c r="AY19" t="n">
-        <v>2.172409585909918e-05</v>
+        <v>1.698324751941982e-07</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1.94345775526017e-05</v>
+        <v>3.269332182753715e-07</v>
       </c>
       <c r="BA19" t="n">
-        <v>6.452213710872456e-05</v>
+        <v>4.538101165962871e-06</v>
       </c>
       <c r="BB19" t="n">
-        <v>5.046408841735683e-05</v>
+        <v>9.294667506765109e-07</v>
       </c>
       <c r="BC19" t="n">
-        <v>7.95142914284952e-05</v>
+        <v>7.504449968109839e-07</v>
       </c>
       <c r="BD19" t="n">
-        <v>6.111363290983718e-06</v>
+        <v>3.340929879414034e-07</v>
       </c>
       <c r="BE19" t="n">
-        <v>2.248209784738719e-05</v>
+        <v>6.515310360555304e-06</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.408271145919571e-06</v>
+        <v>2.645339691298432e-06</v>
       </c>
       <c r="BG19" t="n">
-        <v>4.881540371570736e-05</v>
+        <v>6.591756118723424e-06</v>
       </c>
       <c r="BH19" t="n">
-        <v>1.782444269338157e-05</v>
+        <v>2.827209527822561e-06</v>
       </c>
       <c r="BI19" t="n">
-        <v>7.728064520051703e-05</v>
+        <v>1.662858153395064e-06</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.0001076229236787185</v>
+        <v>3.237367081965203e-06</v>
       </c>
       <c r="BK19" t="n">
-        <v>9.267650966648944e-06</v>
+        <v>2.02917163960592e-07</v>
       </c>
       <c r="BL19" t="n">
-        <v>1.763006184773985e-05</v>
+        <v>2.653547653608257e-06</v>
       </c>
       <c r="BM19" t="n">
-        <v>2.270335608045571e-05</v>
+        <v>4.667727353080409e-06</v>
       </c>
       <c r="BN19" t="n">
-        <v>1.02269186754711e-05</v>
+        <v>3.254913735872833e-06</v>
       </c>
       <c r="BO19" t="n">
-        <v>3.753022610908374e-05</v>
+        <v>1.914081167342374e-06</v>
       </c>
       <c r="BP19" t="n">
-        <v>1.309079652855871e-05</v>
+        <v>4.27467512054136e-06</v>
       </c>
       <c r="BQ19" t="n">
-        <v>4.19646949012531e-06</v>
+        <v>2.169065965063055e-06</v>
       </c>
       <c r="BR19" t="n">
-        <v>3.904246841557324e-05</v>
+        <v>7.402444452964119e-07</v>
       </c>
       <c r="BS19" t="n">
-        <v>6.568136541318381e-06</v>
+        <v>2.984867478517117e-06</v>
       </c>
       <c r="BT19" t="n">
-        <v>1.037487891153432e-05</v>
+        <v>2.047148427664069e-06</v>
       </c>
       <c r="BU19" t="n">
-        <v>9.547892841510475e-05</v>
+        <v>7.451351393683581e-07</v>
       </c>
       <c r="BV19" t="n">
-        <v>8.823703865346033e-06</v>
+        <v>6.710606157867005e-06</v>
       </c>
       <c r="BW19" t="n">
-        <v>1.719982174108736e-05</v>
+        <v>2.459396000631386e-06</v>
       </c>
       <c r="BX19" t="n">
-        <v>8.743950456846505e-05</v>
+        <v>1.465961418034567e-06</v>
       </c>
       <c r="BY19" t="n">
-        <v>4.722052835859358e-05</v>
+        <v>1.474168129789177e-07</v>
       </c>
       <c r="BZ19" t="n">
-        <v>1.49882907862775e-05</v>
+        <v>1.282732682739152e-06</v>
       </c>
       <c r="CA19" t="n">
-        <v>2.39341170527041e-05</v>
+        <v>3.100333287875401e-06</v>
       </c>
       <c r="CB19" t="n">
-        <v>3.133342397632077e-05</v>
+        <v>1.165748471976258e-06</v>
       </c>
       <c r="CC19" t="n">
-        <v>3.240539444959722e-05</v>
+        <v>1.697987158877368e-06</v>
       </c>
       <c r="CD19" t="n">
-        <v>3.789627953665331e-05</v>
+        <v>1.699668246146757e-07</v>
       </c>
       <c r="CE19" t="n">
-        <v>5.796098412247375e-05</v>
+        <v>2.706833356569405e-06</v>
       </c>
       <c r="CF19" t="n">
-        <v>1.610492108738981e-05</v>
+        <v>1.99351802621095e-06</v>
       </c>
       <c r="CG19" t="n">
-        <v>5.783001688541844e-05</v>
+        <v>1.016632836581266e-06</v>
       </c>
       <c r="CH19" t="n">
-        <v>2.331135328859091e-05</v>
+        <v>3.712572151925997e-07</v>
       </c>
       <c r="CI19" t="n">
-        <v>6.684135769319255e-07</v>
+        <v>1.194514766211796e-06</v>
       </c>
       <c r="CJ19" t="n">
-        <v>4.702094156527892e-05</v>
+        <v>4.662415449274704e-07</v>
       </c>
       <c r="CK19" t="n">
-        <v>4.519592948781792e-06</v>
+        <v>5.907945705985185e-07</v>
       </c>
       <c r="CL19" t="n">
-        <v>4.264991730451584e-06</v>
+        <v>1.726179561956087e-06</v>
       </c>
       <c r="CM19" t="n">
-        <v>1.154105302703101e-05</v>
+        <v>3.896803718816955e-06</v>
       </c>
       <c r="CN19" t="n">
-        <v>4.96012216899544e-06</v>
+        <v>8.374228741558909e-07</v>
       </c>
       <c r="CO19" t="n">
-        <v>1.233934381161816e-05</v>
+        <v>1.735265414026799e-06</v>
       </c>
       <c r="CP19" t="n">
-        <v>2.88688297587214e-05</v>
+        <v>5.204315129958559e-06</v>
       </c>
       <c r="CQ19" t="n">
-        <v>6.18299818597734e-05</v>
+        <v>3.590785354390391e-06</v>
       </c>
       <c r="CR19" t="n">
-        <v>3.421262226765975e-05</v>
+        <v>5.84658437219332e-07</v>
       </c>
       <c r="CS19" t="n">
-        <v>1.290229920414276e-05</v>
+        <v>3.449613359407522e-06</v>
       </c>
       <c r="CT19" t="n">
-        <v>6.24108406555024e-06</v>
+        <v>2.641771459366282e-07</v>
       </c>
       <c r="CU19" t="n">
-        <v>7.75626722315792e-06</v>
+        <v>1.19770004403108e-06</v>
       </c>
       <c r="CV19" t="n">
-        <v>3.059272057726048e-05</v>
+        <v>1.620220047016119e-07</v>
       </c>
       <c r="CW19" t="n">
-        <v>5.818540375912562e-05</v>
+        <v>2.274733787999139e-06</v>
       </c>
       <c r="CX19" t="n">
-        <v>2.102609869325534e-05</v>
+        <v>1.821907858357008e-06</v>
       </c>
       <c r="CY19" t="n">
-        <v>4.399809404276311e-05</v>
+        <v>2.093994680762989e-06</v>
       </c>
       <c r="CZ19" t="n">
-        <v>9.039613360073417e-07</v>
+        <v>1.07400137494551e-06</v>
       </c>
       <c r="DA19" t="n">
-        <v>2.388124585195328e-06</v>
+        <v>1.511067694082158e-06</v>
       </c>
       <c r="DB19" t="n">
-        <v>4.24875870521646e-05</v>
+        <v>1.092303591576638e-06</v>
       </c>
       <c r="DC19" t="n">
-        <v>2.158640654670307e-06</v>
+        <v>7.208464580799046e-07</v>
       </c>
       <c r="DD19" t="n">
-        <v>4.871258170169313e-06</v>
+        <v>1.220538251800463e-06</v>
       </c>
       <c r="DE19" t="n">
-        <v>8.581969268561807e-06</v>
+        <v>3.031518417628831e-06</v>
       </c>
       <c r="DF19" t="n">
-        <v>5.990785575704649e-05</v>
+        <v>3.221072120140889e-07</v>
       </c>
       <c r="DG19" t="n">
-        <v>3.515669595799409e-05</v>
+        <v>4.860785793425748e-06</v>
       </c>
       <c r="DH19" t="n">
-        <v>4.567783616948873e-05</v>
+        <v>7.570969501102809e-06</v>
       </c>
       <c r="DI19" t="n">
-        <v>7.787310460116714e-05</v>
+        <v>2.432720521028386e-06</v>
       </c>
       <c r="DJ19" t="n">
-        <v>3.252356327720918e-05</v>
+        <v>4.838684617425315e-07</v>
       </c>
       <c r="DK19" t="n">
-        <v>1.089500619855244e-05</v>
+        <v>8.364089580936707e-07</v>
       </c>
       <c r="DL19" t="n">
-        <v>7.544046820839867e-05</v>
+        <v>2.800397624014295e-06</v>
       </c>
       <c r="DM19" t="n">
-        <v>8.53649980854243e-05</v>
+        <v>9.829374221226317e-07</v>
       </c>
       <c r="DN19" t="n">
-        <v>4.067487225256627e-06</v>
+        <v>4.081823590240674e-07</v>
       </c>
       <c r="DO19" t="n">
-        <v>4.581267057801597e-05</v>
+        <v>5.601468728855252e-07</v>
       </c>
       <c r="DP19" t="n">
-        <v>3.120433757430874e-05</v>
+        <v>2.538873559387866e-06</v>
       </c>
       <c r="DQ19" t="n">
-        <v>3.4839213185478e-05</v>
+        <v>8.181287398656423e-07</v>
       </c>
       <c r="DR19" t="n">
-        <v>1.951562080648728e-05</v>
+        <v>5.066428343525331e-07</v>
       </c>
       <c r="DS19" t="n">
-        <v>2.377705823164433e-05</v>
+        <v>4.894052381132497e-07</v>
       </c>
       <c r="DT19" t="n">
-        <v>2.823795693984721e-05</v>
+        <v>4.803117690244108e-07</v>
       </c>
       <c r="DU19" t="n">
-        <v>2.667908120201901e-05</v>
+        <v>9.217226306645898e-07</v>
       </c>
       <c r="DV19" t="n">
-        <v>5.439771030069096e-06</v>
+        <v>2.551777242842945e-06</v>
       </c>
       <c r="DW19" t="n">
-        <v>1.519622128398623e-05</v>
+        <v>3.246645974286366e-07</v>
       </c>
       <c r="DX19" t="n">
-        <v>2.236094223917462e-05</v>
+        <v>3.581598321034107e-06</v>
       </c>
       <c r="DY19" t="n">
-        <v>1.712689663690981e-05</v>
+        <v>3.698319687828189e-06</v>
       </c>
       <c r="DZ19" t="n">
-        <v>1.950181967913522e-06</v>
+        <v>3.470144349648763e-08</v>
       </c>
       <c r="EA19" t="n">
-        <v>5.240971950115636e-05</v>
+        <v>1.202561065838381e-06</v>
       </c>
       <c r="EB19" t="n">
-        <v>1.340686048934003e-05</v>
+        <v>3.359319180162856e-06</v>
       </c>
       <c r="EC19" t="n">
-        <v>3.499099329928868e-05</v>
+        <v>7.601746574437129e-07</v>
       </c>
       <c r="ED19" t="n">
-        <v>5.13426202815026e-05</v>
+        <v>4.90560807975271e-07</v>
       </c>
       <c r="EE19" t="n">
-        <v>2.907921407313552e-05</v>
+        <v>6.324876267171931e-07</v>
       </c>
       <c r="EF19" t="n">
-        <v>6.800327537348494e-05</v>
+        <v>1.300747840105032e-06</v>
       </c>
       <c r="EG19" t="n">
-        <v>6.322973786154762e-05</v>
+        <v>1.682904212430003e-06</v>
       </c>
       <c r="EH19" t="n">
-        <v>8.389330105273984e-06</v>
+        <v>9.904517810355173e-07</v>
       </c>
       <c r="EI19" t="n">
-        <v>9.249793947674334e-05</v>
+        <v>1.479862589803815e-06</v>
       </c>
       <c r="EJ19" t="n">
-        <v>3.761441257665865e-05</v>
+        <v>2.116036284860456e-06</v>
       </c>
       <c r="EK19" t="n">
-        <v>2.233697159681469e-05</v>
+        <v>1.07140670024819e-06</v>
       </c>
       <c r="EL19" t="n">
-        <v>2.529004996176809e-05</v>
+        <v>1.600597784090496e-06</v>
       </c>
       <c r="EM19" t="n">
-        <v>2.206317731179297e-06</v>
+        <v>1.282399011870439e-06</v>
       </c>
       <c r="EN19" t="n">
-        <v>4.153603185841348e-06</v>
+        <v>5.887015959160635e-07</v>
       </c>
       <c r="EO19" t="n">
-        <v>4.409856046549976e-06</v>
+        <v>2.981901161547285e-07</v>
       </c>
       <c r="EP19" t="n">
-        <v>6.450006912928075e-05</v>
+        <v>9.577230457580299e-07</v>
       </c>
       <c r="EQ19" t="n">
-        <v>1.196008815895766e-05</v>
+        <v>2.396980107732816e-06</v>
       </c>
       <c r="ER19" t="n">
-        <v>1.18775697046658e-05</v>
+        <v>8.789331218395091e-08</v>
       </c>
       <c r="ES19" t="n">
-        <v>3.679256406030618e-05</v>
+        <v>1.868050617304107e-06</v>
       </c>
       <c r="ET19" t="n">
-        <v>3.650652843134594e-06</v>
+        <v>3.958626564326551e-07</v>
       </c>
       <c r="EU19" t="n">
-        <v>2.34885374084115e-06</v>
+        <v>1.253853383786918e-06</v>
       </c>
       <c r="EV19" t="n">
-        <v>2.595542900962755e-05</v>
+        <v>3.106696567556355e-06</v>
       </c>
       <c r="EW19" t="n">
-        <v>1.4041103895579e-05</v>
+        <v>1.211161702485697e-06</v>
       </c>
       <c r="EX19" t="n">
-        <v>3.581596320145763e-05</v>
+        <v>4.331501770593604e-07</v>
       </c>
       <c r="EY19" t="n">
-        <v>4.606908623827621e-05</v>
+        <v>2.164047828046023e-06</v>
       </c>
       <c r="EZ19" t="n">
-        <v>2.269184733449947e-05</v>
+        <v>1.599482970959798e-06</v>
       </c>
       <c r="FA19" t="n">
-        <v>4.722683297586627e-05</v>
+        <v>1.294003823204548e-06</v>
       </c>
       <c r="FB19" t="n">
-        <v>8.102974788926076e-06</v>
+        <v>5.680760750692571e-09</v>
       </c>
       <c r="FC19" t="n">
-        <v>1.712579978629947e-05</v>
+        <v>1.438951358068152e-06</v>
       </c>
       <c r="FD19" t="n">
-        <v>4.157775401836261e-05</v>
+        <v>8.006699658835714e-07</v>
       </c>
       <c r="FE19" t="n">
-        <v>4.08860341849504e-06</v>
+        <v>2.691105294161389e-07</v>
       </c>
       <c r="FF19" t="n">
-        <v>4.107319455215475e-06</v>
+        <v>1.930848384290584e-06</v>
       </c>
       <c r="FG19" t="n">
-        <v>3.054642729694024e-05</v>
+        <v>1.300948497373611e-06</v>
       </c>
       <c r="FH19" t="n">
-        <v>6.339926585496869e-06</v>
+        <v>1.608064394531539e-06</v>
       </c>
       <c r="FI19" t="n">
-        <v>1.521762806078186e-05</v>
+        <v>4.365230324765434e-06</v>
       </c>
       <c r="FJ19" t="n">
-        <v>2.503686300769914e-05</v>
+        <v>2.795230329866172e-06</v>
       </c>
       <c r="FK19" t="n">
-        <v>3.551857662387192e-05</v>
+        <v>7.644734409950615e-07</v>
       </c>
       <c r="FL19" t="n">
-        <v>2.333663178433198e-05</v>
+        <v>2.412725450540165e-07</v>
       </c>
       <c r="FM19" t="n">
-        <v>2.944879452115856e-05</v>
+        <v>9.829577720665839e-07</v>
       </c>
       <c r="FN19" t="n">
-        <v>3.769712202483788e-05</v>
+        <v>2.222478315161425e-06</v>
       </c>
       <c r="FO19" t="n">
-        <v>8.256807632278651e-06</v>
+        <v>1.936860599016654e-06</v>
       </c>
       <c r="FP19" t="n">
-        <v>4.391543916426599e-05</v>
+        <v>7.505830694753968e-07</v>
       </c>
       <c r="FQ19" t="n">
-        <v>7.57899324526079e-05</v>
+        <v>2.772993411781499e-06</v>
       </c>
       <c r="FR19" t="n">
-        <v>2.049578688456677e-05</v>
+        <v>1.430886982234369e-07</v>
       </c>
       <c r="FS19" t="n">
-        <v>7.472652214346454e-06</v>
+        <v>1.464575802856416e-07</v>
       </c>
       <c r="FT19" t="n">
-        <v>5.323994628270157e-05</v>
+        <v>3.865409325953806e-06</v>
       </c>
       <c r="FU19" t="n">
-        <v>0.0001023113363771699</v>
+        <v>1.085606982087484e-06</v>
       </c>
       <c r="FV19" t="n">
-        <v>5.239515303401276e-05</v>
+        <v>2.746762220340315e-06</v>
       </c>
       <c r="FW19" t="n">
-        <v>2.919776306953281e-06</v>
+        <v>1.084993527911138e-06</v>
       </c>
       <c r="FX19" t="n">
-        <v>3.745111098396592e-05</v>
+        <v>2.35415541283146e-06</v>
       </c>
       <c r="FY19" t="n">
-        <v>3.807571192737669e-05</v>
+        <v>4.188178536423948e-06</v>
       </c>
       <c r="FZ19" t="n">
-        <v>5.728081760025816e-06</v>
+        <v>2.135103841283126e-06</v>
       </c>
       <c r="GA19" t="n">
-        <v>2.113422306138091e-05</v>
+        <v>9.346578622171364e-08</v>
       </c>
       <c r="GB19" t="n">
-        <v>5.117099135532044e-05</v>
+        <v>3.643971808742208e-07</v>
       </c>
       <c r="GC19" t="n">
-        <v>2.028603557846509e-05</v>
+        <v>5.334486559149809e-06</v>
       </c>
       <c r="GD19" t="n">
-        <v>2.076285818475299e-05</v>
+        <v>2.460961695760489e-06</v>
       </c>
       <c r="GE19" t="n">
-        <v>4.726815677713603e-05</v>
+        <v>5.809892627439694e-06</v>
       </c>
       <c r="GF19" t="n">
-        <v>8.956695637607481e-06</v>
+        <v>5.639505502585962e-07</v>
       </c>
       <c r="GG19" t="n">
-        <v>2.290253905812278e-05</v>
+        <v>2.144426616723649e-06</v>
       </c>
     </row>
   </sheetData>
